--- a/outputs/MARS_Multi_Illumination_output/MARS_Multi_Illumination_m3c2_stats_distances.xlsx
+++ b/outputs/MARS_Multi_Illumination_output/MARS_Multi_Illumination_m3c2_stats_distances.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="134">
   <si>
     <t>Calculated on all distances (incl. Outliers)</t>
   </si>
@@ -258,6 +258,9 @@
     <t>data\Multi-illumination\Job_0378_8400-110\1-1</t>
   </si>
   <si>
+    <t>AI_cloud vs. cloud</t>
+  </si>
+  <si>
     <t>std</t>
   </si>
   <si>
@@ -339,7 +342,88 @@
     <t>data\Multi-illumination\Job_0378_8400-110\1-7\python_Job_0378_8400-110-rad-1-7-AI_cloud_m3c2_params.txt</t>
   </si>
   <si>
-    <t>AI_cloud vs. cloud</t>
+    <t>2025-08-27 15:47:40</t>
+  </si>
+  <si>
+    <t>data\Multi-illumination\Job_0378_8400-110\1-5_2-5</t>
+  </si>
+  <si>
+    <t>data\Multi-illumination\Job_0378_8400-110\1-5_2-5\python_Job_0378_8400-110-rad-1-5-AI_cloud_moved_m3c2_distances.txt</t>
+  </si>
+  <si>
+    <t>data\Multi-illumination\Job_0378_8400-110\1-5_2-5\python_Job_0378_8400-110-rad-1-5-AI_cloud_moved_m3c2_params.txt</t>
+  </si>
+  <si>
+    <t>2025-08-27 15:52:08</t>
+  </si>
+  <si>
+    <t>data\Multi-illumination\Job_0378_8400-110\1-5_2-5\python_Job_0378_8400-110-rad-2-5-AI_cloud_moved_m3c2_distances.txt</t>
+  </si>
+  <si>
+    <t>data\Multi-illumination\Job_0378_8400-110\1-5_2-5\python_Job_0378_8400-110-rad-2-5-AI_cloud_moved_m3c2_params.txt</t>
+  </si>
+  <si>
+    <t>2025-08-27 15:56:34</t>
+  </si>
+  <si>
+    <t>data\Multi-illumination\Job_0378_8400-110\1-5_2-5\python_Job_0378_8400-110-rad-1-5_cloud_moved_m3c2_distances.txt</t>
+  </si>
+  <si>
+    <t>data\Multi-illumination\Job_0378_8400-110\1-5_2-5\python_Job_0378_8400-110-rad-1-5_cloud_moved_m3c2_params.txt</t>
+  </si>
+  <si>
+    <t>2025-08-27 16:37:38</t>
+  </si>
+  <si>
+    <t>data\Multi-illumination\Job_0378_8400-110\1-3_2-3\1-3_1-3_AI</t>
+  </si>
+  <si>
+    <t>data\Multi-illumination\Job_0378_8400-110\1-3_2-3\1-3_1-3_AI\python_Job_0378_8400-110-rad-1-3-AI_cloud_moved_m3c2_distances.txt</t>
+  </si>
+  <si>
+    <t>data\Multi-illumination\Job_0378_8400-110\1-3_2-3\1-3_1-3_AI\python_Job_0378_8400-110-rad-1-3-AI_cloud_moved_m3c2_params.txt</t>
+  </si>
+  <si>
+    <t>2025-08-27 16:40:33</t>
+  </si>
+  <si>
+    <t>data\Multi-illumination\Job_0378_8400-110\1-3_2-3\1-3_2-3</t>
+  </si>
+  <si>
+    <t>data\Multi-illumination\Job_0378_8400-110\1-3_2-3\1-3_2-3\python_Job_0378_8400-110-rad-1-3_cloud_moved_m3c2_distances.txt</t>
+  </si>
+  <si>
+    <t>data\Multi-illumination\Job_0378_8400-110\1-3_2-3\1-3_2-3\python_Job_0378_8400-110-rad-1-3_cloud_moved_m3c2_params.txt</t>
+  </si>
+  <si>
+    <t>2025-08-27 16:43:47</t>
+  </si>
+  <si>
+    <t>data\Multi-illumination\Job_0378_8400-110\1-3_2-3\2-3_2-3_AI</t>
+  </si>
+  <si>
+    <t>data\Multi-illumination\Job_0378_8400-110\1-3_2-3\2-3_2-3_AI\python_Job_0378_8400-110-rad-2-3_cloud_moved_m3c2_distances.txt</t>
+  </si>
+  <si>
+    <t>data\Multi-illumination\Job_0378_8400-110\1-3_2-3\2-3_2-3_AI\python_Job_0378_8400-110-rad-2-3_cloud_moved_m3c2_params.txt</t>
+  </si>
+  <si>
+    <t>1-3_1-3_AI</t>
+  </si>
+  <si>
+    <t>1-3_2-3</t>
+  </si>
+  <si>
+    <t>2-3_2-3_AI</t>
+  </si>
+  <si>
+    <t>1-5_1-5_AI</t>
+  </si>
+  <si>
+    <t>2-5_2-5_AI</t>
+  </si>
+  <si>
+    <t>1-5_2-5</t>
   </si>
 </sst>
 </file>
@@ -419,7 +503,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -494,6 +578,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -501,9 +594,6 @@
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -539,11 +629,21 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -551,15 +651,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -865,333 +956,334 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM9"/>
+  <dimension ref="A1:BM15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="17" style="13" customWidth="1"/>
-    <col min="5" max="6" width="9.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="13" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="13" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="31" width="10.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.42578125" style="13" customWidth="1"/>
-    <col min="33" max="33" width="12.28515625" style="13" customWidth="1"/>
-    <col min="34" max="34" width="10.5703125" style="13" customWidth="1"/>
-    <col min="36" max="39" width="9.85546875" style="13" customWidth="1"/>
-    <col min="41" max="54" width="10.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="21.85546875" style="13" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="17" style="13" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="14.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="10.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="11.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="20.7109375" style="13" hidden="1" customWidth="1"/>
-    <col min="62" max="62" width="10.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="10.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="46.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="44.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="66" max="72" width="9.140625" style="13" customWidth="1"/>
-    <col min="73" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="19.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="6" width="7.28515625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="12" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="31" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.42578125" style="12" customWidth="1"/>
+    <col min="33" max="33" width="12.28515625" style="12" customWidth="1"/>
+    <col min="34" max="34" width="10.5703125" style="12" customWidth="1"/>
+    <col min="36" max="39" width="9.85546875" style="12" customWidth="1"/>
+    <col min="41" max="54" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="21.85546875" style="12" hidden="1" customWidth="1"/>
+    <col min="56" max="56" width="17" style="12" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="14.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="11.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="20.7109375" style="12" hidden="1" customWidth="1"/>
+    <col min="62" max="62" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="10.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="125.42578125" style="12" hidden="1" customWidth="1"/>
+    <col min="65" max="65" width="44.5703125" style="12" hidden="1" customWidth="1"/>
+    <col min="66" max="73" width="9.140625" style="12" customWidth="1"/>
+    <col min="74" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="15" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="19" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="15" t="s">
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="20" t="s">
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="21" t="s">
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16"/>
-      <c r="AN1" s="16"/>
-      <c r="AO1" s="16"/>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="22" t="s">
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AR1" s="16"/>
-      <c r="AS1" s="16"/>
-      <c r="AT1" s="16"/>
-      <c r="AU1" s="17"/>
-      <c r="AV1" s="19" t="s">
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="17"/>
+      <c r="AU1" s="18"/>
+      <c r="AV1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="AW1" s="16"/>
-      <c r="AX1" s="16"/>
-      <c r="AY1" s="16"/>
-      <c r="AZ1" s="17"/>
-      <c r="BA1" s="15" t="s">
+      <c r="AW1" s="17"/>
+      <c r="AX1" s="17"/>
+      <c r="AY1" s="17"/>
+      <c r="AZ1" s="18"/>
+      <c r="BA1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="BB1" s="16"/>
-      <c r="BC1" s="16"/>
-      <c r="BD1" s="16"/>
-      <c r="BE1" s="16"/>
-      <c r="BF1" s="16"/>
-      <c r="BG1" s="16"/>
-      <c r="BH1" s="16"/>
-      <c r="BI1" s="16"/>
-      <c r="BJ1" s="16"/>
-      <c r="BK1" s="17"/>
+      <c r="BB1" s="17"/>
+      <c r="BC1" s="17"/>
+      <c r="BD1" s="17"/>
+      <c r="BE1" s="17"/>
+      <c r="BF1" s="17"/>
+      <c r="BG1" s="17"/>
+      <c r="BH1" s="17"/>
+      <c r="BI1" s="17"/>
+      <c r="BJ1" s="17"/>
+      <c r="BK1" s="18"/>
     </row>
-    <row r="2" spans="1:65" s="5" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:65" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="23" t="s">
+      <c r="T2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AA2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AB2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AC2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AD2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AE2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AF2" s="14" t="s">
+      <c r="AF2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AG2" s="14" t="s">
+      <c r="AG2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AH2" s="14" t="s">
+      <c r="AH2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AI2" s="11" t="s">
+      <c r="AI2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AJ2" s="11" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="11" t="s">
+      <c r="AK2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="AL2" s="12" t="s">
+      <c r="AL2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AM2" s="12" t="s">
+      <c r="AM2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AN2" s="12" t="s">
+      <c r="AN2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AO2" s="12" t="s">
+      <c r="AO2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AP2" s="12" t="s">
+      <c r="AP2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AR2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AS2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="AT2" s="1" t="s">
+      <c r="AT2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AU2" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AV2" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AW2" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AX2" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AY2" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="AZ2" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BA2" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BB2" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BC2" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BD2" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BE2" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BF2" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BG2" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BH2" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BI2" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BJ2" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="BK2" s="1" t="s">
+      <c r="BK2" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="BL2" s="1" t="s">
+      <c r="BL2" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="BM2" s="1" t="s">
+      <c r="BM2" s="14" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1203,7 +1295,7 @@
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="D3">
         <v>1848754</v>
@@ -1296,7 +1388,7 @@
         <v>2.8987225010835092E-3</v>
       </c>
       <c r="AH3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI3">
         <v>1828425</v>
@@ -1386,21 +1478,21 @@
         <v>0.70709521600129976</v>
       </c>
       <c r="BL3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BM3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>105</v>
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
       </c>
       <c r="D4">
         <v>1878902</v>
@@ -1493,7 +1585,7 @@
         <v>2.3642819230001448E-3</v>
       </c>
       <c r="AH4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI4">
         <v>1839658</v>
@@ -1583,21 +1675,21 @@
         <v>2.633819827986851</v>
       </c>
       <c r="BL4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BM4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>105</v>
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
       </c>
       <c r="D5">
         <v>1900069</v>
@@ -1690,7 +1782,7 @@
         <v>2.7529500676348379E-3</v>
       </c>
       <c r="AH5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI5">
         <v>1864352</v>
@@ -1780,21 +1872,21 @@
         <v>1.9867408025238671</v>
       </c>
       <c r="BL5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="BM5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>105</v>
+        <v>91</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
       </c>
       <c r="D6">
         <v>1801484</v>
@@ -1887,7 +1979,7 @@
         <v>2.2612950850070261E-3</v>
       </c>
       <c r="AH6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI6">
         <v>1763317</v>
@@ -1977,21 +2069,21 @@
         <v>2.5684437604908958</v>
       </c>
       <c r="BL6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="BM6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>105</v>
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
       </c>
       <c r="D7">
         <v>1838147</v>
@@ -2084,7 +2176,7 @@
         <v>2.592776601724162E-3</v>
       </c>
       <c r="AH7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI7">
         <v>1815047</v>
@@ -2174,21 +2266,21 @@
         <v>1.6998174583202921</v>
       </c>
       <c r="BL7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BM7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>105</v>
+        <v>99</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
       </c>
       <c r="D8">
         <v>1843820</v>
@@ -2281,7 +2373,7 @@
         <v>2.393666029402013E-3</v>
       </c>
       <c r="AH8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI8">
         <v>1821523</v>
@@ -2371,207 +2463,1389 @@
         <v>1.244933915807767</v>
       </c>
       <c r="BL8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BM8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:65" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="B9" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="15">
+        <v>1796164</v>
+      </c>
+      <c r="E9" s="15">
+        <v>2E-3</v>
+      </c>
+      <c r="F9" s="15">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G9" s="15">
+        <v>4545</v>
+      </c>
+      <c r="H9" s="15">
+        <v>2.530392547673821E-3</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0.99746960745232616</v>
+      </c>
+      <c r="J9" s="15">
+        <v>1791619</v>
+      </c>
+      <c r="K9" s="15">
+        <v>-443.82193000000001</v>
+      </c>
+      <c r="L9" s="15">
+        <v>1.2996335951539999</v>
+      </c>
+      <c r="M9" s="15">
+        <v>1765379</v>
+      </c>
+      <c r="N9" s="15">
+        <v>-411.92550499999999</v>
+      </c>
+      <c r="O9" s="15">
+        <v>1.071713381031</v>
+      </c>
+      <c r="P9" s="15">
+        <v>-4.2890000000000003E-3</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>3.9290000000000002E-3</v>
+      </c>
+      <c r="R9" s="15">
+        <v>-2.4772115611633948E-4</v>
+      </c>
+      <c r="S9" s="15">
+        <v>-2.3800000000000001E-4</v>
+      </c>
+      <c r="T9" s="15">
+        <v>8.5170193684826201E-4</v>
+      </c>
+      <c r="U9" s="15">
+        <v>8.1488061582262784E-4</v>
+      </c>
+      <c r="V9" s="15">
+        <v>6.2145386491212695E-4</v>
+      </c>
+      <c r="W9" s="15">
+        <v>5.9007480000000006E-4</v>
+      </c>
+      <c r="X9" s="15">
+        <v>-2.6919999999999999E-3</v>
+      </c>
+      <c r="Y9" s="15">
+        <v>2.196E-3</v>
+      </c>
+      <c r="Z9" s="15">
+        <v>-2.3333545091450619E-4</v>
+      </c>
+      <c r="AA9" s="15">
+        <v>-2.3499999999999999E-4</v>
+      </c>
+      <c r="AB9" s="15">
+        <v>7.7914869664949646E-4</v>
+      </c>
+      <c r="AC9" s="15">
+        <v>7.4338903599470256E-4</v>
+      </c>
+      <c r="AD9" s="15">
+        <v>5.8731266373962749E-4</v>
+      </c>
+      <c r="AE9" s="15">
+        <v>5.7673139999999995E-4</v>
+      </c>
+      <c r="AF9" s="15">
+        <v>3</v>
+      </c>
+      <c r="AG9" s="15">
+        <v>2.4446418474678841E-3</v>
+      </c>
+      <c r="AH9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI9" s="15">
+        <v>1765379</v>
+      </c>
+      <c r="AJ9" s="15">
+        <v>584283</v>
+      </c>
+      <c r="AK9" s="15">
+        <v>1180017</v>
+      </c>
+      <c r="AL9" s="15">
+        <v>8550</v>
+      </c>
+      <c r="AM9" s="15">
+        <v>17690</v>
+      </c>
+      <c r="AN9" s="15">
+        <v>26240</v>
+      </c>
+      <c r="AO9" s="15">
+        <v>-1.2155649771341461E-3</v>
+      </c>
+      <c r="AP9" s="15">
+        <v>2.6848436744615631E-3</v>
+      </c>
+      <c r="AQ9" s="15">
+        <v>-1.6299999999999999E-3</v>
+      </c>
+      <c r="AR9" s="15">
+        <v>-6.3500000000000004E-4</v>
+      </c>
+      <c r="AS9" s="15">
+        <v>1.6100000000000001E-4</v>
+      </c>
+      <c r="AT9" s="15">
+        <v>1.101E-3</v>
+      </c>
+      <c r="AU9" s="15">
+        <v>7.9600000000000005E-4</v>
+      </c>
+      <c r="AV9" s="15">
+        <v>-1.518E-3</v>
+      </c>
+      <c r="AW9" s="15">
+        <v>-6.2E-4</v>
+      </c>
+      <c r="AX9" s="15">
+        <v>1.5899999999999999E-4</v>
+      </c>
+      <c r="AY9" s="15">
+        <v>1.0560000000000001E-3</v>
+      </c>
+      <c r="AZ9" s="15">
+        <v>7.7899999999999996E-4</v>
+      </c>
+      <c r="BA9" s="15">
+        <v>-2.4772115611633948E-4</v>
+      </c>
+      <c r="BB9" s="15">
+        <v>8.1488061582262784E-4</v>
+      </c>
+      <c r="BC9" s="15">
+        <v>578540.15135124186</v>
+      </c>
+      <c r="BD9" s="15">
+        <v>5.2652448874361362</v>
+      </c>
+      <c r="BE9" s="15">
+        <v>4.3633475494600157E-3</v>
+      </c>
+      <c r="BF9" s="15">
+        <v>-4.2896485267772157E-3</v>
+      </c>
+      <c r="BG9" s="15">
+        <v>-9.7404824018398374E-5</v>
+      </c>
+      <c r="BH9" s="15">
+        <v>-0.28937373573272951</v>
+      </c>
+      <c r="BI9" s="15">
+        <v>1560315349.7288761</v>
+      </c>
+      <c r="BJ9" s="15">
+        <v>-0.17371904743128719</v>
+      </c>
+      <c r="BK9" s="15">
+        <v>2.0872163460411568</v>
+      </c>
+      <c r="BL9" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="BM9" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D9">
-        <v>1796164</v>
-      </c>
-      <c r="E9">
+    </row>
+    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10">
+        <v>1838147</v>
+      </c>
+      <c r="E10">
         <v>2E-3</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G9">
-        <v>4545</v>
-      </c>
-      <c r="H9">
-        <v>2.530392547673821E-3</v>
-      </c>
-      <c r="I9">
-        <v>0.99746960745232616</v>
-      </c>
-      <c r="J9">
-        <v>1791619</v>
-      </c>
-      <c r="K9">
-        <v>-443.82193000000001</v>
-      </c>
-      <c r="L9">
-        <v>1.2996335951539999</v>
-      </c>
-      <c r="M9">
-        <v>1765379</v>
-      </c>
-      <c r="N9">
-        <v>-411.92550499999999</v>
-      </c>
-      <c r="O9">
-        <v>1.071713381031</v>
-      </c>
-      <c r="P9">
-        <v>-4.2890000000000003E-3</v>
-      </c>
-      <c r="Q9">
-        <v>3.9290000000000002E-3</v>
-      </c>
-      <c r="R9">
-        <v>-2.4772115611633948E-4</v>
-      </c>
-      <c r="S9">
-        <v>-2.3800000000000001E-4</v>
-      </c>
-      <c r="T9">
-        <v>8.5170193684826201E-4</v>
-      </c>
-      <c r="U9">
-        <v>8.1488061582262784E-4</v>
-      </c>
-      <c r="V9">
-        <v>6.2145386491212695E-4</v>
-      </c>
-      <c r="W9">
-        <v>5.9007480000000006E-4</v>
-      </c>
-      <c r="X9">
-        <v>-2.6919999999999999E-3</v>
-      </c>
-      <c r="Y9">
-        <v>2.196E-3</v>
-      </c>
-      <c r="Z9">
-        <v>-2.3333545091450619E-4</v>
-      </c>
-      <c r="AA9">
-        <v>-2.3499999999999999E-4</v>
-      </c>
-      <c r="AB9">
-        <v>7.7914869664949646E-4</v>
-      </c>
-      <c r="AC9">
-        <v>7.4338903599470256E-4</v>
-      </c>
-      <c r="AD9">
-        <v>5.8731266373962749E-4</v>
-      </c>
-      <c r="AE9">
-        <v>5.7673139999999995E-4</v>
-      </c>
-      <c r="AF9">
+      <c r="G10">
+        <v>2713</v>
+      </c>
+      <c r="H10">
+        <v>1.475942892489012E-3</v>
+      </c>
+      <c r="I10">
+        <v>0.99852405710751102</v>
+      </c>
+      <c r="J10">
+        <v>1835434</v>
+      </c>
+      <c r="K10">
+        <v>-707.39812299999994</v>
+      </c>
+      <c r="L10">
+        <v>1.643617490499</v>
+      </c>
+      <c r="M10">
+        <v>1815039</v>
+      </c>
+      <c r="N10">
+        <v>-709.53198300000008</v>
+      </c>
+      <c r="O10">
+        <v>1.464372709929</v>
+      </c>
+      <c r="P10">
+        <v>-4.3600000000000002E-3</v>
+      </c>
+      <c r="Q10">
+        <v>3.9490000000000003E-3</v>
+      </c>
+      <c r="R10">
+        <v>-3.8541190966278271E-4</v>
+      </c>
+      <c r="S10">
+        <v>-3.3799999999999998E-4</v>
+      </c>
+      <c r="T10">
+        <v>9.4630468641177413E-4</v>
+      </c>
+      <c r="U10">
+        <v>8.6426281848461654E-4</v>
+      </c>
+      <c r="V10">
+        <v>6.9650989084870383E-4</v>
+      </c>
+      <c r="W10">
+        <v>6.0786599999999998E-4</v>
+      </c>
+      <c r="X10">
+        <v>-2.9780000000000002E-3</v>
+      </c>
+      <c r="Y10">
+        <v>2.2070000000000002E-3</v>
+      </c>
+      <c r="Z10">
+        <v>-3.9091831249907032E-4</v>
+      </c>
+      <c r="AA10">
+        <v>-3.39E-4</v>
+      </c>
+      <c r="AB10">
+        <v>8.9822023128054108E-4</v>
+      </c>
+      <c r="AC10">
+        <v>8.0869181820675544E-4</v>
+      </c>
+      <c r="AD10">
+        <v>6.7138149152717939E-4</v>
+      </c>
+      <c r="AE10">
+        <v>5.9897039999999991E-4</v>
+      </c>
+      <c r="AF10">
         <v>3</v>
       </c>
-      <c r="AG9">
-        <v>2.4446418474678841E-3</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI9">
-        <v>1765379</v>
-      </c>
-      <c r="AJ9">
-        <v>584283</v>
-      </c>
-      <c r="AK9">
-        <v>1180017</v>
-      </c>
-      <c r="AL9">
-        <v>8550</v>
-      </c>
-      <c r="AM9">
-        <v>17690</v>
-      </c>
-      <c r="AN9">
-        <v>26240</v>
-      </c>
-      <c r="AO9">
-        <v>-1.2155649771341461E-3</v>
-      </c>
-      <c r="AP9">
-        <v>2.6848436744615631E-3</v>
-      </c>
-      <c r="AQ9">
-        <v>-1.6299999999999999E-3</v>
-      </c>
-      <c r="AR9">
-        <v>-6.3500000000000004E-4</v>
-      </c>
-      <c r="AS9">
+      <c r="AG10">
+        <v>2.5927884554538491E-3</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI10">
+        <v>1815039</v>
+      </c>
+      <c r="AJ10">
+        <v>495610</v>
+      </c>
+      <c r="AK10">
+        <v>1318523</v>
+      </c>
+      <c r="AL10">
+        <v>11567</v>
+      </c>
+      <c r="AM10">
+        <v>8828</v>
+      </c>
+      <c r="AN10">
+        <v>20395</v>
+      </c>
+      <c r="AO10">
+        <v>1.046266241725913E-4</v>
+      </c>
+      <c r="AP10">
+        <v>2.962721081208567E-3</v>
+      </c>
+      <c r="AQ10">
+        <v>-2.0140000000000002E-3</v>
+      </c>
+      <c r="AR10">
+        <v>-7.7200000000000001E-4</v>
+      </c>
+      <c r="AS10">
+        <v>5.3000000000000001E-5</v>
+      </c>
+      <c r="AT10">
+        <v>9.5299999999999996E-4</v>
+      </c>
+      <c r="AU10">
+        <v>8.25E-4</v>
+      </c>
+      <c r="AV10">
+        <v>-1.9610000000000001E-3</v>
+      </c>
+      <c r="AW10">
+        <v>-7.67E-4</v>
+      </c>
+      <c r="AX10">
+        <v>4.6E-5</v>
+      </c>
+      <c r="AY10">
+        <v>8.9099999999999997E-4</v>
+      </c>
+      <c r="AZ10">
+        <v>8.1300000000000003E-4</v>
+      </c>
+      <c r="BA10">
+        <v>-3.8541190966278271E-4</v>
+      </c>
+      <c r="BB10">
+        <v>8.6426281848461654E-4</v>
+      </c>
+      <c r="BC10">
+        <v>393846.34978408553</v>
+      </c>
+      <c r="BD10">
+        <v>4.9305939725702448</v>
+      </c>
+      <c r="BE10">
+        <v>4.3101056020565234E-3</v>
+      </c>
+      <c r="BF10">
+        <v>-4.36032921407242E-3</v>
+      </c>
+      <c r="BG10">
+        <v>-2.4388194603458879E-4</v>
+      </c>
+      <c r="BH10">
+        <v>-0.24436362494983771</v>
+      </c>
+      <c r="BI10">
+        <v>34328485.413518503</v>
+      </c>
+      <c r="BJ10">
+        <v>-0.1597823831466095</v>
+      </c>
+      <c r="BK10">
+        <v>1.6995150221965249</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>108</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11">
+        <v>1836691</v>
+      </c>
+      <c r="E11">
+        <v>2E-3</v>
+      </c>
+      <c r="F11">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G11">
+        <v>1825</v>
+      </c>
+      <c r="H11">
+        <v>9.9363474857774121E-4</v>
+      </c>
+      <c r="I11">
+        <v>0.99900636525142228</v>
+      </c>
+      <c r="J11">
+        <v>1834866</v>
+      </c>
+      <c r="K11">
+        <v>-742.21208899999999</v>
+      </c>
+      <c r="L11">
+        <v>1.4993374988570001</v>
+      </c>
+      <c r="M11">
+        <v>1815598</v>
+      </c>
+      <c r="N11">
+        <v>-705.56806200000005</v>
+      </c>
+      <c r="O11">
+        <v>1.327135725142</v>
+      </c>
+      <c r="P11">
+        <v>-4.2110000000000003E-3</v>
+      </c>
+      <c r="Q11">
+        <v>4.0889999999999998E-3</v>
+      </c>
+      <c r="R11">
+        <v>-4.045047916305605E-4</v>
+      </c>
+      <c r="S11">
+        <v>-3.0699999999999998E-4</v>
+      </c>
+      <c r="T11">
+        <v>9.0395648518970789E-4</v>
+      </c>
+      <c r="U11">
+        <v>8.0840163326433684E-4</v>
+      </c>
+      <c r="V11">
+        <v>6.5726197934890061E-4</v>
+      </c>
+      <c r="W11">
+        <v>6.1231379999999991E-4</v>
+      </c>
+      <c r="X11">
+        <v>-2.8289999999999999E-3</v>
+      </c>
+      <c r="Y11">
+        <v>2.0200000000000001E-3</v>
+      </c>
+      <c r="Z11">
+        <v>-3.8861469444227188E-4</v>
+      </c>
+      <c r="AA11">
+        <v>-3.0299999999999999E-4</v>
+      </c>
+      <c r="AB11">
+        <v>8.5496398809868353E-4</v>
+      </c>
+      <c r="AC11">
+        <v>7.6153925716875915E-4</v>
+      </c>
+      <c r="AD11">
+        <v>6.3275608477206962E-4</v>
+      </c>
+      <c r="AE11">
+        <v>6.0341819999999995E-4</v>
+      </c>
+      <c r="AF11">
+        <v>3</v>
+      </c>
+      <c r="AG11">
+        <v>2.4252048997930099E-3</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI11">
+        <v>1815598</v>
+      </c>
+      <c r="AJ11">
+        <v>519784</v>
+      </c>
+      <c r="AK11">
+        <v>1294647</v>
+      </c>
+      <c r="AL11">
+        <v>4107</v>
+      </c>
+      <c r="AM11">
+        <v>15161</v>
+      </c>
+      <c r="AN11">
+        <v>19268</v>
+      </c>
+      <c r="AO11">
+        <v>-1.9018075046709571E-3</v>
+      </c>
+      <c r="AP11">
+        <v>2.3065814637335609E-3</v>
+      </c>
+      <c r="AQ11">
+        <v>-1.9940000000000001E-3</v>
+      </c>
+      <c r="AR11">
+        <v>-7.8200000000000003E-4</v>
+      </c>
+      <c r="AS11">
+        <v>6.0999999999999999E-5</v>
+      </c>
+      <c r="AT11">
+        <v>7.8200000000000003E-4</v>
+      </c>
+      <c r="AU11">
+        <v>8.43E-4</v>
+      </c>
+      <c r="AV11">
+        <v>-1.8929999999999999E-3</v>
+      </c>
+      <c r="AW11">
+        <v>-7.67E-4</v>
+      </c>
+      <c r="AX11">
+        <v>6.0999999999999999E-5</v>
+      </c>
+      <c r="AY11">
+        <v>7.67E-4</v>
+      </c>
+      <c r="AZ11">
+        <v>8.2799999999999996E-4</v>
+      </c>
+      <c r="BA11">
+        <v>-4.045047916305605E-4</v>
+      </c>
+      <c r="BB11">
+        <v>8.0840163326433684E-4</v>
+      </c>
+      <c r="BC11">
+        <v>343158.95979839168</v>
+      </c>
+      <c r="BD11">
+        <v>5.8664235131932916</v>
+      </c>
+      <c r="BE11">
+        <v>4.5046560421914518E-3</v>
+      </c>
+      <c r="BF11">
+        <v>-4.5916351408282719E-3</v>
+      </c>
+      <c r="BG11">
+        <v>-2.282216224772085E-4</v>
+      </c>
+      <c r="BH11">
+        <v>-0.35932232003876979</v>
+      </c>
+      <c r="BI11">
+        <v>1728009635829.803</v>
+      </c>
+      <c r="BJ11">
+        <v>-0.54806856144724914</v>
+      </c>
+      <c r="BK11">
+        <v>1.3917515097410511</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12">
+        <v>1836691</v>
+      </c>
+      <c r="E12">
+        <v>2E-3</v>
+      </c>
+      <c r="F12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G12">
+        <v>51076</v>
+      </c>
+      <c r="H12">
+        <v>2.7808705982661209E-2</v>
+      </c>
+      <c r="I12">
+        <v>0.97219129401733884</v>
+      </c>
+      <c r="J12">
+        <v>1785615</v>
+      </c>
+      <c r="K12">
+        <v>-28.935051999999999</v>
+      </c>
+      <c r="L12">
+        <v>0.11496055780800001</v>
+      </c>
+      <c r="M12">
+        <v>1768260</v>
+      </c>
+      <c r="N12">
+        <v>-30.000653</v>
+      </c>
+      <c r="O12">
+        <v>9.2757716744999996E-2</v>
+      </c>
+      <c r="P12">
+        <v>-4.0099999999999997E-3</v>
+      </c>
+      <c r="Q12">
+        <v>4.5319999999999996E-3</v>
+      </c>
+      <c r="R12">
+        <v>-1.6204530091873109E-5</v>
+      </c>
+      <c r="S12">
+        <v>-1.1E-5</v>
+      </c>
+      <c r="T12">
+        <v>2.5373508228747999E-4</v>
+      </c>
+      <c r="U12">
+        <v>2.5321711077242761E-4</v>
+      </c>
+      <c r="V12">
+        <v>1.8778190819409559E-4</v>
+      </c>
+      <c r="W12">
+        <v>2.2090740000000001E-4</v>
+      </c>
+      <c r="X12">
+        <v>-7.7499999999999997E-4</v>
+      </c>
+      <c r="Y12">
+        <v>7.4299999999999995E-4</v>
+      </c>
+      <c r="Z12">
+        <v>-1.696620010631921E-5</v>
+      </c>
+      <c r="AA12">
+        <v>-1.1E-5</v>
+      </c>
+      <c r="AB12">
+        <v>2.2903505766893031E-4</v>
+      </c>
+      <c r="AC12">
+        <v>2.2840579172902451E-4</v>
+      </c>
+      <c r="AD12">
+        <v>1.7952738567857671E-4</v>
+      </c>
+      <c r="AE12">
+        <v>2.1942479999999999E-4</v>
+      </c>
+      <c r="AF12">
+        <v>3</v>
+      </c>
+      <c r="AG12">
+        <v>7.5965133231728271E-4</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI12">
+        <v>1768260</v>
+      </c>
+      <c r="AJ12">
+        <v>846391</v>
+      </c>
+      <c r="AK12">
+        <v>918559</v>
+      </c>
+      <c r="AL12">
+        <v>9115</v>
+      </c>
+      <c r="AM12">
+        <v>8240</v>
+      </c>
+      <c r="AN12">
+        <v>17355</v>
+      </c>
+      <c r="AO12">
+        <v>6.1400230481129355E-5</v>
+      </c>
+      <c r="AP12">
+        <v>1.1294086870939949E-3</v>
+      </c>
+      <c r="AQ12">
+        <v>-4.0499999999999998E-4</v>
+      </c>
+      <c r="AR12">
+        <v>-1.6799999999999999E-4</v>
+      </c>
+      <c r="AS12">
+        <v>1.3100000000000001E-4</v>
+      </c>
+      <c r="AT12">
+        <v>3.6499999999999998E-4</v>
+      </c>
+      <c r="AU12">
+        <v>2.99E-4</v>
+      </c>
+      <c r="AV12">
+        <v>-3.9500000000000001E-4</v>
+      </c>
+      <c r="AW12">
+        <v>-1.6699999999999999E-4</v>
+      </c>
+      <c r="AX12">
+        <v>1.2899999999999999E-4</v>
+      </c>
+      <c r="AY12">
+        <v>3.5300000000000002E-4</v>
+      </c>
+      <c r="AZ12">
+        <v>2.9599999999999998E-4</v>
+      </c>
+      <c r="BA12">
+        <v>-1.6204530091873109E-5</v>
+      </c>
+      <c r="BB12">
+        <v>2.5321711077242761E-4</v>
+      </c>
+      <c r="BC12">
+        <v>22059671856180</v>
+      </c>
+      <c r="BD12">
+        <v>1.0529685505430511</v>
+      </c>
+      <c r="BE12">
+        <v>1.227482360863936E-2</v>
+      </c>
+      <c r="BF12">
+        <v>-3.341000035855021E-3</v>
+      </c>
+      <c r="BG12">
+        <v>-2.6233172121310172E-3</v>
+      </c>
+      <c r="BH12">
+        <v>1.851205647654703</v>
+      </c>
+      <c r="BI12">
+        <v>33036533.891676862</v>
+      </c>
+      <c r="BJ12">
+        <v>0.1863157457628726</v>
+      </c>
+      <c r="BK12">
+        <v>10.93220370089232</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>114</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13">
+        <v>1900069</v>
+      </c>
+      <c r="E13">
+        <v>2E-3</v>
+      </c>
+      <c r="F13">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G13">
+        <v>5914</v>
+      </c>
+      <c r="H13">
+        <v>3.112518545379141E-3</v>
+      </c>
+      <c r="I13">
+        <v>0.99688748145462081</v>
+      </c>
+      <c r="J13">
+        <v>1894155</v>
+      </c>
+      <c r="K13">
+        <v>-832.78334999999993</v>
+      </c>
+      <c r="L13">
+        <v>1.961207886892</v>
+      </c>
+      <c r="M13">
+        <v>1864341</v>
+      </c>
+      <c r="N13">
+        <v>-848.03458999999998</v>
+      </c>
+      <c r="O13">
+        <v>1.6842043167859999</v>
+      </c>
+      <c r="P13">
+        <v>-4.7359999999999998E-3</v>
+      </c>
+      <c r="Q13">
+        <v>4.2220000000000001E-3</v>
+      </c>
+      <c r="R13">
+        <v>-4.3965955795592231E-4</v>
+      </c>
+      <c r="S13">
+        <v>-4.35E-4</v>
+      </c>
+      <c r="T13">
+        <v>1.0175460158415449E-3</v>
+      </c>
+      <c r="U13">
+        <v>9.1765972312889794E-4</v>
+      </c>
+      <c r="V13">
+        <v>7.7122022748930266E-4</v>
+      </c>
+      <c r="W13">
+        <v>6.5382659999999992E-4</v>
+      </c>
+      <c r="X13">
+        <v>-3.192E-3</v>
+      </c>
+      <c r="Y13">
+        <v>2.313E-3</v>
+      </c>
+      <c r="Z13">
+        <v>-4.5487096512923327E-4</v>
+      </c>
+      <c r="AA13">
+        <v>-4.3800000000000002E-4</v>
+      </c>
+      <c r="AB13">
+        <v>9.5046190062665202E-4</v>
+      </c>
+      <c r="AC13">
+        <v>8.3454791931034588E-4</v>
+      </c>
+      <c r="AD13">
+        <v>7.3544801407038731E-4</v>
+      </c>
+      <c r="AE13">
+        <v>6.4048319999999992E-4</v>
+      </c>
+      <c r="AF13">
+        <v>3</v>
+      </c>
+      <c r="AG13">
+        <v>2.7529791693866939E-3</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI13">
+        <v>1864341</v>
+      </c>
+      <c r="AJ13">
+        <v>443625</v>
+      </c>
+      <c r="AK13">
+        <v>1419949</v>
+      </c>
+      <c r="AL13">
+        <v>19332</v>
+      </c>
+      <c r="AM13">
+        <v>10482</v>
+      </c>
+      <c r="AN13">
+        <v>29814</v>
+      </c>
+      <c r="AO13">
+        <v>5.1154625343798217E-4</v>
+      </c>
+      <c r="AP13">
+        <v>3.0048922310418461E-3</v>
+      </c>
+      <c r="AQ13">
+        <v>-1.967E-3</v>
+      </c>
+      <c r="AR13">
+        <v>-8.9499999999999996E-4</v>
+      </c>
+      <c r="AS13">
+        <v>-1.2E-5</v>
+      </c>
+      <c r="AT13">
+        <v>1.14E-3</v>
+      </c>
+      <c r="AU13">
+        <v>8.83E-4</v>
+      </c>
+      <c r="AV13">
+        <v>-1.9059999999999999E-3</v>
+      </c>
+      <c r="AW13">
+        <v>-8.9099999999999997E-4</v>
+      </c>
+      <c r="AX13">
+        <v>-2.5999999999999998E-5</v>
+      </c>
+      <c r="AY13">
+        <v>9.990000000000001E-4</v>
+      </c>
+      <c r="AZ13">
+        <v>8.6499999999999999E-4</v>
+      </c>
+      <c r="BA13">
+        <v>-4.3965955795592231E-4</v>
+      </c>
+      <c r="BB13">
+        <v>9.1765972312889794E-4</v>
+      </c>
+      <c r="BC13">
+        <v>429800.46413673199</v>
+      </c>
+      <c r="BD13">
+        <v>4.8320827383672276</v>
+      </c>
+      <c r="BE13">
+        <v>4.6586754945709217E-3</v>
+      </c>
+      <c r="BF13">
+        <v>-4.7361841836763927E-3</v>
+      </c>
+      <c r="BG13">
+        <v>-2.9577807004548852E-4</v>
+      </c>
+      <c r="BH13">
+        <v>-0.23013242227295949</v>
+      </c>
+      <c r="BI13">
+        <v>2069637.8939207201</v>
+      </c>
+      <c r="BJ13">
+        <v>0.16397588852116249</v>
+      </c>
+      <c r="BK13">
+        <v>1.9871120557718951</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>118</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14">
+        <v>1903097</v>
+      </c>
+      <c r="E14">
+        <v>2E-3</v>
+      </c>
+      <c r="F14">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G14">
+        <v>8085</v>
+      </c>
+      <c r="H14">
+        <v>4.2483383663575744E-3</v>
+      </c>
+      <c r="I14">
+        <v>0.99575166163364237</v>
+      </c>
+      <c r="J14">
+        <v>1895012</v>
+      </c>
+      <c r="K14">
+        <v>38.013365999999998</v>
+      </c>
+      <c r="L14">
+        <v>0.129138287982</v>
+      </c>
+      <c r="M14">
+        <v>1872517</v>
+      </c>
+      <c r="N14">
+        <v>28.128403000000009</v>
+      </c>
+      <c r="O14">
+        <v>0.10202208558299999</v>
+      </c>
+      <c r="P14">
+        <v>-2.728E-3</v>
+      </c>
+      <c r="Q14">
+        <v>3.6210000000000001E-3</v>
+      </c>
+      <c r="R14">
+        <v>2.0059696719598608E-5</v>
+      </c>
+      <c r="S14">
+        <v>1.5E-5</v>
+      </c>
+      <c r="T14">
+        <v>2.6104869714726862E-4</v>
+      </c>
+      <c r="U14">
+        <v>2.6027683502341119E-4</v>
+      </c>
+      <c r="V14">
+        <v>1.9214100491184231E-4</v>
+      </c>
+      <c r="W14">
+        <v>2.2090740000000001E-4</v>
+      </c>
+      <c r="X14">
+        <v>-7.6000000000000004E-4</v>
+      </c>
+      <c r="Y14">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="Z14">
+        <v>1.502170768009049E-5</v>
+      </c>
+      <c r="AA14">
+        <v>1.4E-5</v>
+      </c>
+      <c r="AB14">
+        <v>2.3341793039583091E-4</v>
+      </c>
+      <c r="AC14">
+        <v>2.3293406476650611E-4</v>
+      </c>
+      <c r="AD14">
+        <v>1.817425406551716E-4</v>
+      </c>
+      <c r="AE14">
+        <v>2.1794220000000001E-4</v>
+      </c>
+      <c r="AF14">
+        <v>3</v>
+      </c>
+      <c r="AG14">
+        <v>7.8083050507023373E-4</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI14">
+        <v>1872517</v>
+      </c>
+      <c r="AJ14">
+        <v>983666</v>
+      </c>
+      <c r="AK14">
+        <v>885317</v>
+      </c>
+      <c r="AL14">
+        <v>15652</v>
+      </c>
+      <c r="AM14">
+        <v>6843</v>
+      </c>
+      <c r="AN14">
+        <v>22495</v>
+      </c>
+      <c r="AO14">
+        <v>4.3942933985330069E-4</v>
+      </c>
+      <c r="AP14">
+        <v>1.006148239681891E-3</v>
+      </c>
+      <c r="AQ14">
+        <v>-3.8299999999999999E-4</v>
+      </c>
+      <c r="AR14">
+        <v>-1.3300000000000001E-4</v>
+      </c>
+      <c r="AS14">
+        <v>1.65E-4</v>
+      </c>
+      <c r="AT14">
+        <v>4.2700000000000002E-4</v>
+      </c>
+      <c r="AU14">
+        <v>2.9799999999999998E-4</v>
+      </c>
+      <c r="AV14">
+        <v>-3.7500000000000001E-4</v>
+      </c>
+      <c r="AW14">
+        <v>-1.3200000000000001E-4</v>
+      </c>
+      <c r="AX14">
         <v>1.6100000000000001E-4</v>
       </c>
-      <c r="AT9">
-        <v>1.101E-3</v>
-      </c>
-      <c r="AU9">
-        <v>7.9600000000000005E-4</v>
-      </c>
-      <c r="AV9">
-        <v>-1.518E-3</v>
-      </c>
-      <c r="AW9">
-        <v>-6.2E-4</v>
-      </c>
-      <c r="AX9">
-        <v>1.5899999999999999E-4</v>
-      </c>
-      <c r="AY9">
-        <v>1.0560000000000001E-3</v>
-      </c>
-      <c r="AZ9">
-        <v>7.7899999999999996E-4</v>
-      </c>
-      <c r="BA9">
-        <v>-2.4772115611633948E-4</v>
-      </c>
-      <c r="BB9">
-        <v>8.1488061582262784E-4</v>
-      </c>
-      <c r="BC9">
-        <v>578540.15135124186</v>
-      </c>
-      <c r="BD9">
-        <v>5.2652448874361362</v>
-      </c>
-      <c r="BE9">
-        <v>4.3633475494600157E-3</v>
-      </c>
-      <c r="BF9">
-        <v>-4.2896485267772157E-3</v>
-      </c>
-      <c r="BG9">
-        <v>-9.7404824018398374E-5</v>
-      </c>
-      <c r="BH9">
-        <v>-0.28937373573272951</v>
-      </c>
-      <c r="BI9">
-        <v>1560315349.7288761</v>
-      </c>
-      <c r="BJ9">
-        <v>-0.17371904743128719</v>
-      </c>
-      <c r="BK9">
-        <v>2.0872163460411568</v>
-      </c>
-      <c r="BL9" t="s">
-        <v>103</v>
-      </c>
-      <c r="BM9" t="s">
-        <v>104</v>
+      <c r="AY14">
+        <v>4.0400000000000001E-4</v>
+      </c>
+      <c r="AZ14">
+        <v>2.9300000000000002E-4</v>
+      </c>
+      <c r="BA14">
+        <v>2.0059696719598608E-5</v>
+      </c>
+      <c r="BB14">
+        <v>2.6027683502341119E-4</v>
+      </c>
+      <c r="BC14">
+        <v>183021078165119.59</v>
+      </c>
+      <c r="BD14">
+        <v>9.0099222905909393</v>
+      </c>
+      <c r="BE14">
+        <v>2.8651360704615701E-3</v>
+      </c>
+      <c r="BF14">
+        <v>-2.7281138731280819E-3</v>
+      </c>
+      <c r="BG14">
+        <v>9.9854398989178417E-5</v>
+      </c>
+      <c r="BH14">
+        <v>-0.59116731166909386</v>
+      </c>
+      <c r="BI14">
+        <v>13436873327099.32</v>
+      </c>
+      <c r="BJ14">
+        <v>0.38037273959796508</v>
+      </c>
+      <c r="BK14">
+        <v>4.4904378217091372</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>122</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:65" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="15">
+        <v>2207118</v>
+      </c>
+      <c r="E15" s="15">
+        <v>2E-3</v>
+      </c>
+      <c r="F15" s="15">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G15" s="15">
+        <v>256109</v>
+      </c>
+      <c r="H15" s="15">
+        <v>0.1160377469623282</v>
+      </c>
+      <c r="I15" s="15">
+        <v>0.88396225303767173</v>
+      </c>
+      <c r="J15" s="15">
+        <v>1951009</v>
+      </c>
+      <c r="K15" s="15">
+        <v>705.81397500000003</v>
+      </c>
+      <c r="L15" s="15">
+        <v>1.601535892829</v>
+      </c>
+      <c r="M15" s="15">
+        <v>1917673</v>
+      </c>
+      <c r="N15" s="15">
+        <v>694.81338200000005</v>
+      </c>
+      <c r="O15" s="15">
+        <v>1.3125063655760001</v>
+      </c>
+      <c r="P15" s="15">
+        <v>-4.9480000000000001E-3</v>
+      </c>
+      <c r="Q15" s="15">
+        <v>5.2440000000000004E-3</v>
+      </c>
+      <c r="R15" s="15">
+        <v>3.6176869250731288E-4</v>
+      </c>
+      <c r="S15" s="15">
+        <v>3.5300000000000002E-4</v>
+      </c>
+      <c r="T15" s="15">
+        <v>9.0602191325747433E-4</v>
+      </c>
+      <c r="U15" s="15">
+        <v>8.3066185684927383E-4</v>
+      </c>
+      <c r="V15" s="15">
+        <v>6.7501460680089126E-4</v>
+      </c>
+      <c r="W15" s="15">
+        <v>6.0638339999999986E-4</v>
+      </c>
+      <c r="X15" s="15">
+        <v>-2.1299999999999999E-3</v>
+      </c>
+      <c r="Y15" s="15">
+        <v>2.8530000000000001E-3</v>
+      </c>
+      <c r="Z15" s="15">
+        <v>3.6232109541094859E-4</v>
+      </c>
+      <c r="AA15" s="15">
+        <v>3.5300000000000002E-4</v>
+      </c>
+      <c r="AB15" s="15">
+        <v>8.2730077732078814E-4</v>
+      </c>
+      <c r="AC15" s="15">
+        <v>7.4374054614212773E-4</v>
+      </c>
+      <c r="AD15" s="15">
+        <v>6.3634093299535426E-4</v>
+      </c>
+      <c r="AE15" s="15">
+        <v>5.9155739999999996E-4</v>
+      </c>
+      <c r="AF15" s="15">
+        <v>3</v>
+      </c>
+      <c r="AG15" s="15">
+        <v>2.491985570547822E-3</v>
+      </c>
+      <c r="AH15" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI15" s="15">
+        <v>1917673</v>
+      </c>
+      <c r="AJ15" s="15">
+        <v>1405448</v>
+      </c>
+      <c r="AK15" s="15">
+        <v>511194</v>
+      </c>
+      <c r="AL15" s="15">
+        <v>16601</v>
+      </c>
+      <c r="AM15" s="15">
+        <v>16735</v>
+      </c>
+      <c r="AN15" s="15">
+        <v>33336</v>
+      </c>
+      <c r="AO15" s="15">
+        <v>3.2999139068874478E-4</v>
+      </c>
+      <c r="AP15" s="15">
+        <v>2.9259695631166662E-3</v>
+      </c>
+      <c r="AQ15" s="15">
+        <v>-9.9200000000000004E-4</v>
+      </c>
+      <c r="AR15" s="15">
+        <v>-4.1E-5</v>
+      </c>
+      <c r="AS15" s="15">
+        <v>7.7800000000000005E-4</v>
+      </c>
+      <c r="AT15" s="15">
+        <v>1.702E-3</v>
+      </c>
+      <c r="AU15" s="15">
+        <v>8.1900000000000007E-4</v>
+      </c>
+      <c r="AV15" s="15">
+        <v>-8.9700000000000001E-4</v>
+      </c>
+      <c r="AW15" s="15">
+        <v>-3.1999999999999999E-5</v>
+      </c>
+      <c r="AX15" s="15">
+        <v>7.6800000000000002E-4</v>
+      </c>
+      <c r="AY15" s="15">
+        <v>1.6130000000000001E-3</v>
+      </c>
+      <c r="AZ15" s="15">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="BA15" s="15">
+        <v>3.6176869250731288E-4</v>
+      </c>
+      <c r="BB15" s="15">
+        <v>8.3066185684927383E-4</v>
+      </c>
+      <c r="BC15" s="15">
+        <v>5272408.3306880752</v>
+      </c>
+      <c r="BD15" s="15">
+        <v>6.5165711474849974</v>
+      </c>
+      <c r="BE15" s="15">
+        <v>5.6582118115293383E-3</v>
+      </c>
+      <c r="BF15" s="15">
+        <v>-4.9483609668643912E-3</v>
+      </c>
+      <c r="BG15" s="15">
+        <v>5.6703565890667794E-4</v>
+      </c>
+      <c r="BH15" s="15">
+        <v>-0.42261579673907212</v>
+      </c>
+      <c r="BI15" s="15">
+        <v>5216161191.0168467</v>
+      </c>
+      <c r="BJ15" s="15">
+        <v>-5.6562609466715021E-2</v>
+      </c>
+      <c r="BK15" s="15">
+        <v>2.468868004107875</v>
+      </c>
+      <c r="BL15" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="BM15" s="15" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2581,17 +3855,17 @@
     </sortState>
   </autoFilter>
   <mergeCells count="9">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="AV1:AZ1"/>
+    <mergeCell ref="X1:AE1"/>
+    <mergeCell ref="M1:O1"/>
     <mergeCell ref="BA1:BK1"/>
     <mergeCell ref="P1:W1"/>
     <mergeCell ref="AF1:AP1"/>
     <mergeCell ref="AQ1:AU1"/>
     <mergeCell ref="G1:L1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="X1:AE1"/>
-    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/outputs/MARS_Multi_Illumination_output/MARS_Multi_Illumination_m3c2_stats_distances.xlsx
+++ b/outputs/MARS_Multi_Illumination_output/MARS_Multi_Illumination_m3c2_stats_distances.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="162">
   <si>
     <t>Calculated on all distances (incl. Outliers)</t>
   </si>
@@ -252,178 +252,262 @@
     <t>Params Path</t>
   </si>
   <si>
-    <t>2025-08-27 13:22:37</t>
-  </si>
-  <si>
-    <t>data\Multi-illumination\Job_0378_8400-110\1-1</t>
-  </si>
-  <si>
-    <t>AI_cloud vs. cloud</t>
-  </si>
-  <si>
-    <t>std</t>
-  </si>
-  <si>
-    <t>data\Multi-illumination\Job_0378_8400-110\1-1\python_Job_0378_8400-110-rad-1-1-AI_cloud_m3c2_distances.txt</t>
-  </si>
-  <si>
-    <t>data\Multi-illumination\Job_0378_8400-110\1-1\python_Job_0378_8400-110-rad-1-1-AI_cloud_m3c2_params.txt</t>
-  </si>
-  <si>
-    <t>2025-08-27 13:24:24</t>
-  </si>
-  <si>
-    <t>data\Multi-illumination\Job_0378_8400-110\1-2</t>
-  </si>
-  <si>
-    <t>data\Multi-illumination\Job_0378_8400-110\1-2\python_Job_0378_8400-110-rad-1-2-AI_cloud_m3c2_distances.txt</t>
-  </si>
-  <si>
-    <t>data\Multi-illumination\Job_0378_8400-110\1-2\python_Job_0378_8400-110-rad-1-2-AI_cloud_m3c2_params.txt</t>
-  </si>
-  <si>
-    <t>2025-08-27 13:27:05</t>
-  </si>
-  <si>
-    <t>data\Multi-illumination\Job_0378_8400-110\1-3</t>
-  </si>
-  <si>
-    <t>data\Multi-illumination\Job_0378_8400-110\1-3\python_Job_0378_8400-110-rad-1-3-AI_cloud_m3c2_distances.txt</t>
-  </si>
-  <si>
-    <t>data\Multi-illumination\Job_0378_8400-110\1-3\python_Job_0378_8400-110-rad-1-3-AI_cloud_m3c2_params.txt</t>
-  </si>
-  <si>
-    <t>2025-08-27 13:30:04</t>
-  </si>
-  <si>
-    <t>data\Multi-illumination\Job_0378_8400-110\1-4</t>
-  </si>
-  <si>
-    <t>data\Multi-illumination\Job_0378_8400-110\1-4\python_Job_0378_8400-110-rad-1-4-AI_cloud_m3c2_distances.txt</t>
-  </si>
-  <si>
-    <t>data\Multi-illumination\Job_0378_8400-110\1-4\python_Job_0378_8400-110-rad-1-4-AI_cloud_m3c2_params.txt</t>
-  </si>
-  <si>
-    <t>2025-08-27 13:33:09</t>
-  </si>
-  <si>
-    <t>data\Multi-illumination\Job_0378_8400-110\1-5</t>
-  </si>
-  <si>
-    <t>data\Multi-illumination\Job_0378_8400-110\1-5\python_Job_0378_8400-110-rad-1-5-AI_cloud_m3c2_distances.txt</t>
-  </si>
-  <si>
-    <t>data\Multi-illumination\Job_0378_8400-110\1-5\python_Job_0378_8400-110-rad-1-5-AI_cloud_m3c2_params.txt</t>
-  </si>
-  <si>
-    <t>2025-08-27 13:36:08</t>
-  </si>
-  <si>
-    <t>data\Multi-illumination\Job_0378_8400-110\1-6</t>
-  </si>
-  <si>
-    <t>data\Multi-illumination\Job_0378_8400-110\1-6\python_Job_0378_8400-110-rad-1-6-AI_cloud_m3c2_distances.txt</t>
-  </si>
-  <si>
-    <t>data\Multi-illumination\Job_0378_8400-110\1-6\python_Job_0378_8400-110-rad-1-6-AI_cloud_m3c2_params.txt</t>
-  </si>
-  <si>
-    <t>2025-08-27 13:39:41</t>
-  </si>
-  <si>
-    <t>data\Multi-illumination\Job_0378_8400-110\1-7</t>
-  </si>
-  <si>
-    <t>data\Multi-illumination\Job_0378_8400-110\1-7\python_Job_0378_8400-110-rad-1-7-AI_cloud_m3c2_distances.txt</t>
-  </si>
-  <si>
-    <t>data\Multi-illumination\Job_0378_8400-110\1-7\python_Job_0378_8400-110-rad-1-7-AI_cloud_m3c2_params.txt</t>
-  </si>
-  <si>
-    <t>2025-08-27 15:47:40</t>
-  </si>
-  <si>
-    <t>data\Multi-illumination\Job_0378_8400-110\1-5_2-5</t>
-  </si>
-  <si>
-    <t>data\Multi-illumination\Job_0378_8400-110\1-5_2-5\python_Job_0378_8400-110-rad-1-5-AI_cloud_moved_m3c2_distances.txt</t>
-  </si>
-  <si>
-    <t>data\Multi-illumination\Job_0378_8400-110\1-5_2-5\python_Job_0378_8400-110-rad-1-5-AI_cloud_moved_m3c2_params.txt</t>
-  </si>
-  <si>
-    <t>2025-08-27 15:52:08</t>
-  </si>
-  <si>
-    <t>data\Multi-illumination\Job_0378_8400-110\1-5_2-5\python_Job_0378_8400-110-rad-2-5-AI_cloud_moved_m3c2_distances.txt</t>
-  </si>
-  <si>
-    <t>data\Multi-illumination\Job_0378_8400-110\1-5_2-5\python_Job_0378_8400-110-rad-2-5-AI_cloud_moved_m3c2_params.txt</t>
-  </si>
-  <si>
-    <t>2025-08-27 15:56:34</t>
-  </si>
-  <si>
-    <t>data\Multi-illumination\Job_0378_8400-110\1-5_2-5\python_Job_0378_8400-110-rad-1-5_cloud_moved_m3c2_distances.txt</t>
-  </si>
-  <si>
-    <t>data\Multi-illumination\Job_0378_8400-110\1-5_2-5\python_Job_0378_8400-110-rad-1-5_cloud_moved_m3c2_params.txt</t>
-  </si>
-  <si>
-    <t>2025-08-27 16:37:38</t>
-  </si>
-  <si>
-    <t>data\Multi-illumination\Job_0378_8400-110\1-3_2-3\1-3_1-3_AI</t>
-  </si>
-  <si>
-    <t>data\Multi-illumination\Job_0378_8400-110\1-3_2-3\1-3_1-3_AI\python_Job_0378_8400-110-rad-1-3-AI_cloud_moved_m3c2_distances.txt</t>
-  </si>
-  <si>
-    <t>data\Multi-illumination\Job_0378_8400-110\1-3_2-3\1-3_1-3_AI\python_Job_0378_8400-110-rad-1-3-AI_cloud_moved_m3c2_params.txt</t>
-  </si>
-  <si>
-    <t>2025-08-27 16:40:33</t>
-  </si>
-  <si>
-    <t>data\Multi-illumination\Job_0378_8400-110\1-3_2-3\1-3_2-3</t>
-  </si>
-  <si>
-    <t>data\Multi-illumination\Job_0378_8400-110\1-3_2-3\1-3_2-3\python_Job_0378_8400-110-rad-1-3_cloud_moved_m3c2_distances.txt</t>
-  </si>
-  <si>
-    <t>data\Multi-illumination\Job_0378_8400-110\1-3_2-3\1-3_2-3\python_Job_0378_8400-110-rad-1-3_cloud_moved_m3c2_params.txt</t>
-  </si>
-  <si>
-    <t>2025-08-27 16:43:47</t>
-  </si>
-  <si>
-    <t>data\Multi-illumination\Job_0378_8400-110\1-3_2-3\2-3_2-3_AI</t>
-  </si>
-  <si>
-    <t>data\Multi-illumination\Job_0378_8400-110\1-3_2-3\2-3_2-3_AI\python_Job_0378_8400-110-rad-2-3_cloud_moved_m3c2_distances.txt</t>
-  </si>
-  <si>
-    <t>data\Multi-illumination\Job_0378_8400-110\1-3_2-3\2-3_2-3_AI\python_Job_0378_8400-110-rad-2-3_cloud_moved_m3c2_params.txt</t>
-  </si>
-  <si>
-    <t>1-3_1-3_AI</t>
-  </si>
-  <si>
-    <t>1-3_2-3</t>
-  </si>
-  <si>
-    <t>2-3_2-3_AI</t>
-  </si>
-  <si>
-    <t>1-5_1-5_AI</t>
-  </si>
-  <si>
-    <t>2-5_2-5_AI</t>
-  </si>
-  <si>
-    <t>1-5_2-5</t>
+    <t>2025-08-28 09:43:09</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination</t>
+  </si>
+  <si>
+    <t>1-1_cloud-2-1_cloud</t>
+  </si>
+  <si>
+    <t>rmse</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination\python_1-1_cloud-2-1_cloud_m3c2_distances.txt</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination\python_1-1_cloud-2-1_cloud_m3c2_params.txt</t>
+  </si>
+  <si>
+    <t>2025-08-28 09:46:43</t>
+  </si>
+  <si>
+    <t>1-2_cloud-2-2_cloud</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination\python_1-2_cloud-2-2_cloud_m3c2_distances.txt</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination\python_1-2_cloud-2-2_cloud_m3c2_params.txt</t>
+  </si>
+  <si>
+    <t>2025-08-28 09:49:16</t>
+  </si>
+  <si>
+    <t>1-3_cloud-2-3_cloud</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination\python_1-3_cloud-2-3_cloud_m3c2_distances.txt</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination\python_1-3_cloud-2-3_cloud_m3c2_params.txt</t>
+  </si>
+  <si>
+    <t>2025-08-28 09:52:36</t>
+  </si>
+  <si>
+    <t>1-4_cloud-2-4_cloud</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination\python_1-4_cloud-2-4_cloud_m3c2_distances.txt</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination\python_1-4_cloud-2-4_cloud_m3c2_params.txt</t>
+  </si>
+  <si>
+    <t>2025-08-28 09:55:49</t>
+  </si>
+  <si>
+    <t>1-5_cloud-2-5_cloud</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination\python_1-5_cloud-2-5_cloud_m3c2_distances.txt</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination\python_1-5_cloud-2-5_cloud_m3c2_params.txt</t>
+  </si>
+  <si>
+    <t>2025-08-28 09:59:23</t>
+  </si>
+  <si>
+    <t>1-6_cloud-2-6_cloud</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination\python_1-6_cloud-2-6_cloud_m3c2_distances.txt</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination\python_1-6_cloud-2-6_cloud_m3c2_params.txt</t>
+  </si>
+  <si>
+    <t>2025-08-28 10:03:21</t>
+  </si>
+  <si>
+    <t>1-7_cloud-2-7_cloud</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination\python_1-7_cloud-2-7_cloud_m3c2_distances.txt</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination\python_1-7_cloud-2-7_cloud_m3c2_params.txt</t>
+  </si>
+  <si>
+    <t>2025-08-28 10:05:50</t>
+  </si>
+  <si>
+    <t>1-1_cloud-2-1-AI_cloud</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination\python_1-1_cloud-2-1-AI_cloud_m3c2_distances.txt</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination\python_1-1_cloud-2-1-AI_cloud_m3c2_params.txt</t>
+  </si>
+  <si>
+    <t>2025-08-28 10:08:48</t>
+  </si>
+  <si>
+    <t>1-2_cloud-2-2-AI_cloud</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination\python_1-2_cloud-2-2-AI_cloud_m3c2_distances.txt</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination\python_1-2_cloud-2-2-AI_cloud_m3c2_params.txt</t>
+  </si>
+  <si>
+    <t>2025-08-28 10:11:45</t>
+  </si>
+  <si>
+    <t>1-3_cloud-2-3-AI_cloud</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination\python_1-3_cloud-2-3-AI_cloud_m3c2_distances.txt</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination\python_1-3_cloud-2-3-AI_cloud_m3c2_params.txt</t>
+  </si>
+  <si>
+    <t>2025-08-28 10:15:37</t>
+  </si>
+  <si>
+    <t>1-4_cloud-2-4-AI_cloud</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination\python_1-4_cloud-2-4-AI_cloud_m3c2_distances.txt</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination\python_1-4_cloud-2-4-AI_cloud_m3c2_params.txt</t>
+  </si>
+  <si>
+    <t>2025-08-28 10:19:20</t>
+  </si>
+  <si>
+    <t>1-5_cloud-2-5-AI_cloud</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination\python_1-5_cloud-2-5-AI_cloud_m3c2_distances.txt</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination\python_1-5_cloud-2-5-AI_cloud_m3c2_params.txt</t>
+  </si>
+  <si>
+    <t>2025-08-28 10:24:08</t>
+  </si>
+  <si>
+    <t>1-6_cloud-2-6-AI_cloud</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination\python_1-6_cloud-2-6-AI_cloud_m3c2_distances.txt</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination\python_1-6_cloud-2-6-AI_cloud_m3c2_params.txt</t>
+  </si>
+  <si>
+    <t>2025-08-28 10:29:11</t>
+  </si>
+  <si>
+    <t>1-7_cloud-2-7-AI_cloud</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination\python_1-7_cloud-2-7-AI_cloud_m3c2_distances.txt</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination\python_1-7_cloud-2-7-AI_cloud_m3c2_params.txt</t>
+  </si>
+  <si>
+    <t>2025-08-28 10:32:10</t>
+  </si>
+  <si>
+    <t>1-1-AI_cloud-2-1_cloud</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination\python_1-1-AI_cloud-2-1_cloud_m3c2_distances.txt</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination\python_1-1-AI_cloud-2-1_cloud_m3c2_params.txt</t>
+  </si>
+  <si>
+    <t>2025-08-28 10:35:42</t>
+  </si>
+  <si>
+    <t>1-2-AI_cloud-2-2_cloud</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination\python_1-2-AI_cloud-2-2_cloud_m3c2_distances.txt</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination\python_1-2-AI_cloud-2-2_cloud_m3c2_params.txt</t>
+  </si>
+  <si>
+    <t>2025-08-28 10:38:52</t>
+  </si>
+  <si>
+    <t>1-3-AI_cloud-2-3_cloud</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination\python_1-3-AI_cloud-2-3_cloud_m3c2_distances.txt</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination\python_1-3-AI_cloud-2-3_cloud_m3c2_params.txt</t>
+  </si>
+  <si>
+    <t>2025-08-28 10:43:02</t>
+  </si>
+  <si>
+    <t>1-4-AI_cloud-2-4_cloud</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination\python_1-4-AI_cloud-2-4_cloud_m3c2_distances.txt</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination\python_1-4-AI_cloud-2-4_cloud_m3c2_params.txt</t>
+  </si>
+  <si>
+    <t>2025-08-28 10:46:50</t>
+  </si>
+  <si>
+    <t>1-5-AI_cloud-2-5_cloud</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination\python_1-5-AI_cloud-2-5_cloud_m3c2_distances.txt</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination\python_1-5-AI_cloud-2-5_cloud_m3c2_params.txt</t>
+  </si>
+  <si>
+    <t>2025-08-28 10:50:31</t>
+  </si>
+  <si>
+    <t>1-6-AI_cloud-2-6_cloud</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination\python_1-6-AI_cloud-2-6_cloud_m3c2_distances.txt</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination\python_1-6-AI_cloud-2-6_cloud_m3c2_params.txt</t>
+  </si>
+  <si>
+    <t>2025-08-28 10:55:31</t>
+  </si>
+  <si>
+    <t>1-7-AI_cloud-2-7_cloud</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination\python_1-7-AI_cloud-2-7_cloud_m3c2_distances.txt</t>
+  </si>
+  <si>
+    <t>data\Multi-Illumination\python_1-7-AI_cloud-2-7_cloud_m3c2_params.txt</t>
   </si>
 </sst>
 </file>
@@ -503,7 +587,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -578,15 +662,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -632,27 +707,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -956,21 +1031,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM15"/>
+  <dimension ref="A1:BM23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="12" customWidth="1"/>
     <col min="5" max="6" width="7.28515625" style="12" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
@@ -984,7 +1059,7 @@
     <col min="16" max="31" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="12.42578125" style="12" customWidth="1"/>
     <col min="33" max="33" width="12.28515625" style="12" customWidth="1"/>
-    <col min="34" max="34" width="10.5703125" style="12" customWidth="1"/>
+    <col min="34" max="34" width="8.140625" style="12" customWidth="1"/>
     <col min="36" max="39" width="9.85546875" style="12" customWidth="1"/>
     <col min="41" max="54" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="21.85546875" style="12" hidden="1" customWidth="1"/>
@@ -998,8 +1073,8 @@
     <col min="63" max="63" width="10.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="125.42578125" style="12" hidden="1" customWidth="1"/>
     <col min="65" max="65" width="44.5703125" style="12" hidden="1" customWidth="1"/>
-    <col min="66" max="73" width="9.140625" style="12" customWidth="1"/>
-    <col min="74" max="16384" width="9.140625" style="12"/>
+    <col min="66" max="74" width="9.140625" style="12" customWidth="1"/>
+    <col min="75" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1012,83 +1087,83 @@
       <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="16" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="22" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="16" t="s">
+      <c r="N1" s="16"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="23" t="s">
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="19" t="s">
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="20" t="s">
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="18"/>
-      <c r="AV1" s="22" t="s">
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="17"/>
+      <c r="AV1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="AW1" s="17"/>
-      <c r="AX1" s="17"/>
-      <c r="AY1" s="17"/>
-      <c r="AZ1" s="18"/>
-      <c r="BA1" s="16" t="s">
+      <c r="AW1" s="16"/>
+      <c r="AX1" s="16"/>
+      <c r="AY1" s="16"/>
+      <c r="AZ1" s="17"/>
+      <c r="BA1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="BB1" s="17"/>
-      <c r="BC1" s="17"/>
-      <c r="BD1" s="17"/>
-      <c r="BE1" s="17"/>
-      <c r="BF1" s="17"/>
-      <c r="BG1" s="17"/>
-      <c r="BH1" s="17"/>
-      <c r="BI1" s="17"/>
-      <c r="BJ1" s="17"/>
-      <c r="BK1" s="18"/>
+      <c r="BB1" s="16"/>
+      <c r="BC1" s="16"/>
+      <c r="BD1" s="16"/>
+      <c r="BE1" s="16"/>
+      <c r="BF1" s="16"/>
+      <c r="BG1" s="16"/>
+      <c r="BH1" s="16"/>
+      <c r="BI1" s="16"/>
+      <c r="BJ1" s="16"/>
+      <c r="BK1" s="17"/>
     </row>
     <row r="2" spans="1:65" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1307,175 +1382,175 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G3">
-        <v>7286</v>
-      </c>
-      <c r="H3">
-        <v>3.9410327171705917E-3</v>
-      </c>
-      <c r="I3">
-        <v>0.99605896728282939</v>
+        <v>7</v>
+      </c>
+      <c r="H3" s="23">
+        <v>3.7863339308528882E-6</v>
+      </c>
+      <c r="I3" s="23">
+        <v>0.99999621366606917</v>
       </c>
       <c r="J3">
-        <v>1841468</v>
+        <v>1848747</v>
       </c>
       <c r="K3">
-        <v>-965.96718499999997</v>
+        <v>58.065802000000012</v>
       </c>
       <c r="L3">
-        <v>2.225945115105</v>
+        <v>0.201039354048</v>
       </c>
       <c r="M3">
-        <v>1828425</v>
+        <v>1831404</v>
       </c>
       <c r="N3">
-        <v>-947.19622600000002</v>
+        <v>64.488129999999984</v>
       </c>
       <c r="O3">
-        <v>2.0796699757139998</v>
+        <v>0.16406526557000001</v>
       </c>
       <c r="P3">
-        <v>-4.3319999999999999E-3</v>
+        <v>-4.2570000000000004E-3</v>
       </c>
       <c r="Q3">
-        <v>3.908E-3</v>
+        <v>4.8019999999999998E-3</v>
       </c>
       <c r="R3">
-        <v>-5.2456365519248775E-4</v>
+        <v>3.1408192684017879E-5</v>
       </c>
       <c r="S3">
-        <v>-4.5100000000000001E-4</v>
+        <v>4.3999999999999999E-5</v>
       </c>
       <c r="T3">
-        <v>1.0994491243561709E-3</v>
+        <v>3.297629039704233E-4</v>
       </c>
       <c r="U3">
-        <v>9.6624083369450291E-4</v>
+        <v>3.2826376325651639E-4</v>
       </c>
       <c r="V3">
-        <v>8.4075353956734509E-4</v>
+        <v>2.423816000783233E-4</v>
       </c>
       <c r="W3">
-        <v>8.2877340000000002E-4</v>
+        <v>2.6835059999999998E-4</v>
       </c>
       <c r="X3">
-        <v>-3.4229999999999998E-3</v>
+        <v>-9.8900000000000008E-4</v>
       </c>
       <c r="Y3">
-        <v>2.3739999999999998E-3</v>
+        <v>9.8900000000000008E-4</v>
       </c>
       <c r="Z3">
-        <v>-5.1803941971915719E-4</v>
+        <v>3.5212399885552278E-5</v>
       </c>
       <c r="AA3">
-        <v>-4.4900000000000002E-4</v>
+        <v>4.5000000000000003E-5</v>
       </c>
       <c r="AB3">
-        <v>1.066494538043572E-3</v>
+        <v>2.9930656565236202E-4</v>
       </c>
       <c r="AC3">
-        <v>9.3222623825647063E-4</v>
+        <v>2.972280389480636E-4</v>
       </c>
       <c r="AD3">
-        <v>8.2313407878365256E-4</v>
+        <v>2.3156349117944489E-4</v>
       </c>
       <c r="AE3">
-        <v>8.2136039999999996E-4</v>
+        <v>2.6538540000000001E-4</v>
       </c>
       <c r="AF3">
         <v>3</v>
       </c>
       <c r="AG3">
-        <v>2.8987225010835092E-3</v>
+        <v>9.8928871191127001E-4</v>
       </c>
       <c r="AH3" t="s">
         <v>79</v>
       </c>
       <c r="AI3">
-        <v>1828425</v>
+        <v>1831404</v>
       </c>
       <c r="AJ3">
-        <v>496999</v>
+        <v>1041360</v>
       </c>
       <c r="AK3">
-        <v>1330571</v>
+        <v>787214</v>
       </c>
       <c r="AL3">
-        <v>4558</v>
+        <v>6541</v>
       </c>
       <c r="AM3">
-        <v>8485</v>
+        <v>10802</v>
       </c>
       <c r="AN3">
-        <v>13043</v>
+        <v>17343</v>
       </c>
       <c r="AO3">
-        <v>-1.439159625852948E-3</v>
+        <v>-3.7031240269849508E-4</v>
       </c>
       <c r="AP3">
-        <v>3.0238482328602662E-3</v>
+        <v>1.4123739772842561E-3</v>
       </c>
       <c r="AQ3">
-        <v>-2.2399999999999998E-3</v>
+        <v>-5.13E-4</v>
       </c>
       <c r="AR3">
-        <v>-1.0759999999999999E-3</v>
+        <v>-1.4100000000000001E-4</v>
       </c>
       <c r="AS3">
-        <v>5.3000000000000001E-5</v>
+        <v>2.22E-4</v>
       </c>
       <c r="AT3">
-        <v>1.0169999999999999E-3</v>
+        <v>5.2300000000000003E-4</v>
       </c>
       <c r="AU3">
-        <v>1.129E-3</v>
+        <v>3.6299999999999999E-4</v>
       </c>
       <c r="AV3">
-        <v>-2.186E-3</v>
+        <v>-4.9100000000000001E-4</v>
       </c>
       <c r="AW3">
-        <v>-1.067E-3</v>
+        <v>-1.37E-4</v>
       </c>
       <c r="AX3">
-        <v>5.1E-5</v>
+        <v>2.2100000000000001E-4</v>
       </c>
       <c r="AY3">
-        <v>9.9400000000000009E-4</v>
+        <v>5.13E-4</v>
       </c>
       <c r="AZ3">
-        <v>1.1180000000000001E-3</v>
+        <v>3.5799999999999997E-4</v>
       </c>
       <c r="BA3">
-        <v>-5.2456365519248775E-4</v>
+        <v>3.1408192684017879E-5</v>
       </c>
       <c r="BB3">
-        <v>9.6624083369450291E-4</v>
+        <v>3.2826376325651639E-4</v>
       </c>
       <c r="BC3">
-        <v>99988.200522106228</v>
+        <v>1127175200681164</v>
       </c>
       <c r="BD3">
-        <v>4.8480326236442046</v>
+        <v>12.221311841675639</v>
       </c>
       <c r="BE3">
-        <v>4.5686660053231576E-3</v>
+        <v>4.4316767635795198E-3</v>
       </c>
       <c r="BF3">
-        <v>-4.721805397470134E-3</v>
+        <v>-4.2573953911286978E-3</v>
       </c>
       <c r="BG3">
-        <v>-3.6573309484834882E-4</v>
+        <v>1.434337456783985E-4</v>
       </c>
       <c r="BH3">
-        <v>-0.23246916701483161</v>
+        <v>-0.71752920791121111</v>
       </c>
       <c r="BI3">
-        <v>223378.67856351461</v>
+        <v>14923656066230.08</v>
       </c>
       <c r="BJ3">
-        <v>-0.25466826832633849</v>
+        <v>-0.58878686094174659</v>
       </c>
       <c r="BK3">
-        <v>0.70709521600129976</v>
+        <v>5.5826908358251721</v>
       </c>
       <c r="BL3" t="s">
         <v>80</v>
@@ -1489,10 +1564,10 @@
         <v>82</v>
       </c>
       <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
         <v>83</v>
-      </c>
-      <c r="C4" t="s">
-        <v>78</v>
       </c>
       <c r="D4">
         <v>1878902</v>
@@ -1504,175 +1579,175 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G4">
-        <v>6955</v>
-      </c>
-      <c r="H4">
-        <v>3.7016299945393642E-3</v>
-      </c>
-      <c r="I4">
-        <v>0.99629837000546062</v>
+        <v>19318</v>
+      </c>
+      <c r="H4" s="23">
+        <v>1.028153676987943E-2</v>
+      </c>
+      <c r="I4" s="23">
+        <v>0.98971846323012058</v>
       </c>
       <c r="J4">
-        <v>1871947</v>
+        <v>1859584</v>
       </c>
       <c r="K4">
-        <v>-814.21949400000005</v>
+        <v>-6.9013850000000048</v>
       </c>
       <c r="L4">
-        <v>1.516803308404</v>
+        <v>0.12904584290500001</v>
       </c>
       <c r="M4">
-        <v>1839658</v>
+        <v>1844485</v>
       </c>
       <c r="N4">
-        <v>-800.08540400000004</v>
+        <v>-6.5878060000000023</v>
       </c>
       <c r="O4">
-        <v>1.250651864068</v>
+        <v>0.11357861120399999</v>
       </c>
       <c r="P4">
-        <v>-4.4660000000000004E-3</v>
+        <v>-2.1559999999999999E-3</v>
       </c>
       <c r="Q4">
-        <v>3.6250000000000002E-3</v>
+        <v>3.0980000000000001E-3</v>
       </c>
       <c r="R4">
-        <v>-4.3495862543116881E-4</v>
+        <v>-3.7112520864881629E-6</v>
       </c>
       <c r="S4">
-        <v>-3.7800000000000003E-4</v>
+        <v>-1.2E-5</v>
       </c>
       <c r="T4">
-        <v>9.0015616323922177E-4</v>
+        <v>2.6342931886237777E-4</v>
       </c>
       <c r="U4">
-        <v>7.8809397433338157E-4</v>
+        <v>2.6340317508383762E-4</v>
       </c>
       <c r="V4">
-        <v>6.6459088425046219E-4</v>
+        <v>2.008071670868323E-4</v>
       </c>
       <c r="W4">
-        <v>5.3225340000000003E-4</v>
+        <v>2.3573339999999999E-4</v>
       </c>
       <c r="X4">
-        <v>-2.7989999999999998E-3</v>
+        <v>-7.9000000000000001E-4</v>
       </c>
       <c r="Y4">
-        <v>1.9289999999999999E-3</v>
+        <v>7.9000000000000001E-4</v>
       </c>
       <c r="Z4">
-        <v>-4.3490986041970839E-4</v>
+        <v>-3.57162351550704E-6</v>
       </c>
       <c r="AA4">
-        <v>-3.7800000000000003E-4</v>
+        <v>-1.2E-5</v>
       </c>
       <c r="AB4">
-        <v>8.2451710683110644E-4</v>
+        <v>2.4814796221096319E-4</v>
       </c>
       <c r="AC4">
-        <v>7.0048688265152257E-4</v>
+        <v>2.4812225747586027E-4</v>
       </c>
       <c r="AD4">
-        <v>6.2671857377838707E-4</v>
+        <v>1.94427663006205E-4</v>
       </c>
       <c r="AE4">
-        <v>5.1891000000000003E-4</v>
+        <v>2.3276819999999999E-4</v>
       </c>
       <c r="AF4">
         <v>3</v>
       </c>
       <c r="AG4">
-        <v>2.3642819230001448E-3</v>
+        <v>7.9028795658713327E-4</v>
       </c>
       <c r="AH4" t="s">
         <v>79</v>
       </c>
       <c r="AI4">
-        <v>1839658</v>
+        <v>1844485</v>
       </c>
       <c r="AJ4">
-        <v>397725</v>
+        <v>883853</v>
       </c>
       <c r="AK4">
-        <v>1441008</v>
+        <v>957542</v>
       </c>
       <c r="AL4">
-        <v>15889</v>
+        <v>7453</v>
       </c>
       <c r="AM4">
-        <v>16400</v>
+        <v>7646</v>
       </c>
       <c r="AN4">
-        <v>32289</v>
+        <v>15099</v>
       </c>
       <c r="AO4">
-        <v>-4.3773700021679208E-4</v>
+        <v>-2.0768196569309219E-5</v>
       </c>
       <c r="AP4">
-        <v>2.8374594723988272E-3</v>
+        <v>1.011907358636622E-3</v>
       </c>
       <c r="AQ4">
-        <v>-1.8010000000000001E-3</v>
+        <v>-4.1300000000000001E-4</v>
       </c>
       <c r="AR4">
-        <v>-7.8600000000000002E-4</v>
+        <v>-1.65E-4</v>
       </c>
       <c r="AS4">
-        <v>-5.1999999999999997E-5</v>
+        <v>1.54E-4</v>
       </c>
       <c r="AT4">
-        <v>7.2199999999999999E-4</v>
+        <v>4.3800000000000002E-4</v>
       </c>
       <c r="AU4">
-        <v>7.3400000000000006E-4</v>
+        <v>3.19E-4</v>
       </c>
       <c r="AV4">
-        <v>-1.719E-3</v>
+        <v>-4.0299999999999998E-4</v>
       </c>
       <c r="AW4">
-        <v>-7.7499999999999997E-4</v>
+        <v>-1.63E-4</v>
       </c>
       <c r="AX4">
-        <v>-5.8999999999999998E-5</v>
+        <v>1.5200000000000001E-4</v>
       </c>
       <c r="AY4">
-        <v>6.4999999999999997E-4</v>
+        <v>4.2700000000000002E-4</v>
       </c>
       <c r="AZ4">
-        <v>7.1599999999999995E-4</v>
+        <v>3.1500000000000001E-4</v>
       </c>
       <c r="BA4">
-        <v>-4.3495862543116881E-4</v>
+        <v>-3.7112520864881629E-6</v>
       </c>
       <c r="BB4">
-        <v>7.8809397433338157E-4</v>
+        <v>2.6340317508383762E-4</v>
       </c>
       <c r="BC4">
-        <v>901581.57019060419</v>
+        <v>331485868627.61169</v>
       </c>
       <c r="BD4">
-        <v>5.3144849676350923</v>
+        <v>7.6455394964558252</v>
       </c>
       <c r="BE4">
-        <v>4.3433581874306746E-3</v>
+        <v>2.265368425400842E-3</v>
       </c>
       <c r="BF4">
-        <v>-4.4663016272325599E-3</v>
+        <v>-2.1560832599584029E-3</v>
       </c>
       <c r="BG4">
-        <v>-2.9001159573036761E-4</v>
+        <v>6.812938699570989E-5</v>
       </c>
       <c r="BH4">
-        <v>-0.29559653833268129</v>
+        <v>-0.5105212647616274</v>
       </c>
       <c r="BI4">
-        <v>348073769.77130419</v>
+        <v>205415679359.85129</v>
       </c>
       <c r="BJ4">
-        <v>-0.13522421538473359</v>
+        <v>0.13568369787969051</v>
       </c>
       <c r="BK4">
-        <v>2.633819827986851</v>
+        <v>2.3040924856517102</v>
       </c>
       <c r="BL4" t="s">
         <v>84</v>
@@ -1686,10 +1761,10 @@
         <v>86</v>
       </c>
       <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
         <v>87</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
       </c>
       <c r="D5">
         <v>1900069</v>
@@ -1701,175 +1776,175 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G5">
-        <v>5916</v>
-      </c>
-      <c r="H5">
-        <v>3.1135711387323302E-3</v>
-      </c>
-      <c r="I5">
-        <v>0.99688642886126766</v>
+        <v>2215</v>
+      </c>
+      <c r="H5" s="23">
+        <v>1.165747138656543E-3</v>
+      </c>
+      <c r="I5" s="23">
+        <v>0.99883425286134342</v>
       </c>
       <c r="J5">
-        <v>1894153</v>
+        <v>1897854</v>
       </c>
       <c r="K5">
-        <v>-835.07905899999992</v>
+        <v>-34.144506999999997</v>
       </c>
       <c r="L5">
-        <v>1.963194311931</v>
+        <v>0.124132002125</v>
       </c>
       <c r="M5">
-        <v>1864352</v>
+        <v>1876383</v>
       </c>
       <c r="N5">
-        <v>-850.288771</v>
+        <v>-25.732198</v>
       </c>
       <c r="O5">
-        <v>1.6863300687010001</v>
+        <v>0.100805345578</v>
       </c>
       <c r="P5">
-        <v>-4.7349999999999996E-3</v>
+        <v>-2.4740000000000001E-3</v>
       </c>
       <c r="Q5">
-        <v>4.2220000000000001E-3</v>
+        <v>2.7490000000000001E-3</v>
       </c>
       <c r="R5">
-        <v>-4.4087201984211409E-4</v>
+        <v>-1.7991113647309009E-5</v>
       </c>
       <c r="S5">
-        <v>-4.3600000000000003E-4</v>
+        <v>-1.4E-5</v>
       </c>
       <c r="T5">
-        <v>1.01806173769394E-3</v>
+        <v>2.5574696015106158E-4</v>
       </c>
       <c r="U5">
-        <v>9.1765002254494583E-4</v>
+        <v>2.5511336197117998E-4</v>
       </c>
       <c r="V5">
-        <v>7.7185462684376601E-4</v>
+        <v>1.900705939445289E-4</v>
       </c>
       <c r="W5">
-        <v>6.5382660000000003E-4</v>
+        <v>2.1942479999999999E-4</v>
       </c>
       <c r="X5">
-        <v>-3.1930000000000001E-3</v>
+        <v>-7.67E-4</v>
       </c>
       <c r="Y5">
-        <v>2.3119999999999998E-3</v>
+        <v>7.67E-4</v>
       </c>
       <c r="Z5">
-        <v>-4.5607737755531139E-4</v>
+        <v>-1.3713723690739039E-5</v>
       </c>
       <c r="AA5">
-        <v>-4.3899999999999999E-4</v>
+        <v>-1.2999999999999999E-5</v>
       </c>
       <c r="AB5">
-        <v>9.5105872793725026E-4</v>
+        <v>2.3178271014977941E-4</v>
       </c>
       <c r="AC5">
-        <v>8.3456942770981652E-4</v>
+        <v>2.3137665938229531E-4</v>
       </c>
       <c r="AD5">
-        <v>7.3611171549149517E-4</v>
+        <v>1.806859996066901E-4</v>
       </c>
       <c r="AE5">
-        <v>6.4048319999999992E-4</v>
+        <v>2.164596E-4</v>
       </c>
       <c r="AF5">
         <v>3</v>
       </c>
       <c r="AG5">
-        <v>2.7529500676348379E-3</v>
+        <v>7.6724088045318473E-4</v>
       </c>
       <c r="AH5" t="s">
         <v>79</v>
       </c>
       <c r="AI5">
-        <v>1864352</v>
+        <v>1876383</v>
       </c>
       <c r="AJ5">
-        <v>442625</v>
+        <v>890027</v>
       </c>
       <c r="AK5">
-        <v>1420912</v>
+        <v>982908</v>
       </c>
       <c r="AL5">
-        <v>19322</v>
+        <v>6294</v>
       </c>
       <c r="AM5">
-        <v>10479</v>
+        <v>15177</v>
       </c>
       <c r="AN5">
-        <v>29801</v>
+        <v>21471</v>
       </c>
       <c r="AO5">
-        <v>5.1037589342639502E-4</v>
+        <v>-3.9179865865586141E-4</v>
       </c>
       <c r="AP5">
-        <v>3.0049877046289279E-3</v>
+        <v>9.6587783531997158E-4</v>
       </c>
       <c r="AQ5">
-        <v>-1.9680000000000001E-3</v>
+        <v>-4.2299999999999998E-4</v>
       </c>
       <c r="AR5">
-        <v>-8.9700000000000001E-4</v>
+        <v>-1.63E-4</v>
       </c>
       <c r="AS5">
-        <v>-1.2999999999999999E-5</v>
+        <v>1.3300000000000001E-4</v>
       </c>
       <c r="AT5">
-        <v>1.139E-3</v>
+        <v>3.8299999999999999E-4</v>
       </c>
       <c r="AU5">
-        <v>8.8400000000000002E-4</v>
+        <v>2.9599999999999998E-4</v>
       </c>
       <c r="AV5">
-        <v>-1.9070000000000001E-3</v>
+        <v>-4.0099999999999999E-4</v>
       </c>
       <c r="AW5">
-        <v>-8.9300000000000002E-4</v>
+        <v>-1.6000000000000001E-4</v>
       </c>
       <c r="AX5">
-        <v>-2.6999999999999999E-5</v>
+        <v>1.3200000000000001E-4</v>
       </c>
       <c r="AY5">
-        <v>9.9799999999999997E-4</v>
+        <v>3.7599999999999998E-4</v>
       </c>
       <c r="AZ5">
-        <v>8.6600000000000002E-4</v>
+        <v>2.920000000000001E-4</v>
       </c>
       <c r="BA5">
-        <v>-4.4087201984211409E-4</v>
+        <v>-1.7991113647309009E-5</v>
       </c>
       <c r="BB5">
-        <v>9.1765002254494583E-4</v>
+        <v>2.5511336197117998E-4</v>
       </c>
       <c r="BC5">
-        <v>431278.0860888426</v>
+        <v>5547526538641.1396</v>
       </c>
       <c r="BD5">
-        <v>4.8297243843453312</v>
+        <v>8.9622598919158989</v>
       </c>
       <c r="BE5">
-        <v>4.6564226703549472E-3</v>
+        <v>2.5664100849867701E-3</v>
       </c>
       <c r="BF5">
-        <v>-4.7351845269076086E-3</v>
+        <v>-2.4741286544387462E-3</v>
       </c>
       <c r="BG5">
-        <v>-2.9714677948171429E-4</v>
+        <v>5.8625241096111908E-5</v>
       </c>
       <c r="BH5">
-        <v>-0.22978582268040909</v>
+        <v>-0.58870763681861193</v>
       </c>
       <c r="BI5">
-        <v>2036072.926985835</v>
+        <v>20983545451246.512</v>
       </c>
       <c r="BJ5">
-        <v>0.16433390384657651</v>
+        <v>-0.1617768866828582</v>
       </c>
       <c r="BK5">
-        <v>1.9867408025238671</v>
+        <v>3.5078761855336662</v>
       </c>
       <c r="BL5" t="s">
         <v>88</v>
@@ -1883,10 +1958,10 @@
         <v>90</v>
       </c>
       <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
         <v>91</v>
-      </c>
-      <c r="C6" t="s">
-        <v>78</v>
       </c>
       <c r="D6">
         <v>1801484</v>
@@ -1898,175 +1973,175 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G6">
-        <v>4103</v>
-      </c>
-      <c r="H6">
-        <v>2.277566717217583E-3</v>
-      </c>
-      <c r="I6">
-        <v>0.99772243328278243</v>
+        <v>39618</v>
+      </c>
+      <c r="H6" s="23">
+        <v>2.1991868925841141E-2</v>
+      </c>
+      <c r="I6" s="23">
+        <v>0.97800813107415885</v>
       </c>
       <c r="J6">
-        <v>1797381</v>
+        <v>1761866</v>
       </c>
       <c r="K6">
-        <v>-792.14975500000003</v>
+        <v>21.320408</v>
       </c>
       <c r="L6">
-        <v>1.3703228428750001</v>
+        <v>0.21698494367999999</v>
       </c>
       <c r="M6">
-        <v>1763317</v>
+        <v>1742560</v>
       </c>
       <c r="N6">
-        <v>-724.14720799999998</v>
+        <v>11.90292100000001</v>
       </c>
       <c r="O6">
-        <v>1.079117073176</v>
+        <v>0.18197947923499999</v>
       </c>
       <c r="P6">
-        <v>-4.5170000000000002E-3</v>
+        <v>-3.627E-3</v>
       </c>
       <c r="Q6">
-        <v>3.7360000000000002E-3</v>
+        <v>4.0730000000000002E-3</v>
       </c>
       <c r="R6">
-        <v>-4.4072445129886208E-4</v>
+        <v>1.2101038330951391E-5</v>
       </c>
       <c r="S6">
-        <v>-3.7800000000000003E-4</v>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="T6">
-        <v>8.7315506063617623E-4</v>
+        <v>3.5093635622776087E-4</v>
       </c>
       <c r="U6">
-        <v>7.5376502833567538E-4</v>
+        <v>3.5072765929383269E-4</v>
       </c>
       <c r="V6">
-        <v>6.390612546811166E-4</v>
+        <v>2.6184355450414501E-4</v>
       </c>
       <c r="W6">
-        <v>5.0260140000000001E-4</v>
+        <v>2.9948520000000001E-4</v>
       </c>
       <c r="X6">
-        <v>-2.702E-3</v>
+        <v>-1.052E-3</v>
       </c>
       <c r="Y6">
-        <v>1.82E-3</v>
+        <v>1.052E-3</v>
       </c>
       <c r="Z6">
-        <v>-4.1067329810805432E-4</v>
+        <v>6.8307094160315892E-6</v>
       </c>
       <c r="AA6">
-        <v>-3.7199999999999999E-4</v>
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="AB6">
-        <v>7.8229235232200346E-4</v>
+        <v>3.231598058904027E-4</v>
       </c>
       <c r="AC6">
-        <v>6.6582938259177678E-4</v>
+        <v>3.230876066208614E-4</v>
       </c>
       <c r="AD6">
-        <v>5.9566432354477385E-4</v>
+        <v>2.5022709404554219E-4</v>
       </c>
       <c r="AE6">
-        <v>4.8925800000000001E-4</v>
+        <v>2.9503739999999997E-4</v>
       </c>
       <c r="AF6">
         <v>3</v>
       </c>
       <c r="AG6">
-        <v>2.2612950850070261E-3</v>
+        <v>1.0528090686832831E-3</v>
       </c>
       <c r="AH6" t="s">
         <v>79</v>
       </c>
       <c r="AI6">
-        <v>1763317</v>
+        <v>1742560</v>
       </c>
       <c r="AJ6">
-        <v>391530</v>
+        <v>874748</v>
       </c>
       <c r="AK6">
-        <v>1370853</v>
+        <v>865289</v>
       </c>
       <c r="AL6">
-        <v>7004</v>
+        <v>13112</v>
       </c>
       <c r="AM6">
-        <v>27060</v>
+        <v>6194</v>
       </c>
       <c r="AN6">
-        <v>34064</v>
+        <v>19306</v>
       </c>
       <c r="AO6">
-        <v>-1.9963171383278531E-3</v>
+        <v>4.8780104630684763E-4</v>
       </c>
       <c r="AP6">
-        <v>2.1362353883323331E-3</v>
+        <v>1.2550860876341431E-3</v>
       </c>
       <c r="AQ6">
-        <v>-1.815E-3</v>
+        <v>-5.2800000000000004E-4</v>
       </c>
       <c r="AR6">
-        <v>-7.3300000000000004E-4</v>
+        <v>-2.0100000000000001E-4</v>
       </c>
       <c r="AS6">
-        <v>-5.3000000000000001E-5</v>
+        <v>2.03E-4</v>
       </c>
       <c r="AT6">
-        <v>6.6699999999999995E-4</v>
+        <v>6.0499999999999996E-4</v>
       </c>
       <c r="AU6">
-        <v>6.8000000000000005E-4</v>
+        <v>4.0400000000000001E-4</v>
       </c>
       <c r="AV6">
-        <v>-1.653E-3</v>
+        <v>-5.1800000000000001E-4</v>
       </c>
       <c r="AW6">
-        <v>-7.1199999999999996E-4</v>
+        <v>-2.0000000000000001E-4</v>
       </c>
       <c r="AX6">
-        <v>-5.1E-5</v>
+        <v>1.9900000000000001E-4</v>
       </c>
       <c r="AY6">
-        <v>6.38E-4</v>
+        <v>5.7300000000000005E-4</v>
       </c>
       <c r="AZ6">
-        <v>6.6099999999999991E-4</v>
+        <v>3.9899999999999999E-4</v>
       </c>
       <c r="BA6">
-        <v>-4.4072445129886208E-4</v>
+        <v>1.2101038330951391E-5</v>
       </c>
       <c r="BB6">
-        <v>7.5376502833567538E-4</v>
+        <v>3.5072765929383269E-4</v>
       </c>
       <c r="BC6">
-        <v>793996.28043427237</v>
+        <v>2286568405826.7378</v>
       </c>
       <c r="BD6">
-        <v>6.1086363757422166</v>
+        <v>9.1398575068263703</v>
       </c>
       <c r="BE6">
-        <v>4.4687838654023128E-3</v>
+        <v>3.796457998646596E-3</v>
       </c>
       <c r="BF6">
-        <v>-4.612269422200008E-3</v>
+        <v>-3.627174705865991E-3</v>
       </c>
       <c r="BG6">
-        <v>-2.723707118078315E-4</v>
+        <v>1.214568459662565E-4</v>
       </c>
       <c r="BH6">
-        <v>-0.38422075566463249</v>
+        <v>-0.59776031140242314</v>
       </c>
       <c r="BI6">
-        <v>1298992684327.6489</v>
+        <v>15100315547797.15</v>
       </c>
       <c r="BJ6">
-        <v>-0.61713100390789222</v>
+        <v>0.36906345478822522</v>
       </c>
       <c r="BK6">
-        <v>2.5684437604908958</v>
+        <v>2.7922655953202851</v>
       </c>
       <c r="BL6" t="s">
         <v>92</v>
@@ -2080,10 +2155,10 @@
         <v>94</v>
       </c>
       <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
         <v>95</v>
-      </c>
-      <c r="C7" t="s">
-        <v>78</v>
       </c>
       <c r="D7">
         <v>1838147</v>
@@ -2095,175 +2170,175 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G7">
-        <v>2711</v>
-      </c>
-      <c r="H7">
-        <v>1.4748548402276861E-3</v>
-      </c>
-      <c r="I7">
-        <v>0.99852514515977231</v>
+        <v>51530</v>
+      </c>
+      <c r="H7" s="23">
+        <v>2.803366651306996E-2</v>
+      </c>
+      <c r="I7" s="23">
+        <v>0.97196633348693007</v>
       </c>
       <c r="J7">
-        <v>1835436</v>
+        <v>1786617</v>
       </c>
       <c r="K7">
-        <v>-707.42920400000003</v>
+        <v>31.713466</v>
       </c>
       <c r="L7">
-        <v>1.6436301101120001</v>
+        <v>0.10622486581600001</v>
       </c>
       <c r="M7">
-        <v>1815047</v>
+        <v>1768833</v>
       </c>
       <c r="N7">
-        <v>-709.56628599999999</v>
+        <v>29.032762000000002</v>
       </c>
       <c r="O7">
-        <v>1.4644195241160001</v>
+        <v>8.9652515015999995E-2</v>
       </c>
       <c r="P7">
-        <v>-4.3600000000000002E-3</v>
+        <v>-3.3960000000000001E-3</v>
       </c>
       <c r="Q7">
-        <v>3.9490000000000003E-3</v>
+        <v>2.8509999999999998E-3</v>
       </c>
       <c r="R7">
-        <v>-3.8542842354623102E-4</v>
+        <v>1.7750567693019818E-5</v>
       </c>
       <c r="S7">
-        <v>-3.3799999999999998E-4</v>
+        <v>1.1E-5</v>
       </c>
       <c r="T7">
-        <v>9.4630780366786529E-4</v>
+        <v>2.4383574128130099E-4</v>
       </c>
       <c r="U7">
-        <v>8.6425886724138745E-4</v>
+        <v>2.4318878689770431E-4</v>
       </c>
       <c r="V7">
-        <v>6.9651898622452644E-4</v>
+        <v>1.8466839619235681E-4</v>
       </c>
       <c r="W7">
-        <v>6.0786599999999998E-4</v>
+        <v>2.1942479999999999E-4</v>
       </c>
       <c r="X7">
-        <v>-2.9780000000000002E-3</v>
+        <v>-7.3099999999999999E-4</v>
       </c>
       <c r="Y7">
-        <v>2.2070000000000002E-3</v>
+        <v>7.3099999999999999E-4</v>
       </c>
       <c r="Z7">
-        <v>-3.9093548872288158E-4</v>
+        <v>1.6413512185717931E-5</v>
       </c>
       <c r="AA7">
-        <v>-3.39E-4</v>
+        <v>1.1E-5</v>
       </c>
       <c r="AB7">
-        <v>8.9823260913024863E-4</v>
+        <v>2.2513230748069711E-4</v>
       </c>
       <c r="AC7">
-        <v>8.0869726335751606E-4</v>
+        <v>2.245331879462642E-4</v>
       </c>
       <c r="AD7">
-        <v>6.7139637375781451E-4</v>
+        <v>1.771037808543825E-4</v>
       </c>
       <c r="AE7">
-        <v>5.9897039999999991E-4</v>
+        <v>2.164596E-4</v>
       </c>
       <c r="AF7">
         <v>3</v>
       </c>
       <c r="AG7">
-        <v>2.592776601724162E-3</v>
+        <v>7.3150722384390289E-4</v>
       </c>
       <c r="AH7" t="s">
         <v>79</v>
       </c>
       <c r="AI7">
-        <v>1815047</v>
+        <v>1768833</v>
       </c>
       <c r="AJ7">
-        <v>495547</v>
+        <v>918398</v>
       </c>
       <c r="AK7">
-        <v>1318559</v>
+        <v>847127</v>
       </c>
       <c r="AL7">
-        <v>11564</v>
+        <v>10233</v>
       </c>
       <c r="AM7">
-        <v>8825</v>
+        <v>7551</v>
       </c>
       <c r="AN7">
-        <v>20389</v>
+        <v>17784</v>
       </c>
       <c r="AO7">
-        <v>1.048154396978763E-4</v>
+        <v>1.507368421052631E-4</v>
       </c>
       <c r="AP7">
-        <v>2.962867841404258E-3</v>
+        <v>9.5349199416128237E-4</v>
       </c>
       <c r="AQ7">
-        <v>-2.0140000000000002E-3</v>
+        <v>-3.59E-4</v>
       </c>
       <c r="AR7">
-        <v>-7.7200000000000001E-4</v>
+        <v>-1.2899999999999999E-4</v>
       </c>
       <c r="AS7">
-        <v>5.3000000000000001E-5</v>
+        <v>1.6799999999999999E-4</v>
       </c>
       <c r="AT7">
-        <v>9.5299999999999996E-4</v>
+        <v>4.0099999999999999E-4</v>
       </c>
       <c r="AU7">
-        <v>8.25E-4</v>
+        <v>2.9700000000000001E-4</v>
       </c>
       <c r="AV7">
-        <v>-1.9610000000000001E-3</v>
+        <v>-3.4900000000000003E-4</v>
       </c>
       <c r="AW7">
-        <v>-7.67E-4</v>
+        <v>-1.2799999999999999E-4</v>
       </c>
       <c r="AX7">
-        <v>4.6E-5</v>
+        <v>1.65E-4</v>
       </c>
       <c r="AY7">
-        <v>8.9099999999999997E-4</v>
+        <v>3.8900000000000002E-4</v>
       </c>
       <c r="AZ7">
-        <v>8.1300000000000003E-4</v>
+        <v>2.9300000000000002E-4</v>
       </c>
       <c r="BA7">
-        <v>-3.8542842354623102E-4</v>
+        <v>1.7750567693019818E-5</v>
       </c>
       <c r="BB7">
-        <v>8.6425886724138745E-4</v>
+        <v>2.4318878689770431E-4</v>
       </c>
       <c r="BC7">
-        <v>394200.72250054358</v>
+        <v>3313620921617.417</v>
       </c>
       <c r="BD7">
-        <v>4.9305225112883928</v>
+        <v>7.7887018398813321</v>
       </c>
       <c r="BE7">
-        <v>4.3100882022271891E-3</v>
+        <v>2.1041571100732458E-3</v>
       </c>
       <c r="BF7">
-        <v>-4.3603304980075934E-3</v>
+        <v>-1.9810897144354159E-3</v>
       </c>
       <c r="BG7">
-        <v>-2.4390566934684099E-4</v>
+        <v>8.6269745503504778E-5</v>
       </c>
       <c r="BH7">
-        <v>-0.2443534729343162</v>
+        <v>-0.52011002754015723</v>
       </c>
       <c r="BI7">
-        <v>34235460.934346274</v>
+        <v>10154290838195.93</v>
       </c>
       <c r="BJ7">
-        <v>-0.15969683626549969</v>
+        <v>9.0759951459382412E-2</v>
       </c>
       <c r="BK7">
-        <v>1.6998174583202921</v>
+        <v>2.8625284060168981</v>
       </c>
       <c r="BL7" t="s">
         <v>96</v>
@@ -2277,10 +2352,10 @@
         <v>98</v>
       </c>
       <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
         <v>99</v>
-      </c>
-      <c r="C8" t="s">
-        <v>78</v>
       </c>
       <c r="D8">
         <v>1843820</v>
@@ -2292,175 +2367,175 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G8">
-        <v>1360</v>
-      </c>
-      <c r="H8">
-        <v>7.3759911488106215E-4</v>
-      </c>
-      <c r="I8">
-        <v>0.99926240088511897</v>
+        <v>55208</v>
+      </c>
+      <c r="H8" s="23">
+        <v>2.9942185245848289E-2</v>
+      </c>
+      <c r="I8" s="23">
+        <v>0.97005781475415176</v>
       </c>
       <c r="J8">
-        <v>1842460</v>
+        <v>1788612</v>
       </c>
       <c r="K8">
-        <v>-801.44724600000006</v>
+        <v>-95.087013000000013</v>
       </c>
       <c r="L8">
-        <v>1.521578177264</v>
+        <v>0.14181540976699999</v>
       </c>
       <c r="M8">
-        <v>1821523</v>
+        <v>1763022</v>
       </c>
       <c r="N8">
-        <v>-758.55499699999996</v>
+        <v>-68.365149000000002</v>
       </c>
       <c r="O8">
-        <v>1.332797772291</v>
+        <v>0.107569993261</v>
       </c>
       <c r="P8">
-        <v>-4.1099999999999999E-3</v>
+        <v>-3.7910000000000001E-3</v>
       </c>
       <c r="Q8">
-        <v>2.5100000000000001E-3</v>
+        <v>1.214E-3</v>
       </c>
       <c r="R8">
-        <v>-4.3498759593152642E-4</v>
+        <v>-5.3162459493730341E-5</v>
       </c>
       <c r="S8">
-        <v>-2.9700000000000001E-4</v>
+        <v>-2.3E-5</v>
       </c>
       <c r="T8">
-        <v>9.0875769523514284E-4</v>
+        <v>2.815811913094058E-4</v>
       </c>
       <c r="U8">
-        <v>7.9788867646733773E-4</v>
+        <v>2.7651712460497211E-4</v>
       </c>
       <c r="V8">
-        <v>6.6258069646016739E-4</v>
+        <v>1.9847827421486599E-4</v>
       </c>
       <c r="W8">
-        <v>6.0490079999999996E-4</v>
+        <v>2.1201179999999999E-4</v>
       </c>
       <c r="X8">
-        <v>-2.8279999999999998E-3</v>
+        <v>-8.4400000000000002E-4</v>
       </c>
       <c r="Y8">
-        <v>1.9580000000000001E-3</v>
+        <v>8.4400000000000002E-4</v>
       </c>
       <c r="Z8">
-        <v>-4.1643997742548398E-4</v>
+        <v>-3.8777252354196382E-5</v>
       </c>
       <c r="AA8">
-        <v>-2.9300000000000002E-4</v>
+        <v>-1.9000000000000001E-5</v>
       </c>
       <c r="AB8">
-        <v>8.5539124203826589E-4</v>
+        <v>2.4701123374816958E-4</v>
       </c>
       <c r="AC8">
-        <v>7.4717596465466516E-4</v>
+        <v>2.4394850747166269E-4</v>
       </c>
       <c r="AD8">
-        <v>6.3612124304771327E-4</v>
+        <v>1.8523366299456271E-4</v>
       </c>
       <c r="AE8">
-        <v>5.9452259999999988E-4</v>
+        <v>2.0904659999999999E-4</v>
       </c>
       <c r="AF8">
         <v>3</v>
       </c>
       <c r="AG8">
-        <v>2.393666029402013E-3</v>
+        <v>8.4474357392821746E-4</v>
       </c>
       <c r="AH8" t="s">
         <v>79</v>
       </c>
       <c r="AI8">
-        <v>1821523</v>
+        <v>1763022</v>
       </c>
       <c r="AJ8">
-        <v>470655</v>
+        <v>812638</v>
       </c>
       <c r="AK8">
-        <v>1349821</v>
+        <v>946865</v>
       </c>
       <c r="AL8">
-        <v>4444</v>
+        <v>906</v>
       </c>
       <c r="AM8">
-        <v>16493</v>
+        <v>24684</v>
       </c>
       <c r="AN8">
-        <v>20937</v>
+        <v>25590</v>
       </c>
       <c r="AO8">
-        <v>-2.0486339494674502E-3</v>
+        <v>-1.044230715123095E-3</v>
       </c>
       <c r="AP8">
-        <v>2.1953796513722841E-3</v>
+        <v>4.9781175522913359E-4</v>
       </c>
       <c r="AQ8">
-        <v>-1.91E-3</v>
+        <v>-5.5500000000000005E-4</v>
       </c>
       <c r="AR8">
-        <v>-8.4800000000000001E-4</v>
+        <v>-1.75E-4</v>
       </c>
       <c r="AS8">
-        <v>1.4E-5</v>
+        <v>1.13E-4</v>
       </c>
       <c r="AT8">
-        <v>7.3800000000000005E-4</v>
+        <v>3.3100000000000002E-4</v>
       </c>
       <c r="AU8">
-        <v>8.6200000000000003E-4</v>
+        <v>2.8800000000000001E-4</v>
       </c>
       <c r="AV8">
-        <v>-1.8270000000000001E-3</v>
+        <v>-4.9899999999999999E-4</v>
       </c>
       <c r="AW8">
-        <v>-8.2799999999999996E-4</v>
+        <v>-1.6699999999999999E-4</v>
       </c>
       <c r="AX8">
-        <v>1.5E-5</v>
+        <v>1.15E-4</v>
       </c>
       <c r="AY8">
-        <v>7.2300000000000001E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="AZ8">
-        <v>8.43E-4</v>
+        <v>2.8200000000000002E-4</v>
       </c>
       <c r="BA8">
-        <v>-4.3498759593152642E-4</v>
+        <v>-5.3162459493730341E-5</v>
       </c>
       <c r="BB8">
-        <v>7.9788867646733773E-4</v>
+        <v>2.7651712460497211E-4</v>
       </c>
       <c r="BC8">
-        <v>398194.55615256651</v>
+        <v>75926386333921.266</v>
       </c>
       <c r="BD8">
-        <v>6.4267605564719892</v>
+        <v>2.5059462099630858</v>
       </c>
       <c r="BE8">
-        <v>4.7927387262456499E-3</v>
+        <v>3.674489553649784E-3</v>
       </c>
       <c r="BF8">
-        <v>-4.9086977302959514E-3</v>
+        <v>-3.713000161087623E-3</v>
       </c>
       <c r="BG8">
-        <v>-2.404407829950132E-4</v>
+        <v>-7.1423804130044989E-4</v>
       </c>
       <c r="BH8">
-        <v>-0.41451484911385278</v>
+        <v>0.35598113200063108</v>
       </c>
       <c r="BI8">
-        <v>896669.16122246441</v>
+        <v>7083770.6713660359</v>
       </c>
       <c r="BJ8">
-        <v>-0.57717907735233054</v>
+        <v>-1.2446074802857141</v>
       </c>
       <c r="BK8">
-        <v>1.244933915807767</v>
+        <v>5.7173596232498296</v>
       </c>
       <c r="BL8" t="s">
         <v>100</v>
@@ -2469,200 +2544,200 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:65" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="15">
+      <c r="D9">
         <v>1796164</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9">
         <v>2E-3</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G9" s="15">
-        <v>4545</v>
-      </c>
-      <c r="H9" s="15">
-        <v>2.530392547673821E-3</v>
-      </c>
-      <c r="I9" s="15">
-        <v>0.99746960745232616</v>
-      </c>
-      <c r="J9" s="15">
-        <v>1791619</v>
-      </c>
-      <c r="K9" s="15">
-        <v>-443.82193000000001</v>
-      </c>
-      <c r="L9" s="15">
-        <v>1.2996335951539999</v>
-      </c>
-      <c r="M9" s="15">
-        <v>1765379</v>
-      </c>
-      <c r="N9" s="15">
-        <v>-411.92550499999999</v>
-      </c>
-      <c r="O9" s="15">
-        <v>1.071713381031</v>
-      </c>
-      <c r="P9" s="15">
-        <v>-4.2890000000000003E-3</v>
-      </c>
-      <c r="Q9" s="15">
-        <v>3.9290000000000002E-3</v>
-      </c>
-      <c r="R9" s="15">
-        <v>-2.4772115611633948E-4</v>
-      </c>
-      <c r="S9" s="15">
-        <v>-2.3800000000000001E-4</v>
-      </c>
-      <c r="T9" s="15">
-        <v>8.5170193684826201E-4</v>
-      </c>
-      <c r="U9" s="15">
-        <v>8.1488061582262784E-4</v>
-      </c>
-      <c r="V9" s="15">
-        <v>6.2145386491212695E-4</v>
-      </c>
-      <c r="W9" s="15">
-        <v>5.9007480000000006E-4</v>
-      </c>
-      <c r="X9" s="15">
-        <v>-2.6919999999999999E-3</v>
-      </c>
-      <c r="Y9" s="15">
-        <v>2.196E-3</v>
-      </c>
-      <c r="Z9" s="15">
-        <v>-2.3333545091450619E-4</v>
-      </c>
-      <c r="AA9" s="15">
-        <v>-2.3499999999999999E-4</v>
-      </c>
-      <c r="AB9" s="15">
-        <v>7.7914869664949646E-4</v>
-      </c>
-      <c r="AC9" s="15">
-        <v>7.4338903599470256E-4</v>
-      </c>
-      <c r="AD9" s="15">
-        <v>5.8731266373962749E-4</v>
-      </c>
-      <c r="AE9" s="15">
-        <v>5.7673139999999995E-4</v>
-      </c>
-      <c r="AF9" s="15">
+      <c r="G9">
+        <v>44259</v>
+      </c>
+      <c r="H9" s="23">
+        <v>2.464084571342038E-2</v>
+      </c>
+      <c r="I9" s="23">
+        <v>0.9753591542865796</v>
+      </c>
+      <c r="J9">
+        <v>1751905</v>
+      </c>
+      <c r="K9">
+        <v>119.290092</v>
+      </c>
+      <c r="L9">
+        <v>0.200494178316</v>
+      </c>
+      <c r="M9">
+        <v>1736277</v>
+      </c>
+      <c r="N9">
+        <v>107.429074</v>
+      </c>
+      <c r="O9">
+        <v>0.16888137487400001</v>
+      </c>
+      <c r="P9">
+        <v>-2.036E-3</v>
+      </c>
+      <c r="Q9">
+        <v>2.624E-3</v>
+      </c>
+      <c r="R9">
+        <v>6.8091644238700157E-5</v>
+      </c>
+      <c r="S9">
+        <v>5.1E-5</v>
+      </c>
+      <c r="T9">
+        <v>3.3829502205424321E-4</v>
+      </c>
+      <c r="U9">
+        <v>3.3137146819174282E-4</v>
+      </c>
+      <c r="V9">
+        <v>2.5427561083506242E-4</v>
+      </c>
+      <c r="W9">
+        <v>2.9503739999999997E-4</v>
+      </c>
+      <c r="X9">
+        <v>-1.0139999999999999E-3</v>
+      </c>
+      <c r="Y9">
+        <v>1.0139999999999999E-3</v>
+      </c>
+      <c r="Z9">
+        <v>6.1873234512695838E-5</v>
+      </c>
+      <c r="AA9">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="AB9">
+        <v>3.1187558084992798E-4</v>
+      </c>
+      <c r="AC9">
+        <v>3.0567643151119278E-4</v>
+      </c>
+      <c r="AD9">
+        <v>2.4421833382576628E-4</v>
+      </c>
+      <c r="AE9">
+        <v>2.9207220000000001E-4</v>
+      </c>
+      <c r="AF9">
         <v>3</v>
       </c>
-      <c r="AG9" s="15">
-        <v>2.4446418474678841E-3</v>
-      </c>
-      <c r="AH9" s="15" t="s">
+      <c r="AG9">
+        <v>1.0148850661627299E-3</v>
+      </c>
+      <c r="AH9" t="s">
         <v>79</v>
       </c>
-      <c r="AI9" s="15">
-        <v>1765379</v>
-      </c>
-      <c r="AJ9" s="15">
-        <v>584283</v>
-      </c>
-      <c r="AK9" s="15">
-        <v>1180017</v>
-      </c>
-      <c r="AL9" s="15">
-        <v>8550</v>
-      </c>
-      <c r="AM9" s="15">
-        <v>17690</v>
-      </c>
-      <c r="AN9" s="15">
-        <v>26240</v>
-      </c>
-      <c r="AO9" s="15">
-        <v>-1.2155649771341461E-3</v>
-      </c>
-      <c r="AP9" s="15">
-        <v>2.6848436744615631E-3</v>
-      </c>
-      <c r="AQ9" s="15">
-        <v>-1.6299999999999999E-3</v>
-      </c>
-      <c r="AR9" s="15">
-        <v>-6.3500000000000004E-4</v>
-      </c>
-      <c r="AS9" s="15">
-        <v>1.6100000000000001E-4</v>
-      </c>
-      <c r="AT9" s="15">
-        <v>1.101E-3</v>
-      </c>
-      <c r="AU9" s="15">
-        <v>7.9600000000000005E-4</v>
-      </c>
-      <c r="AV9" s="15">
-        <v>-1.518E-3</v>
-      </c>
-      <c r="AW9" s="15">
-        <v>-6.2E-4</v>
-      </c>
-      <c r="AX9" s="15">
-        <v>1.5899999999999999E-4</v>
-      </c>
-      <c r="AY9" s="15">
-        <v>1.0560000000000001E-3</v>
-      </c>
-      <c r="AZ9" s="15">
-        <v>7.7899999999999996E-4</v>
-      </c>
-      <c r="BA9" s="15">
-        <v>-2.4772115611633948E-4</v>
-      </c>
-      <c r="BB9" s="15">
-        <v>8.1488061582262784E-4</v>
-      </c>
-      <c r="BC9" s="15">
-        <v>578540.15135124186</v>
-      </c>
-      <c r="BD9" s="15">
-        <v>5.2652448874361362</v>
-      </c>
-      <c r="BE9" s="15">
-        <v>4.3633475494600157E-3</v>
-      </c>
-      <c r="BF9" s="15">
-        <v>-4.2896485267772157E-3</v>
-      </c>
-      <c r="BG9" s="15">
-        <v>-9.7404824018398374E-5</v>
-      </c>
-      <c r="BH9" s="15">
-        <v>-0.28937373573272951</v>
-      </c>
-      <c r="BI9" s="15">
-        <v>1560315349.7288761</v>
-      </c>
-      <c r="BJ9" s="15">
-        <v>-0.17371904743128719</v>
-      </c>
-      <c r="BK9" s="15">
-        <v>2.0872163460411568</v>
-      </c>
-      <c r="BL9" s="15" t="s">
+      <c r="AI9">
+        <v>1736277</v>
+      </c>
+      <c r="AJ9">
+        <v>984309</v>
+      </c>
+      <c r="AK9">
+        <v>749707</v>
+      </c>
+      <c r="AL9">
+        <v>11738</v>
+      </c>
+      <c r="AM9">
+        <v>3890</v>
+      </c>
+      <c r="AN9">
+        <v>15628</v>
+      </c>
+      <c r="AO9">
+        <v>7.5895943178909647E-4</v>
+      </c>
+      <c r="AP9">
+        <v>1.202834825579688E-3</v>
+      </c>
+      <c r="AQ9">
+        <v>-4.2400000000000001E-4</v>
+      </c>
+      <c r="AR9">
+        <v>-1.4100000000000001E-4</v>
+      </c>
+      <c r="AS9">
+        <v>2.5900000000000001E-4</v>
+      </c>
+      <c r="AT9">
+        <v>6.1700000000000004E-4</v>
+      </c>
+      <c r="AU9">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="AV9">
+        <v>-4.1800000000000002E-4</v>
+      </c>
+      <c r="AW9">
+        <v>-1.4100000000000001E-4</v>
+      </c>
+      <c r="AX9">
+        <v>2.5500000000000002E-4</v>
+      </c>
+      <c r="AY9">
+        <v>5.9400000000000002E-4</v>
+      </c>
+      <c r="AZ9">
+        <v>3.9599999999999998E-4</v>
+      </c>
+      <c r="BA9">
+        <v>6.8091644238700157E-5</v>
+      </c>
+      <c r="BB9">
+        <v>3.3137146819174282E-4</v>
+      </c>
+      <c r="BC9">
+        <v>128117412075.1183</v>
+      </c>
+      <c r="BD9">
+        <v>5.9727958668424872</v>
+      </c>
+      <c r="BE9">
+        <v>2.2443091030038809E-3</v>
+      </c>
+      <c r="BF9">
+        <v>-2.036056829236806E-3</v>
+      </c>
+      <c r="BG9">
+        <v>1.4044693720521379E-4</v>
+      </c>
+      <c r="BH9">
+        <v>-0.37046504064821928</v>
+      </c>
+      <c r="BI9">
+        <v>59555946649747.719</v>
+      </c>
+      <c r="BJ9">
+        <v>0.48762860725593521</v>
+      </c>
+      <c r="BK9">
+        <v>2.9929042271556292</v>
+      </c>
+      <c r="BL9" t="s">
         <v>104</v>
       </c>
-      <c r="BM9" s="15" t="s">
+      <c r="BM9" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2671,13 +2746,13 @@
         <v>106</v>
       </c>
       <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>131</v>
-      </c>
       <c r="D10">
-        <v>1838147</v>
+        <v>1848754</v>
       </c>
       <c r="E10">
         <v>2E-3</v>
@@ -2686,175 +2761,175 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G10">
-        <v>2713</v>
-      </c>
-      <c r="H10">
-        <v>1.475942892489012E-3</v>
-      </c>
-      <c r="I10">
-        <v>0.99852405710751102</v>
+        <v>3353</v>
+      </c>
+      <c r="H10" s="23">
+        <v>1.8136539528785329E-3</v>
+      </c>
+      <c r="I10" s="23">
+        <v>0.99818634604712142</v>
       </c>
       <c r="J10">
-        <v>1835434</v>
+        <v>1845401</v>
       </c>
       <c r="K10">
-        <v>-707.39812299999994</v>
+        <v>-671.42272000000003</v>
       </c>
       <c r="L10">
-        <v>1.643617490499</v>
+        <v>1.6112254864260001</v>
       </c>
       <c r="M10">
-        <v>1815039</v>
+        <v>1825744</v>
       </c>
       <c r="N10">
-        <v>-709.53198300000008</v>
+        <v>-626.26158199999998</v>
       </c>
       <c r="O10">
-        <v>1.464372709929</v>
+        <v>1.407286543668</v>
       </c>
       <c r="P10">
-        <v>-4.3600000000000002E-3</v>
+        <v>-4.3200000000000001E-3</v>
       </c>
       <c r="Q10">
-        <v>3.9490000000000003E-3</v>
+        <v>4.1479999999999998E-3</v>
       </c>
       <c r="R10">
-        <v>-3.8541190966278271E-4</v>
+        <v>-3.6383567582330348E-4</v>
       </c>
       <c r="S10">
-        <v>-3.3799999999999998E-4</v>
+        <v>-2.8299999999999999E-4</v>
       </c>
       <c r="T10">
-        <v>9.4630468641177413E-4</v>
+        <v>9.3439990511706933E-4</v>
       </c>
       <c r="U10">
-        <v>8.6426281848461654E-4</v>
+        <v>8.6065485746667826E-4</v>
       </c>
       <c r="V10">
-        <v>6.9650989084870383E-4</v>
+        <v>6.9620322195555328E-4</v>
       </c>
       <c r="W10">
-        <v>6.0786599999999998E-4</v>
+        <v>7.4871300000000003E-4</v>
       </c>
       <c r="X10">
-        <v>-2.9780000000000002E-3</v>
+        <v>-2.8029999999999999E-3</v>
       </c>
       <c r="Y10">
-        <v>2.2070000000000002E-3</v>
+        <v>2.8029999999999999E-3</v>
       </c>
       <c r="Z10">
-        <v>-3.9091831249907032E-4</v>
+        <v>-3.4301719299091219E-4</v>
       </c>
       <c r="AA10">
-        <v>-3.39E-4</v>
+        <v>-2.7500000000000002E-4</v>
       </c>
       <c r="AB10">
-        <v>8.9822023128054108E-4</v>
+        <v>8.7795311985730149E-4</v>
       </c>
       <c r="AC10">
-        <v>8.0869181820675544E-4</v>
+        <v>8.081713221711127E-4</v>
       </c>
       <c r="AD10">
-        <v>6.7138149152717939E-4</v>
+        <v>6.6916912338202948E-4</v>
       </c>
       <c r="AE10">
-        <v>5.9897039999999991E-4</v>
+        <v>7.3833479999999994E-4</v>
       </c>
       <c r="AF10">
         <v>3</v>
       </c>
       <c r="AG10">
-        <v>2.5927884554538491E-3</v>
+        <v>2.8031997153512081E-3</v>
       </c>
       <c r="AH10" t="s">
         <v>79</v>
       </c>
       <c r="AI10">
-        <v>1815039</v>
+        <v>1825744</v>
       </c>
       <c r="AJ10">
-        <v>495610</v>
+        <v>624201</v>
       </c>
       <c r="AK10">
-        <v>1318523</v>
+        <v>1200506</v>
       </c>
       <c r="AL10">
-        <v>11567</v>
+        <v>2784</v>
       </c>
       <c r="AM10">
-        <v>8828</v>
+        <v>16873</v>
       </c>
       <c r="AN10">
-        <v>20395</v>
+        <v>19657</v>
       </c>
       <c r="AO10">
-        <v>1.046266241725913E-4</v>
+        <v>-2.297458310016787E-3</v>
       </c>
       <c r="AP10">
-        <v>2.962721081208567E-3</v>
+        <v>2.2575565506968579E-3</v>
       </c>
       <c r="AQ10">
-        <v>-2.0140000000000002E-3</v>
+        <v>-1.8569999999999999E-3</v>
       </c>
       <c r="AR10">
-        <v>-7.7200000000000001E-4</v>
+        <v>-8.5899999999999995E-4</v>
       </c>
       <c r="AS10">
-        <v>5.3000000000000001E-5</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="AT10">
-        <v>9.5299999999999996E-4</v>
+        <v>8.9099999999999997E-4</v>
       </c>
       <c r="AU10">
-        <v>8.25E-4</v>
+        <v>1.029E-3</v>
       </c>
       <c r="AV10">
-        <v>-1.9610000000000001E-3</v>
+        <v>-1.7700000000000001E-3</v>
       </c>
       <c r="AW10">
-        <v>-7.67E-4</v>
+        <v>-8.4000000000000003E-4</v>
       </c>
       <c r="AX10">
-        <v>4.6E-5</v>
+        <v>1.7200000000000001E-4</v>
       </c>
       <c r="AY10">
-        <v>8.9099999999999997E-4</v>
+        <v>8.8199999999999997E-4</v>
       </c>
       <c r="AZ10">
-        <v>8.1300000000000003E-4</v>
+        <v>1.0120000000000001E-3</v>
       </c>
       <c r="BA10">
-        <v>-3.8541190966278271E-4</v>
+        <v>-3.6383567582330348E-4</v>
       </c>
       <c r="BB10">
-        <v>8.6426281848461654E-4</v>
+        <v>8.6065485746667826E-4</v>
       </c>
       <c r="BC10">
-        <v>393846.34978408553</v>
+        <v>248623.25555081831</v>
       </c>
       <c r="BD10">
-        <v>4.9305939725702448</v>
+        <v>5.1001741214280312</v>
       </c>
       <c r="BE10">
-        <v>4.3101056020565234E-3</v>
+        <v>4.3385160796749721E-3</v>
       </c>
       <c r="BF10">
-        <v>-4.36032921407242E-3</v>
+        <v>-4.3683719376072334E-3</v>
       </c>
       <c r="BG10">
-        <v>-2.4388194603458879E-4</v>
+        <v>-2.115922981897056E-4</v>
       </c>
       <c r="BH10">
-        <v>-0.24436362494983771</v>
+        <v>-0.26778601486418069</v>
       </c>
       <c r="BI10">
-        <v>34328485.413518503</v>
+        <v>1326327888.5372009</v>
       </c>
       <c r="BJ10">
-        <v>-0.1597823831466095</v>
+        <v>-0.27703564033594152</v>
       </c>
       <c r="BK10">
-        <v>1.6995150221965249</v>
+        <v>1.312988890863815</v>
       </c>
       <c r="BL10" t="s">
         <v>108</v>
@@ -2868,13 +2943,13 @@
         <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="D11">
-        <v>1836691</v>
+        <v>1878902</v>
       </c>
       <c r="E11">
         <v>2E-3</v>
@@ -2883,195 +2958,195 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G11">
-        <v>1825</v>
-      </c>
-      <c r="H11">
-        <v>9.9363474857774121E-4</v>
-      </c>
-      <c r="I11">
-        <v>0.99900636525142228</v>
+        <v>10479</v>
+      </c>
+      <c r="H11" s="23">
+        <v>5.5771934885374547E-3</v>
+      </c>
+      <c r="I11" s="23">
+        <v>0.99442280651146253</v>
       </c>
       <c r="J11">
-        <v>1834866</v>
+        <v>1868423</v>
       </c>
       <c r="K11">
-        <v>-742.21208899999999</v>
+        <v>-493.55910499999999</v>
       </c>
       <c r="L11">
-        <v>1.4993374988570001</v>
+        <v>1.254374518895</v>
       </c>
       <c r="M11">
-        <v>1815598</v>
+        <v>1839205</v>
       </c>
       <c r="N11">
-        <v>-705.56806200000005</v>
+        <v>-505.769294</v>
       </c>
       <c r="O11">
-        <v>1.327135725142</v>
+        <v>0.98791205816400007</v>
       </c>
       <c r="P11">
-        <v>-4.2110000000000003E-3</v>
+        <v>-5.4590000000000003E-3</v>
       </c>
       <c r="Q11">
-        <v>4.0889999999999998E-3</v>
+        <v>5.3189999999999999E-3</v>
       </c>
       <c r="R11">
-        <v>-4.045047916305605E-4</v>
+        <v>-2.6415811890562261E-4</v>
       </c>
       <c r="S11">
-        <v>-3.0699999999999998E-4</v>
+        <v>-2.9100000000000003E-4</v>
       </c>
       <c r="T11">
-        <v>9.0395648518970789E-4</v>
+        <v>8.1936235975801604E-4</v>
       </c>
       <c r="U11">
-        <v>8.0840163326433684E-4</v>
+        <v>7.7561276730367672E-4</v>
       </c>
       <c r="V11">
-        <v>6.5726197934890061E-4</v>
+        <v>6.0087599488980808E-4</v>
       </c>
       <c r="W11">
-        <v>6.1231379999999991E-4</v>
+        <v>5.3077080000000002E-4</v>
       </c>
       <c r="X11">
-        <v>-2.8289999999999999E-3</v>
+        <v>-2.4580000000000001E-3</v>
       </c>
       <c r="Y11">
-        <v>2.0200000000000001E-3</v>
+        <v>2.4580000000000001E-3</v>
       </c>
       <c r="Z11">
-        <v>-3.8861469444227188E-4</v>
+        <v>-2.7499343140106728E-4</v>
       </c>
       <c r="AA11">
-        <v>-3.0299999999999999E-4</v>
+        <v>-2.92E-4</v>
       </c>
       <c r="AB11">
-        <v>8.5496398809868353E-4</v>
+        <v>7.3289890648208953E-4</v>
       </c>
       <c r="AC11">
-        <v>7.6153925716875915E-4</v>
+        <v>6.793522060087162E-4</v>
       </c>
       <c r="AD11">
-        <v>6.3275608477206962E-4</v>
+        <v>5.629194135509636E-4</v>
       </c>
       <c r="AE11">
-        <v>6.0341819999999995E-4</v>
+        <v>5.1890999999999992E-4</v>
       </c>
       <c r="AF11">
         <v>3</v>
       </c>
       <c r="AG11">
-        <v>2.4252048997930099E-3</v>
+        <v>2.4580870792740481E-3</v>
       </c>
       <c r="AH11" t="s">
         <v>79</v>
       </c>
       <c r="AI11">
-        <v>1815598</v>
+        <v>1839205</v>
       </c>
       <c r="AJ11">
-        <v>519784</v>
+        <v>515526</v>
       </c>
       <c r="AK11">
-        <v>1294647</v>
+        <v>1322576</v>
       </c>
       <c r="AL11">
-        <v>4107</v>
+        <v>16475</v>
       </c>
       <c r="AM11">
-        <v>15161</v>
+        <v>12743</v>
       </c>
       <c r="AN11">
-        <v>19268</v>
+        <v>29218</v>
       </c>
       <c r="AO11">
-        <v>-1.9018075046709571E-3</v>
+        <v>4.1789954822369773E-4</v>
       </c>
       <c r="AP11">
-        <v>2.3065814637335609E-3</v>
+        <v>2.9908468545533739E-3</v>
       </c>
       <c r="AQ11">
-        <v>-1.9940000000000001E-3</v>
+        <v>-1.426E-3</v>
       </c>
       <c r="AR11">
-        <v>-7.8200000000000003E-4</v>
+        <v>-6.5200000000000002E-4</v>
       </c>
       <c r="AS11">
-        <v>6.0999999999999999E-5</v>
+        <v>6.3999999999999997E-5</v>
       </c>
       <c r="AT11">
-        <v>7.8200000000000003E-4</v>
+        <v>9.8700000000000003E-4</v>
       </c>
       <c r="AU11">
-        <v>8.43E-4</v>
+        <v>7.1600000000000006E-4</v>
       </c>
       <c r="AV11">
-        <v>-1.8929999999999999E-3</v>
+        <v>-1.3749999999999999E-3</v>
       </c>
       <c r="AW11">
-        <v>-7.67E-4</v>
+        <v>-6.4599999999999998E-4</v>
       </c>
       <c r="AX11">
-        <v>6.0999999999999999E-5</v>
+        <v>5.3999999999999998E-5</v>
       </c>
       <c r="AY11">
-        <v>7.67E-4</v>
+        <v>8.9499999999999996E-4</v>
       </c>
       <c r="AZ11">
-        <v>8.2799999999999996E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="BA11">
-        <v>-4.045047916305605E-4</v>
+        <v>-2.6415811890562261E-4</v>
       </c>
       <c r="BB11">
-        <v>8.0840163326433684E-4</v>
+        <v>7.7561276730367672E-4</v>
       </c>
       <c r="BC11">
-        <v>343158.95979839168</v>
+        <v>51605485.153666563</v>
       </c>
       <c r="BD11">
-        <v>5.8664235131932916</v>
+        <v>6.1839797691676139</v>
       </c>
       <c r="BE11">
-        <v>4.5046560421914518E-3</v>
+        <v>5.5292224375223364E-3</v>
       </c>
       <c r="BF11">
-        <v>-4.5916351408282719E-3</v>
+        <v>-5.4591443677683609E-3</v>
       </c>
       <c r="BG11">
-        <v>-2.282216224772085E-4</v>
+        <v>-8.5406885610614033E-5</v>
       </c>
       <c r="BH11">
-        <v>-0.35932232003876979</v>
+        <v>-0.39163147215298533</v>
       </c>
       <c r="BI11">
-        <v>1728009635829.803</v>
+        <v>1101367328859.9839</v>
       </c>
       <c r="BJ11">
-        <v>-0.54806856144724914</v>
+        <v>0.58965644253625893</v>
       </c>
       <c r="BK11">
-        <v>1.3917515097410511</v>
+        <v>3.887307118836608</v>
       </c>
       <c r="BL11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="BM11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D12">
-        <v>1836691</v>
+        <v>1900069</v>
       </c>
       <c r="E12">
         <v>2E-3</v>
@@ -3080,195 +3155,195 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G12">
-        <v>51076</v>
-      </c>
-      <c r="H12">
-        <v>2.7808705982661209E-2</v>
-      </c>
-      <c r="I12">
-        <v>0.97219129401733884</v>
+        <v>2846</v>
+      </c>
+      <c r="H12" s="23">
+        <v>1.4978403415875951E-3</v>
+      </c>
+      <c r="I12" s="23">
+        <v>0.99850215965841238</v>
       </c>
       <c r="J12">
-        <v>1785615</v>
+        <v>1897223</v>
       </c>
       <c r="K12">
-        <v>-28.935051999999999</v>
+        <v>-664.364734</v>
       </c>
       <c r="L12">
-        <v>0.11496055780800001</v>
+        <v>1.5769352964859999</v>
       </c>
       <c r="M12">
-        <v>1768260</v>
+        <v>1872005</v>
       </c>
       <c r="N12">
-        <v>-30.000653</v>
+        <v>-619.03978899999993</v>
       </c>
       <c r="O12">
-        <v>9.2757716744999996E-2</v>
+        <v>1.316261482919</v>
       </c>
       <c r="P12">
-        <v>-4.0099999999999997E-3</v>
+        <v>-4.8320000000000004E-3</v>
       </c>
       <c r="Q12">
-        <v>4.5319999999999996E-3</v>
+        <v>4.6389999999999999E-3</v>
       </c>
       <c r="R12">
-        <v>-1.6204530091873109E-5</v>
+        <v>-3.5017746147922519E-4</v>
       </c>
       <c r="S12">
-        <v>-1.1E-5</v>
+        <v>-3.2400000000000001E-4</v>
       </c>
       <c r="T12">
-        <v>2.5373508228747999E-4</v>
+        <v>9.1169116582928353E-4</v>
       </c>
       <c r="U12">
-        <v>2.5321711077242761E-4</v>
+        <v>8.4175799807493601E-4</v>
       </c>
       <c r="V12">
-        <v>1.8778190819409559E-4</v>
+        <v>6.701678020981192E-4</v>
       </c>
       <c r="W12">
-        <v>2.2090740000000001E-4</v>
+        <v>6.1972679999999997E-4</v>
       </c>
       <c r="X12">
-        <v>-7.7499999999999997E-4</v>
+        <v>-2.735E-3</v>
       </c>
       <c r="Y12">
-        <v>7.4299999999999995E-4</v>
+        <v>2.735E-3</v>
       </c>
       <c r="Z12">
-        <v>-1.696620010631921E-5</v>
+        <v>-3.3068276473620519E-4</v>
       </c>
       <c r="AA12">
-        <v>-1.1E-5</v>
+        <v>-3.19E-4</v>
       </c>
       <c r="AB12">
-        <v>2.2903505766893031E-4</v>
+        <v>8.3852802935963447E-4</v>
       </c>
       <c r="AC12">
-        <v>2.2840579172902451E-4</v>
+        <v>7.7057002610286601E-4</v>
       </c>
       <c r="AD12">
-        <v>1.7952738567857671E-4</v>
+        <v>6.3619065387111678E-4</v>
       </c>
       <c r="AE12">
-        <v>2.1942479999999999E-4</v>
+        <v>6.0786599999999998E-4</v>
       </c>
       <c r="AF12">
         <v>3</v>
       </c>
       <c r="AG12">
-        <v>7.5965133231728271E-4</v>
+        <v>2.735073497487851E-3</v>
       </c>
       <c r="AH12" t="s">
         <v>79</v>
       </c>
       <c r="AI12">
-        <v>1768260</v>
+        <v>1872005</v>
       </c>
       <c r="AJ12">
-        <v>846391</v>
+        <v>542137</v>
       </c>
       <c r="AK12">
-        <v>918559</v>
+        <v>1328761</v>
       </c>
       <c r="AL12">
-        <v>9115</v>
+        <v>5530</v>
       </c>
       <c r="AM12">
-        <v>8240</v>
+        <v>19688</v>
       </c>
       <c r="AN12">
-        <v>17355</v>
+        <v>25218</v>
       </c>
       <c r="AO12">
-        <v>6.1400230481129355E-5</v>
+        <v>-1.7973251249107779E-3</v>
       </c>
       <c r="AP12">
-        <v>1.1294086870939949E-3</v>
+        <v>2.665790296850986E-3</v>
       </c>
       <c r="AQ12">
-        <v>-4.0499999999999998E-4</v>
+        <v>-1.7619999999999999E-3</v>
       </c>
       <c r="AR12">
-        <v>-1.6799999999999999E-4</v>
+        <v>-7.6599999999999997E-4</v>
       </c>
       <c r="AS12">
-        <v>1.3100000000000001E-4</v>
+        <v>7.3999999999999996E-5</v>
       </c>
       <c r="AT12">
-        <v>3.6499999999999998E-4</v>
+        <v>9.7300000000000002E-4</v>
       </c>
       <c r="AU12">
-        <v>2.99E-4</v>
+        <v>8.3999999999999993E-4</v>
       </c>
       <c r="AV12">
-        <v>-3.9500000000000001E-4</v>
+        <v>-1.652E-3</v>
       </c>
       <c r="AW12">
-        <v>-1.6699999999999999E-4</v>
+        <v>-7.4899999999999999E-4</v>
       </c>
       <c r="AX12">
-        <v>1.2899999999999999E-4</v>
+        <v>7.4999999999999993E-5</v>
       </c>
       <c r="AY12">
-        <v>3.5300000000000002E-4</v>
+        <v>9.4399999999999996E-4</v>
       </c>
       <c r="AZ12">
-        <v>2.9599999999999998E-4</v>
+        <v>8.2399999999999997E-4</v>
       </c>
       <c r="BA12">
-        <v>-1.6204530091873109E-5</v>
+        <v>-3.5017746147922519E-4</v>
       </c>
       <c r="BB12">
-        <v>2.5321711077242761E-4</v>
+        <v>8.4175799807493601E-4</v>
       </c>
       <c r="BC12">
-        <v>22059671856180</v>
+        <v>852746.89146947523</v>
       </c>
       <c r="BD12">
-        <v>1.0529685505430511</v>
+        <v>5.4709597013257003</v>
       </c>
       <c r="BE12">
-        <v>1.227482360863936E-2</v>
+        <v>4.796548640980257E-3</v>
       </c>
       <c r="BF12">
-        <v>-3.341000035855021E-3</v>
+        <v>-4.8322107143063051E-3</v>
       </c>
       <c r="BG12">
-        <v>-2.6233172121310172E-3</v>
+        <v>-2.0940580946417989E-4</v>
       </c>
       <c r="BH12">
-        <v>1.851205647654703</v>
+        <v>-0.31474965498303997</v>
       </c>
       <c r="BI12">
-        <v>33036533.891676862</v>
+        <v>80722782523.84697</v>
       </c>
       <c r="BJ12">
-        <v>0.1863157457628726</v>
+        <v>-2.079352851544751E-2</v>
       </c>
       <c r="BK12">
-        <v>10.93220370089232</v>
+        <v>2.4881984741804999</v>
       </c>
       <c r="BL12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="BM12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>128</v>
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>119</v>
       </c>
       <c r="D13">
-        <v>1900069</v>
+        <v>1801484</v>
       </c>
       <c r="E13">
         <v>2E-3</v>
@@ -3277,195 +3352,195 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G13">
-        <v>5914</v>
-      </c>
-      <c r="H13">
-        <v>3.112518545379141E-3</v>
-      </c>
-      <c r="I13">
-        <v>0.99688748145462081</v>
+        <v>56184</v>
+      </c>
+      <c r="H13" s="23">
+        <v>3.1187620872569509E-2</v>
+      </c>
+      <c r="I13" s="23">
+        <v>0.96881237912743046</v>
       </c>
       <c r="J13">
-        <v>1894155</v>
+        <v>1745300</v>
       </c>
       <c r="K13">
-        <v>-832.78334999999993</v>
+        <v>-681.85092200000008</v>
       </c>
       <c r="L13">
-        <v>1.961207886892</v>
+        <v>1.28503531201</v>
       </c>
       <c r="M13">
-        <v>1864341</v>
+        <v>1724339</v>
       </c>
       <c r="N13">
-        <v>-848.03458999999998</v>
+        <v>-625.021838</v>
       </c>
       <c r="O13">
-        <v>1.6842043167859999</v>
+        <v>1.091414555574</v>
       </c>
       <c r="P13">
-        <v>-4.7359999999999998E-3</v>
+        <v>-4.463E-3</v>
       </c>
       <c r="Q13">
-        <v>4.2220000000000001E-3</v>
+        <v>4.4010000000000004E-3</v>
       </c>
       <c r="R13">
-        <v>-4.3965955795592231E-4</v>
+        <v>-3.9067834870795849E-4</v>
       </c>
       <c r="S13">
-        <v>-4.35E-4</v>
+        <v>-3.6299999999999999E-4</v>
       </c>
       <c r="T13">
-        <v>1.0175460158415449E-3</v>
+        <v>8.5806954220489962E-4</v>
       </c>
       <c r="U13">
-        <v>9.1765972312889794E-4</v>
+        <v>7.6397236017446916E-4</v>
       </c>
       <c r="V13">
-        <v>7.7122022748930266E-4</v>
+        <v>6.3984389617830742E-4</v>
       </c>
       <c r="W13">
-        <v>6.5382659999999992E-4</v>
+        <v>5.8266180000000011E-4</v>
       </c>
       <c r="X13">
-        <v>-3.192E-3</v>
+        <v>-2.5739999999999999E-3</v>
       </c>
       <c r="Y13">
-        <v>2.313E-3</v>
+        <v>2.5739999999999999E-3</v>
       </c>
       <c r="Z13">
-        <v>-4.5487096512923327E-4</v>
+        <v>-3.6247039474256512E-4</v>
       </c>
       <c r="AA13">
-        <v>-4.3800000000000002E-4</v>
+        <v>-3.5599999999999998E-4</v>
       </c>
       <c r="AB13">
-        <v>9.5046190062665202E-4</v>
+        <v>7.955794290937662E-4</v>
       </c>
       <c r="AC13">
-        <v>8.3454791931034588E-4</v>
+        <v>7.0821030840586608E-4</v>
       </c>
       <c r="AD13">
-        <v>7.3544801407038731E-4</v>
+        <v>6.1094017939627889E-4</v>
       </c>
       <c r="AE13">
-        <v>6.4048319999999992E-4</v>
+        <v>5.7376619999999993E-4</v>
       </c>
       <c r="AF13">
         <v>3</v>
       </c>
       <c r="AG13">
-        <v>2.7529791693866939E-3</v>
+        <v>2.5742086266146991E-3</v>
       </c>
       <c r="AH13" t="s">
         <v>79</v>
       </c>
       <c r="AI13">
-        <v>1864341</v>
+        <v>1724339</v>
       </c>
       <c r="AJ13">
-        <v>443625</v>
+        <v>447636</v>
       </c>
       <c r="AK13">
-        <v>1419949</v>
+        <v>1275749</v>
       </c>
       <c r="AL13">
-        <v>19332</v>
+        <v>1116</v>
       </c>
       <c r="AM13">
-        <v>10482</v>
+        <v>19845</v>
       </c>
       <c r="AN13">
-        <v>29814</v>
+        <v>20961</v>
       </c>
       <c r="AO13">
-        <v>5.1154625343798217E-4</v>
+        <v>-2.711181909260054E-3</v>
       </c>
       <c r="AP13">
-        <v>3.0048922310418461E-3</v>
+        <v>1.373565964409441E-3</v>
       </c>
       <c r="AQ13">
-        <v>-1.967E-3</v>
+        <v>-1.671E-3</v>
       </c>
       <c r="AR13">
-        <v>-8.9499999999999996E-4</v>
+        <v>-7.7700000000000002E-4</v>
       </c>
       <c r="AS13">
-        <v>-1.2E-5</v>
+        <v>1.2999999999999999E-5</v>
       </c>
       <c r="AT13">
-        <v>1.14E-3</v>
+        <v>7.7700000000000002E-4</v>
       </c>
       <c r="AU13">
-        <v>8.83E-4</v>
+        <v>7.9000000000000001E-4</v>
       </c>
       <c r="AV13">
-        <v>-1.9059999999999999E-3</v>
+        <v>-1.557E-3</v>
       </c>
       <c r="AW13">
-        <v>-8.9099999999999997E-4</v>
+        <v>-7.5900000000000002E-4</v>
       </c>
       <c r="AX13">
-        <v>-2.5999999999999998E-5</v>
+        <v>1.7E-5</v>
       </c>
       <c r="AY13">
-        <v>9.990000000000001E-4</v>
+        <v>7.7700000000000002E-4</v>
       </c>
       <c r="AZ13">
-        <v>8.6499999999999999E-4</v>
+        <v>7.76E-4</v>
       </c>
       <c r="BA13">
-        <v>-4.3965955795592231E-4</v>
+        <v>-3.9067834870795849E-4</v>
       </c>
       <c r="BB13">
-        <v>9.1765972312889794E-4</v>
+        <v>7.6397236017446916E-4</v>
       </c>
       <c r="BC13">
-        <v>429800.46413673199</v>
+        <v>588366.89818029758</v>
       </c>
       <c r="BD13">
-        <v>4.8320827383672276</v>
+        <v>5.6096015178231484</v>
       </c>
       <c r="BE13">
-        <v>4.6586754945709217E-3</v>
+        <v>4.3788312008366959E-3</v>
       </c>
       <c r="BF13">
-        <v>-4.7361841836763927E-3</v>
+        <v>-4.4634242425873518E-3</v>
       </c>
       <c r="BG13">
-        <v>-2.9577807004548852E-4</v>
+        <v>-2.352027904264607E-4</v>
       </c>
       <c r="BH13">
-        <v>-0.23013242227295949</v>
+        <v>-0.33097248122725093</v>
       </c>
       <c r="BI13">
-        <v>2069637.8939207201</v>
+        <v>137400382302.27859</v>
       </c>
       <c r="BJ13">
-        <v>0.16397588852116249</v>
+        <v>-0.1858264264351196</v>
       </c>
       <c r="BK13">
-        <v>1.9871120557718951</v>
+        <v>2.320843251581115</v>
       </c>
       <c r="BL13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="BM13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>129</v>
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>123</v>
       </c>
       <c r="D14">
-        <v>1903097</v>
+        <v>1838147</v>
       </c>
       <c r="E14">
         <v>2E-3</v>
@@ -3474,378 +3549,1954 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="G14">
-        <v>8085</v>
-      </c>
-      <c r="H14">
-        <v>4.2483383663575744E-3</v>
-      </c>
-      <c r="I14">
-        <v>0.99575166163364237</v>
+        <v>64626</v>
+      </c>
+      <c r="H14" s="23">
+        <v>3.5158232720234023E-2</v>
+      </c>
+      <c r="I14" s="23">
+        <v>0.964841767279766</v>
       </c>
       <c r="J14">
-        <v>1895012</v>
+        <v>1773521</v>
       </c>
       <c r="K14">
-        <v>38.013365999999998</v>
+        <v>-766.14091799999994</v>
       </c>
       <c r="L14">
-        <v>0.129138287982</v>
+        <v>1.657395567674</v>
       </c>
       <c r="M14">
-        <v>1872517</v>
+        <v>1752460</v>
       </c>
       <c r="N14">
-        <v>28.128403000000009</v>
+        <v>-699.64270800000008</v>
       </c>
       <c r="O14">
-        <v>0.10202208558299999</v>
+        <v>1.4465757218040001</v>
       </c>
       <c r="P14">
-        <v>-2.728E-3</v>
+        <v>-4.725E-3</v>
       </c>
       <c r="Q14">
-        <v>3.6210000000000001E-3</v>
+        <v>2.5149999999999999E-3</v>
       </c>
       <c r="R14">
-        <v>2.0059696719598608E-5</v>
+        <v>-4.3198863616500729E-4</v>
       </c>
       <c r="S14">
-        <v>1.5E-5</v>
+        <v>-2.8600000000000001E-4</v>
       </c>
       <c r="T14">
-        <v>2.6104869714726862E-4</v>
+        <v>9.667071236550051E-4</v>
       </c>
       <c r="U14">
-        <v>2.6027683502341119E-4</v>
+        <v>8.6481702177375656E-4</v>
       </c>
       <c r="V14">
-        <v>1.9214100491184231E-4</v>
+        <v>6.919011559490979E-4</v>
       </c>
       <c r="W14">
-        <v>2.2090740000000001E-4</v>
+        <v>6.7310039999999996E-4</v>
       </c>
       <c r="X14">
-        <v>-7.6000000000000004E-4</v>
+        <v>-2.8999999999999998E-3</v>
       </c>
       <c r="Y14">
-        <v>8.0000000000000004E-4</v>
+        <v>2.5149999999999999E-3</v>
       </c>
       <c r="Z14">
-        <v>1.502170768009049E-5</v>
+        <v>-3.9923462332949121E-4</v>
       </c>
       <c r="AA14">
-        <v>1.4E-5</v>
+        <v>-2.7599999999999999E-4</v>
       </c>
       <c r="AB14">
-        <v>2.3341793039583091E-4</v>
+        <v>9.085451806093354E-4</v>
       </c>
       <c r="AC14">
-        <v>2.3293406476650611E-4</v>
+        <v>8.1612870354093607E-4</v>
       </c>
       <c r="AD14">
-        <v>1.817425406551716E-4</v>
+        <v>6.6227076224279011E-4</v>
       </c>
       <c r="AE14">
-        <v>2.1794220000000001E-4</v>
+        <v>6.6123959999999998E-4</v>
       </c>
       <c r="AF14">
         <v>3</v>
       </c>
       <c r="AG14">
-        <v>7.8083050507023373E-4</v>
+        <v>2.9001213709650151E-3</v>
       </c>
       <c r="AH14" t="s">
         <v>79</v>
       </c>
       <c r="AI14">
-        <v>1872517</v>
+        <v>1752460</v>
       </c>
       <c r="AJ14">
-        <v>983666</v>
+        <v>557382</v>
       </c>
       <c r="AK14">
-        <v>885317</v>
+        <v>1193899</v>
       </c>
       <c r="AL14">
-        <v>15652</v>
+        <v>0</v>
       </c>
       <c r="AM14">
-        <v>6843</v>
+        <v>21061</v>
       </c>
       <c r="AN14">
-        <v>22495</v>
+        <v>21061</v>
       </c>
       <c r="AO14">
-        <v>4.3942933985330069E-4</v>
+        <v>-3.1574099045629362E-3</v>
       </c>
       <c r="AP14">
-        <v>1.006148239681891E-3</v>
+        <v>2.01807861132481E-4</v>
       </c>
       <c r="AQ14">
-        <v>-3.8299999999999999E-4</v>
+        <v>-2.1940000000000002E-3</v>
       </c>
       <c r="AR14">
-        <v>-1.3300000000000001E-4</v>
+        <v>-8.4199999999999998E-4</v>
       </c>
       <c r="AS14">
-        <v>1.65E-4</v>
+        <v>1.07E-4</v>
       </c>
       <c r="AT14">
-        <v>4.2700000000000002E-4</v>
+        <v>7.7700000000000002E-4</v>
       </c>
       <c r="AU14">
-        <v>2.9799999999999998E-4</v>
+        <v>9.4899999999999997E-4</v>
       </c>
       <c r="AV14">
-        <v>-3.7500000000000001E-4</v>
+        <v>-2.0379999999999999E-3</v>
       </c>
       <c r="AW14">
-        <v>-1.3200000000000001E-4</v>
+        <v>-8.1300000000000003E-4</v>
       </c>
       <c r="AX14">
-        <v>1.6100000000000001E-4</v>
+        <v>1.13E-4</v>
       </c>
       <c r="AY14">
-        <v>4.0400000000000001E-4</v>
+        <v>7.8200000000000003E-4</v>
       </c>
       <c r="AZ14">
-        <v>2.9300000000000002E-4</v>
+        <v>9.2600000000000007E-4</v>
       </c>
       <c r="BA14">
-        <v>2.0059696719598608E-5</v>
+        <v>-4.3198863616500729E-4</v>
       </c>
       <c r="BB14">
-        <v>2.6027683502341119E-4</v>
+        <v>8.6481702177375656E-4</v>
       </c>
       <c r="BC14">
-        <v>183021078165119.59</v>
+        <v>354185.28748545289</v>
       </c>
       <c r="BD14">
-        <v>9.0099222905909393</v>
+        <v>9.1865921187831709</v>
       </c>
       <c r="BE14">
-        <v>2.8651360704615701E-3</v>
+        <v>6.9733689197661163E-3</v>
       </c>
       <c r="BF14">
-        <v>-2.7281138731280819E-3</v>
+        <v>-7.0467913136847658E-3</v>
       </c>
       <c r="BG14">
-        <v>9.9854398989178417E-5</v>
+        <v>-1.6035802177944301E-4</v>
       </c>
       <c r="BH14">
-        <v>-0.59116731166909386</v>
+        <v>-0.60009228476121357</v>
       </c>
       <c r="BI14">
-        <v>13436873327099.32</v>
+        <v>327024.74449366139</v>
       </c>
       <c r="BJ14">
-        <v>0.38037273959796508</v>
+        <v>-0.77510690408861671</v>
       </c>
       <c r="BK14">
-        <v>4.4904378217091372</v>
+        <v>0.98557489212421912</v>
       </c>
       <c r="BL14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="BM14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:65" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="15" t="s">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15">
+        <v>1843820</v>
+      </c>
+      <c r="E15">
+        <v>2E-3</v>
+      </c>
+      <c r="F15">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G15">
+        <v>66023</v>
+      </c>
+      <c r="H15" s="23">
+        <v>3.5807725266023799E-2</v>
+      </c>
+      <c r="I15" s="23">
+        <v>0.96419227473397617</v>
+      </c>
+      <c r="J15">
+        <v>1777797</v>
+      </c>
+      <c r="K15">
+        <v>-856.64281400000004</v>
+      </c>
+      <c r="L15">
+        <v>1.5528702222740001</v>
+      </c>
+      <c r="M15">
+        <v>1740357</v>
+      </c>
+      <c r="N15">
+        <v>-737.51108199999999</v>
+      </c>
+      <c r="O15">
+        <v>1.1711832832419999</v>
+      </c>
+      <c r="P15">
+        <v>-4.3579999999999999E-3</v>
+      </c>
+      <c r="Q15">
+        <v>2.0630000000000002E-3</v>
+      </c>
+      <c r="R15">
+        <v>-4.8185637280296912E-4</v>
+      </c>
+      <c r="S15">
+        <v>-2.72E-4</v>
+      </c>
+      <c r="T15">
+        <v>9.3460154907105985E-4</v>
+      </c>
+      <c r="U15">
+        <v>8.0080864850174457E-4</v>
+      </c>
+      <c r="V15">
+        <v>6.3537513338137027E-4</v>
+      </c>
+      <c r="W15">
+        <v>5.8117919999999999E-4</v>
+      </c>
+      <c r="X15">
+        <v>-2.8029999999999999E-3</v>
+      </c>
+      <c r="Y15">
+        <v>2.0630000000000002E-3</v>
+      </c>
+      <c r="Z15">
+        <v>-4.2376999776482638E-4</v>
+      </c>
+      <c r="AA15">
+        <v>-2.5700000000000001E-4</v>
+      </c>
+      <c r="AB15">
+        <v>8.2033881353022657E-4</v>
+      </c>
+      <c r="AC15">
+        <v>7.024064051377797E-4</v>
+      </c>
+      <c r="AD15">
+        <v>5.8059138096379088E-4</v>
+      </c>
+      <c r="AE15">
+        <v>5.5894020000000003E-4</v>
+      </c>
+      <c r="AF15">
+        <v>3</v>
+      </c>
+      <c r="AG15">
+        <v>2.8038046472131802E-3</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI15">
+        <v>1740357</v>
+      </c>
+      <c r="AJ15">
+        <v>493516</v>
+      </c>
+      <c r="AK15">
+        <v>1245487</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>37440</v>
+      </c>
+      <c r="AN15">
+        <v>37440</v>
+      </c>
+      <c r="AO15">
+        <v>-3.1819372863247861E-3</v>
+      </c>
+      <c r="AP15">
+        <v>2.643953247197492E-4</v>
+      </c>
+      <c r="AQ15">
+        <v>-2.1540000000000001E-3</v>
+      </c>
+      <c r="AR15">
+        <v>-8.3699999999999996E-4</v>
+      </c>
+      <c r="AS15">
+        <v>3.6999999999999998E-5</v>
+      </c>
+      <c r="AT15">
+        <v>4.66E-4</v>
+      </c>
+      <c r="AU15">
+        <v>8.7399999999999999E-4</v>
+      </c>
+      <c r="AV15">
+        <v>-1.8569999999999999E-3</v>
+      </c>
+      <c r="AW15">
+        <v>-7.9000000000000001E-4</v>
+      </c>
+      <c r="AX15">
+        <v>4.3999999999999999E-5</v>
+      </c>
+      <c r="AY15">
+        <v>4.7100000000000001E-4</v>
+      </c>
+      <c r="AZ15">
+        <v>8.34E-4</v>
+      </c>
+      <c r="BA15">
+        <v>-4.8185637280296912E-4</v>
+      </c>
+      <c r="BB15">
+        <v>8.0080864850174457E-4</v>
+      </c>
+      <c r="BC15">
+        <v>1033429.517104832</v>
+      </c>
+      <c r="BD15">
+        <v>79.155045860351663</v>
+      </c>
+      <c r="BE15">
+        <v>4.8193727476869647E-2</v>
+      </c>
+      <c r="BF15">
+        <v>-4.8329509819361287E-2</v>
+      </c>
+      <c r="BG15">
+        <v>-1.4352261580717621E-4</v>
+      </c>
+      <c r="BH15">
+        <v>-1.0660577613767199</v>
+      </c>
+      <c r="BI15">
+        <v>4273009781.3492179</v>
+      </c>
+      <c r="BJ15">
+        <v>-1.2769862465576209</v>
+      </c>
+      <c r="BK15">
+        <v>1.9910583482962569</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>128</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>130</v>
       </c>
-      <c r="D15" s="15">
-        <v>2207118</v>
-      </c>
-      <c r="E15" s="15">
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16">
+        <v>1796164</v>
+      </c>
+      <c r="E16">
         <v>2E-3</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F16">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G15" s="15">
-        <v>256109</v>
-      </c>
-      <c r="H15" s="15">
-        <v>0.1160377469623282</v>
-      </c>
-      <c r="I15" s="15">
-        <v>0.88396225303767173</v>
-      </c>
-      <c r="J15" s="15">
-        <v>1951009</v>
-      </c>
-      <c r="K15" s="15">
-        <v>705.81397500000003</v>
-      </c>
-      <c r="L15" s="15">
-        <v>1.601535892829</v>
-      </c>
-      <c r="M15" s="15">
-        <v>1917673</v>
-      </c>
-      <c r="N15" s="15">
-        <v>694.81338200000005</v>
-      </c>
-      <c r="O15" s="15">
-        <v>1.3125063655760001</v>
-      </c>
-      <c r="P15" s="15">
-        <v>-4.9480000000000001E-3</v>
-      </c>
-      <c r="Q15" s="15">
-        <v>5.2440000000000004E-3</v>
-      </c>
-      <c r="R15" s="15">
-        <v>3.6176869250731288E-4</v>
-      </c>
-      <c r="S15" s="15">
-        <v>3.5300000000000002E-4</v>
-      </c>
-      <c r="T15" s="15">
-        <v>9.0602191325747433E-4</v>
-      </c>
-      <c r="U15" s="15">
-        <v>8.3066185684927383E-4</v>
-      </c>
-      <c r="V15" s="15">
-        <v>6.7501460680089126E-4</v>
-      </c>
-      <c r="W15" s="15">
-        <v>6.0638339999999986E-4</v>
-      </c>
-      <c r="X15" s="15">
-        <v>-2.1299999999999999E-3</v>
-      </c>
-      <c r="Y15" s="15">
-        <v>2.8530000000000001E-3</v>
-      </c>
-      <c r="Z15" s="15">
-        <v>3.6232109541094859E-4</v>
-      </c>
-      <c r="AA15" s="15">
-        <v>3.5300000000000002E-4</v>
-      </c>
-      <c r="AB15" s="15">
-        <v>8.2730077732078814E-4</v>
-      </c>
-      <c r="AC15" s="15">
-        <v>7.4374054614212773E-4</v>
-      </c>
-      <c r="AD15" s="15">
-        <v>6.3634093299535426E-4</v>
-      </c>
-      <c r="AE15" s="15">
-        <v>5.9155739999999996E-4</v>
-      </c>
-      <c r="AF15" s="15">
+      <c r="G16">
+        <v>56884</v>
+      </c>
+      <c r="H16" s="23">
+        <v>3.1669713901403211E-2</v>
+      </c>
+      <c r="I16" s="23">
+        <v>0.96833028609859684</v>
+      </c>
+      <c r="J16">
+        <v>1739280</v>
+      </c>
+      <c r="K16">
+        <v>-235.513227</v>
+      </c>
+      <c r="L16">
+        <v>0.99972110376699996</v>
+      </c>
+      <c r="M16">
+        <v>1717687</v>
+      </c>
+      <c r="N16">
+        <v>-190.773133</v>
+      </c>
+      <c r="O16">
+        <v>0.83204478252900005</v>
+      </c>
+      <c r="P16">
+        <v>-4.3569999999999998E-3</v>
+      </c>
+      <c r="Q16">
+        <v>2.9979999999999998E-3</v>
+      </c>
+      <c r="R16">
+        <v>-1.354084603974058E-4</v>
+      </c>
+      <c r="S16">
+        <v>-1.1400000000000001E-4</v>
+      </c>
+      <c r="T16">
+        <v>7.5814919554701896E-4</v>
+      </c>
+      <c r="U16">
+        <v>7.4595894763813671E-4</v>
+      </c>
+      <c r="V16">
+        <v>5.5407385757324861E-4</v>
+      </c>
+      <c r="W16">
+        <v>5.7969659999999998E-4</v>
+      </c>
+      <c r="X16">
+        <v>-2.274E-3</v>
+      </c>
+      <c r="Y16">
+        <v>2.274E-3</v>
+      </c>
+      <c r="Z16">
+        <v>-1.110639674166481E-4</v>
+      </c>
+      <c r="AA16">
+        <v>-1.08E-4</v>
+      </c>
+      <c r="AB16">
+        <v>6.9598733447035432E-4</v>
+      </c>
+      <c r="AC16">
+        <v>6.8706852997704856E-4</v>
+      </c>
+      <c r="AD16">
+        <v>5.2644938396809193E-4</v>
+      </c>
+      <c r="AE16">
+        <v>5.708009999999999E-4</v>
+      </c>
+      <c r="AF16">
         <v>3</v>
       </c>
-      <c r="AG15" s="15">
-        <v>2.491985570547822E-3</v>
-      </c>
-      <c r="AH15" s="15" t="s">
+      <c r="AG16">
+        <v>2.2744475866410571E-3</v>
+      </c>
+      <c r="AH16" t="s">
         <v>79</v>
       </c>
-      <c r="AI15" s="15">
-        <v>1917673</v>
-      </c>
-      <c r="AJ15" s="15">
-        <v>1405448</v>
-      </c>
-      <c r="AK15" s="15">
-        <v>511194</v>
-      </c>
-      <c r="AL15" s="15">
-        <v>16601</v>
-      </c>
-      <c r="AM15" s="15">
-        <v>16735</v>
-      </c>
-      <c r="AN15" s="15">
-        <v>33336</v>
-      </c>
-      <c r="AO15" s="15">
-        <v>3.2999139068874478E-4</v>
-      </c>
-      <c r="AP15" s="15">
-        <v>2.9259695631166662E-3</v>
-      </c>
-      <c r="AQ15" s="15">
-        <v>-9.9200000000000004E-4</v>
-      </c>
-      <c r="AR15" s="15">
-        <v>-4.1E-5</v>
-      </c>
-      <c r="AS15" s="15">
-        <v>7.7800000000000005E-4</v>
-      </c>
-      <c r="AT15" s="15">
-        <v>1.702E-3</v>
-      </c>
-      <c r="AU15" s="15">
-        <v>8.1900000000000007E-4</v>
-      </c>
-      <c r="AV15" s="15">
-        <v>-8.9700000000000001E-4</v>
-      </c>
-      <c r="AW15" s="15">
-        <v>-3.1999999999999999E-5</v>
-      </c>
-      <c r="AX15" s="15">
-        <v>7.6800000000000002E-4</v>
-      </c>
-      <c r="AY15" s="15">
-        <v>1.6130000000000001E-3</v>
-      </c>
-      <c r="AZ15" s="15">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="BA15" s="15">
-        <v>3.6176869250731288E-4</v>
-      </c>
-      <c r="BB15" s="15">
-        <v>8.3066185684927383E-4</v>
-      </c>
-      <c r="BC15" s="15">
-        <v>5272408.3306880752</v>
-      </c>
-      <c r="BD15" s="15">
-        <v>6.5165711474849974</v>
-      </c>
-      <c r="BE15" s="15">
-        <v>5.6582118115293383E-3</v>
-      </c>
-      <c r="BF15" s="15">
-        <v>-4.9483609668643912E-3</v>
-      </c>
-      <c r="BG15" s="15">
-        <v>5.6703565890667794E-4</v>
-      </c>
-      <c r="BH15" s="15">
-        <v>-0.42261579673907212</v>
-      </c>
-      <c r="BI15" s="15">
-        <v>5216161191.0168467</v>
-      </c>
-      <c r="BJ15" s="15">
-        <v>-5.6562609466715021E-2</v>
-      </c>
-      <c r="BK15" s="15">
-        <v>2.468868004107875</v>
-      </c>
-      <c r="BL15" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="BM15" s="15" t="s">
-        <v>127</v>
+      <c r="AI16">
+        <v>1717687</v>
+      </c>
+      <c r="AJ16">
+        <v>730099</v>
+      </c>
+      <c r="AK16">
+        <v>986450</v>
+      </c>
+      <c r="AL16">
+        <v>2917</v>
+      </c>
+      <c r="AM16">
+        <v>18676</v>
+      </c>
+      <c r="AN16">
+        <v>21593</v>
+      </c>
+      <c r="AO16">
+        <v>-2.0719721205946372E-3</v>
+      </c>
+      <c r="AP16">
+        <v>1.863394943851166E-3</v>
+      </c>
+      <c r="AQ16">
+        <v>-1.4040000000000001E-3</v>
+      </c>
+      <c r="AR16">
+        <v>-5.0699999999999996E-4</v>
+      </c>
+      <c r="AS16">
+        <v>2.7599999999999999E-4</v>
+      </c>
+      <c r="AT16">
+        <v>1.042E-3</v>
+      </c>
+      <c r="AU16">
+        <v>7.8299999999999995E-4</v>
+      </c>
+      <c r="AV16">
+        <v>-1.3060000000000001E-3</v>
+      </c>
+      <c r="AW16">
+        <v>-4.8999999999999998E-4</v>
+      </c>
+      <c r="AX16">
+        <v>2.7900000000000001E-4</v>
+      </c>
+      <c r="AY16">
+        <v>1.0330000000000001E-3</v>
+      </c>
+      <c r="AZ16">
+        <v>7.6899999999999994E-4</v>
+      </c>
+      <c r="BA16">
+        <v>-1.354084603974058E-4</v>
+      </c>
+      <c r="BB16">
+        <v>7.4595894763813671E-4</v>
+      </c>
+      <c r="BC16">
+        <v>1376798.6621144591</v>
+      </c>
+      <c r="BD16">
+        <v>6.197484018320476</v>
+      </c>
+      <c r="BE16">
+        <v>4.5350926141931296E-3</v>
+      </c>
+      <c r="BF16">
+        <v>-4.3693190382972421E-3</v>
+      </c>
+      <c r="BG16">
+        <v>3.8816979239944878E-5</v>
+      </c>
+      <c r="BH16">
+        <v>-0.39294376137374531</v>
+      </c>
+      <c r="BI16">
+        <v>13575449.98088789</v>
+      </c>
+      <c r="BJ16">
+        <v>-0.39656584048830129</v>
+      </c>
+      <c r="BK16">
+        <v>1.99486544504208</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>132</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17">
+        <v>2143284</v>
+      </c>
+      <c r="E17">
+        <v>2E-3</v>
+      </c>
+      <c r="F17">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G17">
+        <v>214008</v>
+      </c>
+      <c r="H17" s="23">
+        <v>9.9850509778452126E-2</v>
+      </c>
+      <c r="I17" s="23">
+        <v>0.90014949022154789</v>
+      </c>
+      <c r="J17">
+        <v>1929276</v>
+      </c>
+      <c r="K17">
+        <v>944.00180600000022</v>
+      </c>
+      <c r="L17">
+        <v>2.4240541204400001</v>
+      </c>
+      <c r="M17">
+        <v>1917090</v>
+      </c>
+      <c r="N17">
+        <v>912.69918699999994</v>
+      </c>
+      <c r="O17">
+        <v>2.261979214093</v>
+      </c>
+      <c r="P17">
+        <v>-5.8079999999999998E-3</v>
+      </c>
+      <c r="Q17">
+        <v>4.9360000000000003E-3</v>
+      </c>
+      <c r="R17">
+        <v>4.8930365898917536E-4</v>
+      </c>
+      <c r="S17">
+        <v>4.8200000000000001E-4</v>
+      </c>
+      <c r="T17">
+        <v>1.120918340191286E-3</v>
+      </c>
+      <c r="U17">
+        <v>1.0084839387303069E-3</v>
+      </c>
+      <c r="V17">
+        <v>8.7163860536284068E-4</v>
+      </c>
+      <c r="W17">
+        <v>8.7769919999999987E-4</v>
+      </c>
+      <c r="X17">
+        <v>-3.362E-3</v>
+      </c>
+      <c r="Y17">
+        <v>3.362E-3</v>
+      </c>
+      <c r="Z17">
+        <v>4.7608572732631219E-4</v>
+      </c>
+      <c r="AA17">
+        <v>4.7699999999999999E-4</v>
+      </c>
+      <c r="AB17">
+        <v>1.0862331534612091E-3</v>
+      </c>
+      <c r="AC17">
+        <v>9.7634258532262104E-4</v>
+      </c>
+      <c r="AD17">
+        <v>8.5403925793781196E-4</v>
+      </c>
+      <c r="AE17">
+        <v>8.7028619999999991E-4</v>
+      </c>
+      <c r="AF17">
+        <v>3</v>
+      </c>
+      <c r="AG17">
+        <v>3.3627550205738588E-3</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI17">
+        <v>1917090</v>
+      </c>
+      <c r="AJ17">
+        <v>1367184</v>
+      </c>
+      <c r="AK17">
+        <v>549002</v>
+      </c>
+      <c r="AL17">
+        <v>10429</v>
+      </c>
+      <c r="AM17">
+        <v>1757</v>
+      </c>
+      <c r="AN17">
+        <v>12186</v>
+      </c>
+      <c r="AO17">
+        <v>2.568736172657148E-3</v>
+      </c>
+      <c r="AP17">
+        <v>2.588761337714701E-3</v>
+      </c>
+      <c r="AQ17">
+        <v>-1.1689999999999999E-3</v>
+      </c>
+      <c r="AR17">
+        <v>-9.7999999999999997E-5</v>
+      </c>
+      <c r="AS17">
+        <v>1.0859999999999999E-3</v>
+      </c>
+      <c r="AT17">
+        <v>2.1580000000000002E-3</v>
+      </c>
+      <c r="AU17">
+        <v>1.1839999999999999E-3</v>
+      </c>
+      <c r="AV17">
+        <v>-1.1620000000000001E-3</v>
+      </c>
+      <c r="AW17">
+        <v>-1E-4</v>
+      </c>
+      <c r="AX17">
+        <v>1.0740000000000001E-3</v>
+      </c>
+      <c r="AY17">
+        <v>2.0950000000000001E-3</v>
+      </c>
+      <c r="AZ17">
+        <v>1.1739999999999999E-3</v>
+      </c>
+      <c r="BA17">
+        <v>4.8930365898917536E-4</v>
+      </c>
+      <c r="BB17">
+        <v>1.0084839387303069E-3</v>
+      </c>
+      <c r="BC17">
+        <v>122338.84988430679</v>
+      </c>
+      <c r="BD17">
+        <v>6.6321352286443016</v>
+      </c>
+      <c r="BE17">
+        <v>6.722693953013577E-3</v>
+      </c>
+      <c r="BF17">
+        <v>-5.8084091623560891E-3</v>
+      </c>
+      <c r="BG17">
+        <v>7.5063960595522089E-4</v>
+      </c>
+      <c r="BH17">
+        <v>-0.43276749807234183</v>
+      </c>
+      <c r="BI17">
+        <v>203600348.2673969</v>
+      </c>
+      <c r="BJ17">
+        <v>-4.4360613313104917E-2</v>
+      </c>
+      <c r="BK17">
+        <v>0.9798550044227512</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>136</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18">
+        <v>2205767</v>
+      </c>
+      <c r="E18">
+        <v>2E-3</v>
+      </c>
+      <c r="F18">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G18">
+        <v>292676</v>
+      </c>
+      <c r="H18" s="23">
+        <v>0.13268672529782161</v>
+      </c>
+      <c r="I18" s="23">
+        <v>0.86731327470217845</v>
+      </c>
+      <c r="J18">
+        <v>1913091</v>
+      </c>
+      <c r="K18">
+        <v>897.89783499999999</v>
+      </c>
+      <c r="L18">
+        <v>1.6802026303549999</v>
+      </c>
+      <c r="M18">
+        <v>1889709</v>
+      </c>
+      <c r="N18">
+        <v>841.08603800000003</v>
+      </c>
+      <c r="O18">
+        <v>1.432556247028</v>
+      </c>
+      <c r="P18">
+        <v>-5.2490000000000002E-3</v>
+      </c>
+      <c r="Q18">
+        <v>5.2610000000000001E-3</v>
+      </c>
+      <c r="R18">
+        <v>4.6934402754495212E-4</v>
+      </c>
+      <c r="S18">
+        <v>4.0900000000000002E-4</v>
+      </c>
+      <c r="T18">
+        <v>9.3715842933345128E-4</v>
+      </c>
+      <c r="U18">
+        <v>8.1116096151049113E-4</v>
+      </c>
+      <c r="V18">
+        <v>6.9759313122062675E-4</v>
+      </c>
+      <c r="W18">
+        <v>5.9007479999999995E-4</v>
+      </c>
+      <c r="X18">
+        <v>-2.8110000000000001E-3</v>
+      </c>
+      <c r="Y18">
+        <v>2.8110000000000001E-3</v>
+      </c>
+      <c r="Z18">
+        <v>4.4508759708505391E-4</v>
+      </c>
+      <c r="AA18">
+        <v>4.0299999999999998E-4</v>
+      </c>
+      <c r="AB18">
+        <v>8.7067961328088979E-4</v>
+      </c>
+      <c r="AC18">
+        <v>7.4831812747254271E-4</v>
+      </c>
+      <c r="AD18">
+        <v>6.6615124339250106E-4</v>
+      </c>
+      <c r="AE18">
+        <v>5.7969659999999987E-4</v>
+      </c>
+      <c r="AF18">
+        <v>3</v>
+      </c>
+      <c r="AG18">
+        <v>2.8114752880003539E-3</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI18">
+        <v>1889709</v>
+      </c>
+      <c r="AJ18">
+        <v>1461627</v>
+      </c>
+      <c r="AK18">
+        <v>427119</v>
+      </c>
+      <c r="AL18">
+        <v>20352</v>
+      </c>
+      <c r="AM18">
+        <v>3030</v>
+      </c>
+      <c r="AN18">
+        <v>23382</v>
+      </c>
+      <c r="AO18">
+        <v>2.4297235907963389E-3</v>
+      </c>
+      <c r="AP18">
+        <v>2.165125682447182E-3</v>
+      </c>
+      <c r="AQ18">
+        <v>-7.3700000000000002E-4</v>
+      </c>
+      <c r="AR18">
+        <v>4.8000000000000001E-5</v>
+      </c>
+      <c r="AS18">
+        <v>8.5499999999999997E-4</v>
+      </c>
+      <c r="AT18">
+        <v>1.8699999999999999E-3</v>
+      </c>
+      <c r="AU18">
+        <v>8.0699999999999999E-4</v>
+      </c>
+      <c r="AV18">
+        <v>-7.27E-4</v>
+      </c>
+      <c r="AW18">
+        <v>4.5000000000000003E-5</v>
+      </c>
+      <c r="AX18">
+        <v>8.3500000000000002E-4</v>
+      </c>
+      <c r="AY18">
+        <v>1.7669999999999999E-3</v>
+      </c>
+      <c r="AZ18">
+        <v>7.9000000000000001E-4</v>
+      </c>
+      <c r="BA18">
+        <v>4.6934402754495212E-4</v>
+      </c>
+      <c r="BB18">
+        <v>8.1116096151049113E-4</v>
+      </c>
+      <c r="BC18">
+        <v>3473468.5538496841</v>
+      </c>
+      <c r="BD18">
+        <v>6.9440331714981518</v>
+      </c>
+      <c r="BE18">
+        <v>6.0696408408940309E-3</v>
+      </c>
+      <c r="BF18">
+        <v>-5.2492556690973691E-3</v>
+      </c>
+      <c r="BG18">
+        <v>6.8598066025898734E-4</v>
+      </c>
+      <c r="BH18">
+        <v>-0.45873699407407342</v>
+      </c>
+      <c r="BI18">
+        <v>5430863880.550602</v>
+      </c>
+      <c r="BJ18">
+        <v>0.20763742848146971</v>
+      </c>
+      <c r="BK18">
+        <v>2.4033292130696382</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>140</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19">
+        <v>2205244</v>
+      </c>
+      <c r="E19">
+        <v>2E-3</v>
+      </c>
+      <c r="F19">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G19">
+        <v>268241</v>
+      </c>
+      <c r="H19" s="23">
+        <v>0.1216377870203932</v>
+      </c>
+      <c r="I19" s="23">
+        <v>0.87836221297960682</v>
+      </c>
+      <c r="J19">
+        <v>1937003</v>
+      </c>
+      <c r="K19">
+        <v>839.69529999999997</v>
+      </c>
+      <c r="L19">
+        <v>2.0364550344040002</v>
+      </c>
+      <c r="M19">
+        <v>1918919</v>
+      </c>
+      <c r="N19">
+        <v>815.01645800000006</v>
+      </c>
+      <c r="O19">
+        <v>1.8287884204980001</v>
+      </c>
+      <c r="P19">
+        <v>-5.0280000000000004E-3</v>
+      </c>
+      <c r="Q19">
+        <v>5.3940000000000004E-3</v>
+      </c>
+      <c r="R19">
+        <v>4.335023229184467E-4</v>
+      </c>
+      <c r="S19">
+        <v>4.5399999999999998E-4</v>
+      </c>
+      <c r="T19">
+        <v>1.025350307283054E-3</v>
+      </c>
+      <c r="U19">
+        <v>9.2920341619570233E-4</v>
+      </c>
+      <c r="V19">
+        <v>7.8264783689028887E-4</v>
+      </c>
+      <c r="W19">
+        <v>6.7903080000000012E-4</v>
+      </c>
+      <c r="X19">
+        <v>-3.0760000000000002E-3</v>
+      </c>
+      <c r="Y19">
+        <v>3.0760000000000002E-3</v>
+      </c>
+      <c r="Z19">
+        <v>4.2472686861717461E-4</v>
+      </c>
+      <c r="AA19">
+        <v>4.5100000000000001E-4</v>
+      </c>
+      <c r="AB19">
+        <v>9.7623283342707101E-4</v>
+      </c>
+      <c r="AC19">
+        <v>8.7899808426167617E-4</v>
+      </c>
+      <c r="AD19">
+        <v>7.5818042658392564E-4</v>
+      </c>
+      <c r="AE19">
+        <v>6.7161779999999984E-4</v>
+      </c>
+      <c r="AF19">
+        <v>3</v>
+      </c>
+      <c r="AG19">
+        <v>3.076050921849162E-3</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI19">
+        <v>1918919</v>
+      </c>
+      <c r="AJ19">
+        <v>1435232</v>
+      </c>
+      <c r="AK19">
+        <v>482926</v>
+      </c>
+      <c r="AL19">
+        <v>12587</v>
+      </c>
+      <c r="AM19">
+        <v>5497</v>
+      </c>
+      <c r="AN19">
+        <v>18084</v>
+      </c>
+      <c r="AO19">
+        <v>1.3646782791417831E-3</v>
+      </c>
+      <c r="AP19">
+        <v>3.101789466056667E-3</v>
+      </c>
+      <c r="AQ19">
+        <v>-1.158E-3</v>
+      </c>
+      <c r="AR19">
+        <v>-6.0000000000000002E-6</v>
+      </c>
+      <c r="AS19">
+        <v>9.1100000000000003E-4</v>
+      </c>
+      <c r="AT19">
+        <v>1.9480000000000001E-3</v>
+      </c>
+      <c r="AU19">
+        <v>9.1700000000000006E-4</v>
+      </c>
+      <c r="AV19">
+        <v>-1.1130000000000001E-3</v>
+      </c>
+      <c r="AW19">
+        <v>-5.0000000000000004E-6</v>
+      </c>
+      <c r="AX19">
+        <v>9.01E-4</v>
+      </c>
+      <c r="AY19">
+        <v>1.872E-3</v>
+      </c>
+      <c r="AZ19">
+        <v>9.0600000000000001E-4</v>
+      </c>
+      <c r="BA19">
+        <v>4.335023229184467E-4</v>
+      </c>
+      <c r="BB19">
+        <v>9.2920341619570233E-4</v>
+      </c>
+      <c r="BC19">
+        <v>573257.13483907213</v>
+      </c>
+      <c r="BD19">
+        <v>6.3035457890992781</v>
+      </c>
+      <c r="BE19">
+        <v>5.841081280238556E-3</v>
+      </c>
+      <c r="BF19">
+        <v>-5.0285198370400826E-3</v>
+      </c>
+      <c r="BG19">
+        <v>6.5467094325984999E-4</v>
+      </c>
+      <c r="BH19">
+        <v>-0.40308611619168411</v>
+      </c>
+      <c r="BI19">
+        <v>44282999632.803223</v>
+      </c>
+      <c r="BJ19">
+        <v>-0.32352620722001579</v>
+      </c>
+      <c r="BK19">
+        <v>2.141493775871214</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>144</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20">
+        <v>2077959</v>
+      </c>
+      <c r="E20">
+        <v>2E-3</v>
+      </c>
+      <c r="F20">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G20">
+        <v>205403</v>
+      </c>
+      <c r="H20" s="23">
+        <v>9.8848437336829076E-2</v>
+      </c>
+      <c r="I20" s="23">
+        <v>0.90115156266317098</v>
+      </c>
+      <c r="J20">
+        <v>1872556</v>
+      </c>
+      <c r="K20">
+        <v>729.82170599999995</v>
+      </c>
+      <c r="L20">
+        <v>1.534075802696</v>
+      </c>
+      <c r="M20">
+        <v>1846119</v>
+      </c>
+      <c r="N20">
+        <v>686.56990100000007</v>
+      </c>
+      <c r="O20">
+        <v>1.268806876015</v>
+      </c>
+      <c r="P20">
+        <v>-5.7330000000000002E-3</v>
+      </c>
+      <c r="Q20">
+        <v>5.7840000000000001E-3</v>
+      </c>
+      <c r="R20">
+        <v>3.8974626446418688E-4</v>
+      </c>
+      <c r="S20">
+        <v>3.1199999999999999E-4</v>
+      </c>
+      <c r="T20">
+        <v>9.0511966920165624E-4</v>
+      </c>
+      <c r="U20">
+        <v>8.1690848013221641E-4</v>
+      </c>
+      <c r="V20">
+        <v>6.4999542336784588E-4</v>
+      </c>
+      <c r="W20">
+        <v>5.6487060000000007E-4</v>
+      </c>
+      <c r="X20">
+        <v>-2.715E-3</v>
+      </c>
+      <c r="Y20">
+        <v>2.715E-3</v>
+      </c>
+      <c r="Z20">
+        <v>3.7189904930288889E-4</v>
+      </c>
+      <c r="AA20">
+        <v>3.0699999999999998E-4</v>
+      </c>
+      <c r="AB20">
+        <v>8.290255506607022E-4</v>
+      </c>
+      <c r="AC20">
+        <v>7.4092810769729061E-4</v>
+      </c>
+      <c r="AD20">
+        <v>6.1425448684510585E-4</v>
+      </c>
+      <c r="AE20">
+        <v>5.5300980000000009E-4</v>
+      </c>
+      <c r="AF20">
+        <v>3</v>
+      </c>
+      <c r="AG20">
+        <v>2.7153590076049688E-3</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI20">
+        <v>1846119</v>
+      </c>
+      <c r="AJ20">
+        <v>1360229</v>
+      </c>
+      <c r="AK20">
+        <v>484758</v>
+      </c>
+      <c r="AL20">
+        <v>20277</v>
+      </c>
+      <c r="AM20">
+        <v>6160</v>
+      </c>
+      <c r="AN20">
+        <v>26437</v>
+      </c>
+      <c r="AO20">
+        <v>1.636033021901124E-3</v>
+      </c>
+      <c r="AP20">
+        <v>2.7124524971252669E-3</v>
+      </c>
+      <c r="AQ20">
+        <v>-8.0900000000000004E-4</v>
+      </c>
+      <c r="AR20">
+        <v>-2.0000000000000002E-5</v>
+      </c>
+      <c r="AS20">
+        <v>7.6199999999999998E-4</v>
+      </c>
+      <c r="AT20">
+        <v>1.8270000000000001E-3</v>
+      </c>
+      <c r="AU20">
+        <v>7.8200000000000003E-4</v>
+      </c>
+      <c r="AV20">
+        <v>-7.7800000000000005E-4</v>
+      </c>
+      <c r="AW20">
+        <v>-2.0999999999999999E-5</v>
+      </c>
+      <c r="AX20">
+        <v>7.45E-4</v>
+      </c>
+      <c r="AY20">
+        <v>1.725E-3</v>
+      </c>
+      <c r="AZ20">
+        <v>7.6599999999999997E-4</v>
+      </c>
+      <c r="BA20">
+        <v>3.8974626446418688E-4</v>
+      </c>
+      <c r="BB20">
+        <v>8.1690848013221641E-4</v>
+      </c>
+      <c r="BC20">
+        <v>59831352.050358593</v>
+      </c>
+      <c r="BD20">
+        <v>7.6847713328257914</v>
+      </c>
+      <c r="BE20">
+        <v>5.9706739234952778E-3</v>
+      </c>
+      <c r="BF20">
+        <v>-5.1070020373989323E-3</v>
+      </c>
+      <c r="BG20">
+        <v>7.5633506344946651E-4</v>
+      </c>
+      <c r="BH20">
+        <v>-0.51317917181958428</v>
+      </c>
+      <c r="BI20">
+        <v>3303198469830.979</v>
+      </c>
+      <c r="BJ20">
+        <v>0.1321943559517143</v>
+      </c>
+      <c r="BK20">
+        <v>2.8173133865784599</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>148</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21">
+        <v>2117896</v>
+      </c>
+      <c r="E21">
+        <v>2E-3</v>
+      </c>
+      <c r="F21">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G21">
+        <v>231482</v>
+      </c>
+      <c r="H21" s="23">
+        <v>0.1092980958460661</v>
+      </c>
+      <c r="I21" s="23">
+        <v>0.89070190415393391</v>
+      </c>
+      <c r="J21">
+        <v>1886414</v>
+      </c>
+      <c r="K21">
+        <v>559.57156299999997</v>
+      </c>
+      <c r="L21">
+        <v>1.929538657243</v>
+      </c>
+      <c r="M21">
+        <v>1862944</v>
+      </c>
+      <c r="N21">
+        <v>618.96016399999996</v>
+      </c>
+      <c r="O21">
+        <v>1.6449910073159999</v>
+      </c>
+      <c r="P21">
+        <v>-5.2890000000000003E-3</v>
+      </c>
+      <c r="Q21">
+        <v>4.3990000000000001E-3</v>
+      </c>
+      <c r="R21">
+        <v>2.9663242692219211E-4</v>
+      </c>
+      <c r="S21">
+        <v>3.5100000000000002E-4</v>
+      </c>
+      <c r="T21">
+        <v>1.0113657368769791E-3</v>
+      </c>
+      <c r="U21">
+        <v>9.6688668261951216E-4</v>
+      </c>
+      <c r="V21">
+        <v>7.434762618385996E-4</v>
+      </c>
+      <c r="W21">
+        <v>6.4196579999999993E-4</v>
+      </c>
+      <c r="X21">
+        <v>-3.0339999999999998E-3</v>
+      </c>
+      <c r="Y21">
+        <v>3.0339999999999998E-3</v>
+      </c>
+      <c r="Z21">
+        <v>3.3224840038133192E-4</v>
+      </c>
+      <c r="AA21">
+        <v>3.57E-4</v>
+      </c>
+      <c r="AB21">
+        <v>9.3968406873766355E-4</v>
+      </c>
+      <c r="AC21">
+        <v>8.7898643304855177E-4</v>
+      </c>
+      <c r="AD21">
+        <v>7.0915554949585176E-4</v>
+      </c>
+      <c r="AE21">
+        <v>6.3010500000000005E-4</v>
+      </c>
+      <c r="AF21">
+        <v>3</v>
+      </c>
+      <c r="AG21">
+        <v>3.034097210630938E-3</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI21">
+        <v>1862944</v>
+      </c>
+      <c r="AJ21">
+        <v>1330942</v>
+      </c>
+      <c r="AK21">
+        <v>531125</v>
+      </c>
+      <c r="AL21">
+        <v>3328</v>
+      </c>
+      <c r="AM21">
+        <v>20142</v>
+      </c>
+      <c r="AN21">
+        <v>23470</v>
+      </c>
+      <c r="AO21">
+        <v>-2.5304048146570089E-3</v>
+      </c>
+      <c r="AP21">
+        <v>2.3918485346910998E-3</v>
+      </c>
+      <c r="AQ21">
+        <v>-1.353E-3</v>
+      </c>
+      <c r="AR21">
+        <v>-9.7999999999999997E-5</v>
+      </c>
+      <c r="AS21">
+        <v>7.6599999999999997E-4</v>
+      </c>
+      <c r="AT21">
+        <v>1.861E-3</v>
+      </c>
+      <c r="AU21">
+        <v>8.6399999999999997E-4</v>
+      </c>
+      <c r="AV21">
+        <v>-1.1509999999999999E-3</v>
+      </c>
+      <c r="AW21">
+        <v>-8.0000000000000007E-5</v>
+      </c>
+      <c r="AX21">
+        <v>7.6999999999999996E-4</v>
+      </c>
+      <c r="AY21">
+        <v>1.8439999999999999E-3</v>
+      </c>
+      <c r="AZ21">
+        <v>8.4999999999999995E-4</v>
+      </c>
+      <c r="BA21">
+        <v>2.9663242692219211E-4</v>
+      </c>
+      <c r="BB21">
+        <v>9.6688668261951216E-4</v>
+      </c>
+      <c r="BC21">
+        <v>1915971.1184067051</v>
+      </c>
+      <c r="BD21">
+        <v>7.2816175166079073</v>
+      </c>
+      <c r="BE21">
+        <v>6.6346389333336257E-3</v>
+      </c>
+      <c r="BF21">
+        <v>-5.9473542815966403E-3</v>
+      </c>
+      <c r="BG21">
+        <v>5.540408514378755E-4</v>
+      </c>
+      <c r="BH21">
+        <v>-0.48471241297120232</v>
+      </c>
+      <c r="BI21">
+        <v>1443845.43832834</v>
+      </c>
+      <c r="BJ21">
+        <v>-0.78403765823283311</v>
+      </c>
+      <c r="BK21">
+        <v>2.9706067384547929</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>152</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22">
+        <v>2121774</v>
+      </c>
+      <c r="E22">
+        <v>2E-3</v>
+      </c>
+      <c r="F22">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G22">
+        <v>237602</v>
+      </c>
+      <c r="H22" s="23">
+        <v>0.111982708808761</v>
+      </c>
+      <c r="I22" s="23">
+        <v>0.88801729119123907</v>
+      </c>
+      <c r="J22">
+        <v>1884172</v>
+      </c>
+      <c r="K22">
+        <v>548.33362099999999</v>
+      </c>
+      <c r="L22">
+        <v>1.5166189459670001</v>
+      </c>
+      <c r="M22">
+        <v>1858004</v>
+      </c>
+      <c r="N22">
+        <v>567.97001599999999</v>
+      </c>
+      <c r="O22">
+        <v>1.259698812188</v>
+      </c>
+      <c r="P22">
+        <v>-5.7070000000000003E-3</v>
+      </c>
+      <c r="Q22">
+        <v>4.1989999999999996E-3</v>
+      </c>
+      <c r="R22">
+        <v>2.9102100073666309E-4</v>
+      </c>
+      <c r="S22">
+        <v>2.6800000000000001E-4</v>
+      </c>
+      <c r="T22">
+        <v>8.9717665747915604E-4</v>
+      </c>
+      <c r="U22">
+        <v>8.4866526490466317E-4</v>
+      </c>
+      <c r="V22">
+        <v>6.6072742668928314E-4</v>
+      </c>
+      <c r="W22">
+        <v>6.4344840000000005E-4</v>
+      </c>
+      <c r="X22">
+        <v>-2.6909999999999998E-3</v>
+      </c>
+      <c r="Y22">
+        <v>2.6909999999999998E-3</v>
+      </c>
+      <c r="Z22">
+        <v>3.0568826331913172E-4</v>
+      </c>
+      <c r="AA22">
+        <v>2.7E-4</v>
+      </c>
+      <c r="AB22">
+        <v>8.2339843574488129E-4</v>
+      </c>
+      <c r="AC22">
+        <v>7.6455194045666418E-4</v>
+      </c>
+      <c r="AD22">
+        <v>6.2613765632366775E-4</v>
+      </c>
+      <c r="AE22">
+        <v>6.3158759999999996E-4</v>
+      </c>
+      <c r="AF22">
+        <v>3</v>
+      </c>
+      <c r="AG22">
+        <v>2.691529972437468E-3</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI22">
+        <v>1858004</v>
+      </c>
+      <c r="AJ22">
+        <v>1270358</v>
+      </c>
+      <c r="AK22">
+        <v>586527</v>
+      </c>
+      <c r="AL22">
+        <v>10146</v>
+      </c>
+      <c r="AM22">
+        <v>16022</v>
+      </c>
+      <c r="AN22">
+        <v>26168</v>
+      </c>
+      <c r="AO22">
+        <v>-7.5039724090492207E-4</v>
+      </c>
+      <c r="AP22">
+        <v>3.042204387282157E-3</v>
+      </c>
+      <c r="AQ22">
+        <v>-1.0009999999999999E-3</v>
+      </c>
+      <c r="AR22">
+        <v>-1.34E-4</v>
+      </c>
+      <c r="AS22">
+        <v>7.3999999999999999E-4</v>
+      </c>
+      <c r="AT22">
+        <v>1.6659999999999999E-3</v>
+      </c>
+      <c r="AU22">
+        <v>8.7399999999999999E-4</v>
+      </c>
+      <c r="AV22">
+        <v>-9.2599999999999996E-4</v>
+      </c>
+      <c r="AW22">
+        <v>-1.2300000000000001E-4</v>
+      </c>
+      <c r="AX22">
+        <v>7.3499999999999998E-4</v>
+      </c>
+      <c r="AY22">
+        <v>1.6280000000000001E-3</v>
+      </c>
+      <c r="AZ22">
+        <v>8.5800000000000004E-4</v>
+      </c>
+      <c r="BA22">
+        <v>2.9102100073666309E-4</v>
+      </c>
+      <c r="BB22">
+        <v>8.4866526490466317E-4</v>
+      </c>
+      <c r="BC22">
+        <v>5853190.0915652271</v>
+      </c>
+      <c r="BD22">
+        <v>6.653171336696321</v>
+      </c>
+      <c r="BE22">
+        <v>5.6026821041889321E-3</v>
+      </c>
+      <c r="BF22">
+        <v>-4.9632501579621414E-3</v>
+      </c>
+      <c r="BG22">
+        <v>5.0393742427682232E-4</v>
+      </c>
+      <c r="BH22">
+        <v>-0.43458343330950522</v>
+      </c>
+      <c r="BI22">
+        <v>2665075751.573401</v>
+      </c>
+      <c r="BJ22">
+        <v>-0.40241829711224458</v>
+      </c>
+      <c r="BK22">
+        <v>2.628172273098841</v>
+      </c>
+      <c r="BL22" t="s">
+        <v>156</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23">
+        <v>2070938</v>
+      </c>
+      <c r="E23">
+        <v>2E-3</v>
+      </c>
+      <c r="F23">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G23">
+        <v>215645</v>
+      </c>
+      <c r="H23" s="23">
+        <v>0.10412914341230881</v>
+      </c>
+      <c r="I23" s="23">
+        <v>0.89587085658769117</v>
+      </c>
+      <c r="J23">
+        <v>1855293</v>
+      </c>
+      <c r="K23">
+        <v>362.29286500000001</v>
+      </c>
+      <c r="L23">
+        <v>1.6920599784849999</v>
+      </c>
+      <c r="M23">
+        <v>1834386</v>
+      </c>
+      <c r="N23">
+        <v>399.13909999999998</v>
+      </c>
+      <c r="O23">
+        <v>1.4417714974739999</v>
+      </c>
+      <c r="P23">
+        <v>-5.4840000000000002E-3</v>
+      </c>
+      <c r="Q23">
+        <v>4.1619999999999999E-3</v>
+      </c>
+      <c r="R23">
+        <v>1.9527528266424771E-4</v>
+      </c>
+      <c r="S23">
+        <v>2.63E-4</v>
+      </c>
+      <c r="T23">
+        <v>9.5499615649892922E-4</v>
+      </c>
+      <c r="U23">
+        <v>9.3481828336213326E-4</v>
+      </c>
+      <c r="V23">
+        <v>7.0829477230820149E-4</v>
+      </c>
+      <c r="W23">
+        <v>6.8644379999999996E-4</v>
+      </c>
+      <c r="X23">
+        <v>-2.8639999999999998E-3</v>
+      </c>
+      <c r="Y23">
+        <v>2.8639999999999998E-3</v>
+      </c>
+      <c r="Z23">
+        <v>2.175873016911381E-4</v>
+      </c>
+      <c r="AA23">
+        <v>2.6699999999999998E-4</v>
+      </c>
+      <c r="AB23">
+        <v>8.8654922446061994E-4</v>
+      </c>
+      <c r="AC23">
+        <v>8.5943312336359044E-4</v>
+      </c>
+      <c r="AD23">
+        <v>6.7733474852075843E-4</v>
+      </c>
+      <c r="AE23">
+        <v>6.7458299999999998E-4</v>
+      </c>
+      <c r="AF23">
+        <v>3</v>
+      </c>
+      <c r="AG23">
+        <v>2.864988469496788E-3</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI23">
+        <v>1834386</v>
+      </c>
+      <c r="AJ23">
+        <v>1216452</v>
+      </c>
+      <c r="AK23">
+        <v>617003</v>
+      </c>
+      <c r="AL23">
+        <v>5408</v>
+      </c>
+      <c r="AM23">
+        <v>15499</v>
+      </c>
+      <c r="AN23">
+        <v>20907</v>
+      </c>
+      <c r="AO23">
+        <v>-1.7623874778782229E-3</v>
+      </c>
+      <c r="AP23">
+        <v>2.9774999893277458E-3</v>
+      </c>
+      <c r="AQ23">
+        <v>-1.4959999999999999E-3</v>
+      </c>
+      <c r="AR23">
+        <v>-2.2000000000000001E-4</v>
+      </c>
+      <c r="AS23">
+        <v>7.0899999999999999E-4</v>
+      </c>
+      <c r="AT23">
+        <v>1.593E-3</v>
+      </c>
+      <c r="AU23">
+        <v>9.2900000000000003E-4</v>
+      </c>
+      <c r="AV23">
+        <v>-1.3699999999999999E-3</v>
+      </c>
+      <c r="AW23">
+        <v>-2.05E-4</v>
+      </c>
+      <c r="AX23">
+        <v>7.0899999999999999E-4</v>
+      </c>
+      <c r="AY23">
+        <v>1.5659999999999999E-3</v>
+      </c>
+      <c r="AZ23">
+        <v>9.1399999999999999E-4</v>
+      </c>
+      <c r="BA23">
+        <v>1.9527528266424771E-4</v>
+      </c>
+      <c r="BB23">
+        <v>9.3481828336213326E-4</v>
+      </c>
+      <c r="BC23">
+        <v>4958465.5362192029</v>
+      </c>
+      <c r="BD23">
+        <v>7.3181280302525273</v>
+      </c>
+      <c r="BE23">
+        <v>6.4475187689200476E-3</v>
+      </c>
+      <c r="BF23">
+        <v>-5.8727864226338442E-3</v>
+      </c>
+      <c r="BG23">
+        <v>4.4657152833660427E-4</v>
+      </c>
+      <c r="BH23">
+        <v>-0.48739978830606567</v>
+      </c>
+      <c r="BI23">
+        <v>13568628.743107671</v>
+      </c>
+      <c r="BJ23">
+        <v>-0.71939517757416049</v>
+      </c>
+      <c r="BK23">
+        <v>2.5450449789946501</v>
+      </c>
+      <c r="BL23" t="s">
+        <v>160</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3855,17 +5506,17 @@
     </sortState>
   </autoFilter>
   <mergeCells count="9">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="X1:AE1"/>
-    <mergeCell ref="M1:O1"/>
     <mergeCell ref="BA1:BK1"/>
     <mergeCell ref="P1:W1"/>
     <mergeCell ref="AF1:AP1"/>
     <mergeCell ref="AQ1:AU1"/>
     <mergeCell ref="G1:L1"/>
+    <mergeCell ref="X1:AE1"/>
+    <mergeCell ref="AV1:AZ1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/outputs/MARS_Multi_Illumination_output/MARS_Multi_Illumination_m3c2_stats_distances.xlsx
+++ b/outputs/MARS_Multi_Illumination_output/MARS_Multi_Illumination_m3c2_stats_distances.xlsx
@@ -258,9 +258,6 @@
     <t>data\Multi-Illumination</t>
   </si>
   <si>
-    <t>1-1_cloud-2-1_cloud</t>
-  </si>
-  <si>
     <t>rmse</t>
   </si>
   <si>
@@ -273,9 +270,6 @@
     <t>2025-08-28 09:46:43</t>
   </si>
   <si>
-    <t>1-2_cloud-2-2_cloud</t>
-  </si>
-  <si>
     <t>data\Multi-Illumination\python_1-2_cloud-2-2_cloud_m3c2_distances.txt</t>
   </si>
   <si>
@@ -285,9 +279,6 @@
     <t>2025-08-28 09:49:16</t>
   </si>
   <si>
-    <t>1-3_cloud-2-3_cloud</t>
-  </si>
-  <si>
     <t>data\Multi-Illumination\python_1-3_cloud-2-3_cloud_m3c2_distances.txt</t>
   </si>
   <si>
@@ -297,9 +288,6 @@
     <t>2025-08-28 09:52:36</t>
   </si>
   <si>
-    <t>1-4_cloud-2-4_cloud</t>
-  </si>
-  <si>
     <t>data\Multi-Illumination\python_1-4_cloud-2-4_cloud_m3c2_distances.txt</t>
   </si>
   <si>
@@ -309,9 +297,6 @@
     <t>2025-08-28 09:55:49</t>
   </si>
   <si>
-    <t>1-5_cloud-2-5_cloud</t>
-  </si>
-  <si>
     <t>data\Multi-Illumination\python_1-5_cloud-2-5_cloud_m3c2_distances.txt</t>
   </si>
   <si>
@@ -321,9 +306,6 @@
     <t>2025-08-28 09:59:23</t>
   </si>
   <si>
-    <t>1-6_cloud-2-6_cloud</t>
-  </si>
-  <si>
     <t>data\Multi-Illumination\python_1-6_cloud-2-6_cloud_m3c2_distances.txt</t>
   </si>
   <si>
@@ -333,9 +315,6 @@
     <t>2025-08-28 10:03:21</t>
   </si>
   <si>
-    <t>1-7_cloud-2-7_cloud</t>
-  </si>
-  <si>
     <t>data\Multi-Illumination\python_1-7_cloud-2-7_cloud_m3c2_distances.txt</t>
   </si>
   <si>
@@ -345,9 +324,6 @@
     <t>2025-08-28 10:05:50</t>
   </si>
   <si>
-    <t>1-1_cloud-2-1-AI_cloud</t>
-  </si>
-  <si>
     <t>data\Multi-Illumination\python_1-1_cloud-2-1-AI_cloud_m3c2_distances.txt</t>
   </si>
   <si>
@@ -357,9 +333,6 @@
     <t>2025-08-28 10:08:48</t>
   </si>
   <si>
-    <t>1-2_cloud-2-2-AI_cloud</t>
-  </si>
-  <si>
     <t>data\Multi-Illumination\python_1-2_cloud-2-2-AI_cloud_m3c2_distances.txt</t>
   </si>
   <si>
@@ -369,9 +342,6 @@
     <t>2025-08-28 10:11:45</t>
   </si>
   <si>
-    <t>1-3_cloud-2-3-AI_cloud</t>
-  </si>
-  <si>
     <t>data\Multi-Illumination\python_1-3_cloud-2-3-AI_cloud_m3c2_distances.txt</t>
   </si>
   <si>
@@ -381,9 +351,6 @@
     <t>2025-08-28 10:15:37</t>
   </si>
   <si>
-    <t>1-4_cloud-2-4-AI_cloud</t>
-  </si>
-  <si>
     <t>data\Multi-Illumination\python_1-4_cloud-2-4-AI_cloud_m3c2_distances.txt</t>
   </si>
   <si>
@@ -393,9 +360,6 @@
     <t>2025-08-28 10:19:20</t>
   </si>
   <si>
-    <t>1-5_cloud-2-5-AI_cloud</t>
-  </si>
-  <si>
     <t>data\Multi-Illumination\python_1-5_cloud-2-5-AI_cloud_m3c2_distances.txt</t>
   </si>
   <si>
@@ -405,9 +369,6 @@
     <t>2025-08-28 10:24:08</t>
   </si>
   <si>
-    <t>1-6_cloud-2-6-AI_cloud</t>
-  </si>
-  <si>
     <t>data\Multi-Illumination\python_1-6_cloud-2-6-AI_cloud_m3c2_distances.txt</t>
   </si>
   <si>
@@ -417,9 +378,6 @@
     <t>2025-08-28 10:29:11</t>
   </si>
   <si>
-    <t>1-7_cloud-2-7-AI_cloud</t>
-  </si>
-  <si>
     <t>data\Multi-Illumination\python_1-7_cloud-2-7-AI_cloud_m3c2_distances.txt</t>
   </si>
   <si>
@@ -429,9 +387,6 @@
     <t>2025-08-28 10:32:10</t>
   </si>
   <si>
-    <t>1-1-AI_cloud-2-1_cloud</t>
-  </si>
-  <si>
     <t>data\Multi-Illumination\python_1-1-AI_cloud-2-1_cloud_m3c2_distances.txt</t>
   </si>
   <si>
@@ -441,9 +396,6 @@
     <t>2025-08-28 10:35:42</t>
   </si>
   <si>
-    <t>1-2-AI_cloud-2-2_cloud</t>
-  </si>
-  <si>
     <t>data\Multi-Illumination\python_1-2-AI_cloud-2-2_cloud_m3c2_distances.txt</t>
   </si>
   <si>
@@ -453,9 +405,6 @@
     <t>2025-08-28 10:38:52</t>
   </si>
   <si>
-    <t>1-3-AI_cloud-2-3_cloud</t>
-  </si>
-  <si>
     <t>data\Multi-Illumination\python_1-3-AI_cloud-2-3_cloud_m3c2_distances.txt</t>
   </si>
   <si>
@@ -465,9 +414,6 @@
     <t>2025-08-28 10:43:02</t>
   </si>
   <si>
-    <t>1-4-AI_cloud-2-4_cloud</t>
-  </si>
-  <si>
     <t>data\Multi-Illumination\python_1-4-AI_cloud-2-4_cloud_m3c2_distances.txt</t>
   </si>
   <si>
@@ -477,9 +423,6 @@
     <t>2025-08-28 10:46:50</t>
   </si>
   <si>
-    <t>1-5-AI_cloud-2-5_cloud</t>
-  </si>
-  <si>
     <t>data\Multi-Illumination\python_1-5-AI_cloud-2-5_cloud_m3c2_distances.txt</t>
   </si>
   <si>
@@ -489,9 +432,6 @@
     <t>2025-08-28 10:50:31</t>
   </si>
   <si>
-    <t>1-6-AI_cloud-2-6_cloud</t>
-  </si>
-  <si>
     <t>data\Multi-Illumination\python_1-6-AI_cloud-2-6_cloud_m3c2_distances.txt</t>
   </si>
   <si>
@@ -501,13 +441,73 @@
     <t>2025-08-28 10:55:31</t>
   </si>
   <si>
-    <t>1-7-AI_cloud-2-7_cloud</t>
-  </si>
-  <si>
     <t>data\Multi-Illumination\python_1-7-AI_cloud-2-7_cloud_m3c2_distances.txt</t>
   </si>
   <si>
     <t>data\Multi-Illumination\python_1-7-AI_cloud-2-7_cloud_m3c2_params.txt</t>
+  </si>
+  <si>
+    <t>1-1 vs. 2-1</t>
+  </si>
+  <si>
+    <t>1-2 vs. 2-2</t>
+  </si>
+  <si>
+    <t>1-3 vs. 2-3</t>
+  </si>
+  <si>
+    <t>1-4 vs. 2-4</t>
+  </si>
+  <si>
+    <t>1-5 vs. 2-5</t>
+  </si>
+  <si>
+    <t>1-6 vs. 2-6</t>
+  </si>
+  <si>
+    <t>1-7 vs. 2-7</t>
+  </si>
+  <si>
+    <t>1-1 vs. 2-1-AI</t>
+  </si>
+  <si>
+    <t>1-2 vs. 2-2-AI</t>
+  </si>
+  <si>
+    <t>1-3 vs. 2-3-AI</t>
+  </si>
+  <si>
+    <t>1-4 vs. 2-4-AI</t>
+  </si>
+  <si>
+    <t>1-5 vs. 2-5-AI</t>
+  </si>
+  <si>
+    <t>1-6 vs. 2-6-AI</t>
+  </si>
+  <si>
+    <t>1-7 vs. 2-7-AI</t>
+  </si>
+  <si>
+    <t>1-1-AI vs. 2-1</t>
+  </si>
+  <si>
+    <t>1-2-AI vs. 2-2</t>
+  </si>
+  <si>
+    <t>1-3-AI vs. 2-3</t>
+  </si>
+  <si>
+    <t>1-4-AI vs. 2-4</t>
+  </si>
+  <si>
+    <t>1-5-AI vs. 2-5</t>
+  </si>
+  <si>
+    <t>1-6-AI vs. 2-6</t>
+  </si>
+  <si>
+    <t>1-7-AI vs. 2-7</t>
   </si>
 </sst>
 </file>
@@ -707,11 +707,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -721,13 +728,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -1034,17 +1034,17 @@
   <dimension ref="A1:BM23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="12" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" style="12" customWidth="1"/>
     <col min="5" max="6" width="7.28515625" style="12" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
@@ -1087,83 +1087,83 @@
       <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="15" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="19" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="15" t="s">
+      <c r="N1" s="17"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="18" t="s">
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="21" t="s">
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16"/>
-      <c r="AN1" s="16"/>
-      <c r="AO1" s="16"/>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="22" t="s">
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="AR1" s="16"/>
-      <c r="AS1" s="16"/>
-      <c r="AT1" s="16"/>
-      <c r="AU1" s="17"/>
-      <c r="AV1" s="19" t="s">
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="17"/>
+      <c r="AU1" s="18"/>
+      <c r="AV1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="AW1" s="16"/>
-      <c r="AX1" s="16"/>
-      <c r="AY1" s="16"/>
-      <c r="AZ1" s="17"/>
-      <c r="BA1" s="15" t="s">
+      <c r="AW1" s="17"/>
+      <c r="AX1" s="17"/>
+      <c r="AY1" s="17"/>
+      <c r="AZ1" s="18"/>
+      <c r="BA1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="BB1" s="16"/>
-      <c r="BC1" s="16"/>
-      <c r="BD1" s="16"/>
-      <c r="BE1" s="16"/>
-      <c r="BF1" s="16"/>
-      <c r="BG1" s="16"/>
-      <c r="BH1" s="16"/>
-      <c r="BI1" s="16"/>
-      <c r="BJ1" s="16"/>
-      <c r="BK1" s="17"/>
+      <c r="BB1" s="17"/>
+      <c r="BC1" s="17"/>
+      <c r="BD1" s="17"/>
+      <c r="BE1" s="17"/>
+      <c r="BF1" s="17"/>
+      <c r="BG1" s="17"/>
+      <c r="BH1" s="17"/>
+      <c r="BI1" s="17"/>
+      <c r="BJ1" s="17"/>
+      <c r="BK1" s="18"/>
     </row>
     <row r="2" spans="1:65" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1370,7 +1370,7 @@
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="D3">
         <v>1848754</v>
@@ -1384,10 +1384,10 @@
       <c r="G3">
         <v>7</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="15">
         <v>3.7863339308528882E-6</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="15">
         <v>0.99999621366606917</v>
       </c>
       <c r="J3">
@@ -1463,7 +1463,7 @@
         <v>9.8928871191127001E-4</v>
       </c>
       <c r="AH3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI3">
         <v>1831404</v>
@@ -1553,21 +1553,21 @@
         <v>5.5826908358251721</v>
       </c>
       <c r="BL3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM3" t="s">
         <v>80</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="D4">
         <v>1878902</v>
@@ -1581,10 +1581,10 @@
       <c r="G4">
         <v>19318</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="15">
         <v>1.028153676987943E-2</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="15">
         <v>0.98971846323012058</v>
       </c>
       <c r="J4">
@@ -1660,7 +1660,7 @@
         <v>7.9028795658713327E-4</v>
       </c>
       <c r="AH4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI4">
         <v>1844485</v>
@@ -1750,21 +1750,21 @@
         <v>2.3040924856517102</v>
       </c>
       <c r="BL4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="BM4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="D5">
         <v>1900069</v>
@@ -1778,10 +1778,10 @@
       <c r="G5">
         <v>2215</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="15">
         <v>1.165747138656543E-3</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="15">
         <v>0.99883425286134342</v>
       </c>
       <c r="J5">
@@ -1857,7 +1857,7 @@
         <v>7.6724088045318473E-4</v>
       </c>
       <c r="AH5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI5">
         <v>1876383</v>
@@ -1947,21 +1947,21 @@
         <v>3.5078761855336662</v>
       </c>
       <c r="BL5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="BM5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="D6">
         <v>1801484</v>
@@ -1975,10 +1975,10 @@
       <c r="G6">
         <v>39618</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="15">
         <v>2.1991868925841141E-2</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="15">
         <v>0.97800813107415885</v>
       </c>
       <c r="J6">
@@ -2054,7 +2054,7 @@
         <v>1.0528090686832831E-3</v>
       </c>
       <c r="AH6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI6">
         <v>1742560</v>
@@ -2144,21 +2144,21 @@
         <v>2.7922655953202851</v>
       </c>
       <c r="BL6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="BM6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="D7">
         <v>1838147</v>
@@ -2172,10 +2172,10 @@
       <c r="G7">
         <v>51530</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="15">
         <v>2.803366651306996E-2</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="15">
         <v>0.97196633348693007</v>
       </c>
       <c r="J7">
@@ -2251,7 +2251,7 @@
         <v>7.3150722384390289E-4</v>
       </c>
       <c r="AH7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI7">
         <v>1768833</v>
@@ -2341,21 +2341,21 @@
         <v>2.8625284060168981</v>
       </c>
       <c r="BL7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="BM7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="D8">
         <v>1843820</v>
@@ -2369,10 +2369,10 @@
       <c r="G8">
         <v>55208</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="15">
         <v>2.9942185245848289E-2</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="15">
         <v>0.97005781475415176</v>
       </c>
       <c r="J8">
@@ -2448,7 +2448,7 @@
         <v>8.4474357392821746E-4</v>
       </c>
       <c r="AH8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI8">
         <v>1763022</v>
@@ -2538,21 +2538,21 @@
         <v>5.7173596232498296</v>
       </c>
       <c r="BL8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="BM8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="D9">
         <v>1796164</v>
@@ -2566,10 +2566,10 @@
       <c r="G9">
         <v>44259</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="15">
         <v>2.464084571342038E-2</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="15">
         <v>0.9753591542865796</v>
       </c>
       <c r="J9">
@@ -2645,7 +2645,7 @@
         <v>1.0148850661627299E-3</v>
       </c>
       <c r="AH9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI9">
         <v>1736277</v>
@@ -2735,21 +2735,21 @@
         <v>2.9929042271556292</v>
       </c>
       <c r="BL9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="BM9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="D10">
         <v>1848754</v>
@@ -2763,10 +2763,10 @@
       <c r="G10">
         <v>3353</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="15">
         <v>1.8136539528785329E-3</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="15">
         <v>0.99818634604712142</v>
       </c>
       <c r="J10">
@@ -2842,7 +2842,7 @@
         <v>2.8031997153512081E-3</v>
       </c>
       <c r="AH10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI10">
         <v>1825744</v>
@@ -2932,21 +2932,21 @@
         <v>1.312988890863815</v>
       </c>
       <c r="BL10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="BM10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="D11">
         <v>1878902</v>
@@ -2960,10 +2960,10 @@
       <c r="G11">
         <v>10479</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="15">
         <v>5.5771934885374547E-3</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="15">
         <v>0.99442280651146253</v>
       </c>
       <c r="J11">
@@ -3039,7 +3039,7 @@
         <v>2.4580870792740481E-3</v>
       </c>
       <c r="AH11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI11">
         <v>1839205</v>
@@ -3129,21 +3129,21 @@
         <v>3.887307118836608</v>
       </c>
       <c r="BL11" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="BM11" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
         <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="D12">
         <v>1900069</v>
@@ -3157,10 +3157,10 @@
       <c r="G12">
         <v>2846</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="15">
         <v>1.4978403415875951E-3</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="15">
         <v>0.99850215965841238</v>
       </c>
       <c r="J12">
@@ -3236,7 +3236,7 @@
         <v>2.735073497487851E-3</v>
       </c>
       <c r="AH12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI12">
         <v>1872005</v>
@@ -3326,21 +3326,21 @@
         <v>2.4881984741804999</v>
       </c>
       <c r="BL12" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="BM12" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B13" t="s">
         <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="D13">
         <v>1801484</v>
@@ -3354,10 +3354,10 @@
       <c r="G13">
         <v>56184</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="15">
         <v>3.1187620872569509E-2</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="15">
         <v>0.96881237912743046</v>
       </c>
       <c r="J13">
@@ -3433,7 +3433,7 @@
         <v>2.5742086266146991E-3</v>
       </c>
       <c r="AH13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI13">
         <v>1724339</v>
@@ -3523,21 +3523,21 @@
         <v>2.320843251581115</v>
       </c>
       <c r="BL13" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="BM13" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s">
         <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="D14">
         <v>1838147</v>
@@ -3551,10 +3551,10 @@
       <c r="G14">
         <v>64626</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="15">
         <v>3.5158232720234023E-2</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="15">
         <v>0.964841767279766</v>
       </c>
       <c r="J14">
@@ -3630,7 +3630,7 @@
         <v>2.9001213709650151E-3</v>
       </c>
       <c r="AH14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI14">
         <v>1752460</v>
@@ -3720,21 +3720,21 @@
         <v>0.98557489212421912</v>
       </c>
       <c r="BL14" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="BM14" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B15" t="s">
         <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="D15">
         <v>1843820</v>
@@ -3748,10 +3748,10 @@
       <c r="G15">
         <v>66023</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="15">
         <v>3.5807725266023799E-2</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="15">
         <v>0.96419227473397617</v>
       </c>
       <c r="J15">
@@ -3827,7 +3827,7 @@
         <v>2.8038046472131802E-3</v>
       </c>
       <c r="AH15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI15">
         <v>1740357</v>
@@ -3917,21 +3917,21 @@
         <v>1.9910583482962569</v>
       </c>
       <c r="BL15" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="BM15" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s">
         <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="D16">
         <v>1796164</v>
@@ -3945,10 +3945,10 @@
       <c r="G16">
         <v>56884</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="15">
         <v>3.1669713901403211E-2</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="15">
         <v>0.96833028609859684</v>
       </c>
       <c r="J16">
@@ -4024,7 +4024,7 @@
         <v>2.2744475866410571E-3</v>
       </c>
       <c r="AH16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI16">
         <v>1717687</v>
@@ -4114,21 +4114,21 @@
         <v>1.99486544504208</v>
       </c>
       <c r="BL16" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="BM16" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B17" t="s">
         <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="D17">
         <v>2143284</v>
@@ -4142,10 +4142,10 @@
       <c r="G17">
         <v>214008</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="15">
         <v>9.9850509778452126E-2</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="15">
         <v>0.90014949022154789</v>
       </c>
       <c r="J17">
@@ -4221,7 +4221,7 @@
         <v>3.3627550205738588E-3</v>
       </c>
       <c r="AH17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI17">
         <v>1917090</v>
@@ -4311,21 +4311,21 @@
         <v>0.9798550044227512</v>
       </c>
       <c r="BL17" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="BM17" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B18" t="s">
         <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="D18">
         <v>2205767</v>
@@ -4339,10 +4339,10 @@
       <c r="G18">
         <v>292676</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="15">
         <v>0.13268672529782161</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="15">
         <v>0.86731327470217845</v>
       </c>
       <c r="J18">
@@ -4418,7 +4418,7 @@
         <v>2.8114752880003539E-3</v>
       </c>
       <c r="AH18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI18">
         <v>1889709</v>
@@ -4508,21 +4508,21 @@
         <v>2.4033292130696382</v>
       </c>
       <c r="BL18" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="BM18" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B19" t="s">
         <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="D19">
         <v>2205244</v>
@@ -4536,10 +4536,10 @@
       <c r="G19">
         <v>268241</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="15">
         <v>0.1216377870203932</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="15">
         <v>0.87836221297960682</v>
       </c>
       <c r="J19">
@@ -4615,7 +4615,7 @@
         <v>3.076050921849162E-3</v>
       </c>
       <c r="AH19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI19">
         <v>1918919</v>
@@ -4705,21 +4705,21 @@
         <v>2.141493775871214</v>
       </c>
       <c r="BL19" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="BM19" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="B20" t="s">
         <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D20">
         <v>2077959</v>
@@ -4733,10 +4733,10 @@
       <c r="G20">
         <v>205403</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="15">
         <v>9.8848437336829076E-2</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="15">
         <v>0.90115156266317098</v>
       </c>
       <c r="J20">
@@ -4812,7 +4812,7 @@
         <v>2.7153590076049688E-3</v>
       </c>
       <c r="AH20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI20">
         <v>1846119</v>
@@ -4902,21 +4902,21 @@
         <v>2.8173133865784599</v>
       </c>
       <c r="BL20" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="BM20" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="B21" t="s">
         <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D21">
         <v>2117896</v>
@@ -4930,10 +4930,10 @@
       <c r="G21">
         <v>231482</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="15">
         <v>0.1092980958460661</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="15">
         <v>0.89070190415393391</v>
       </c>
       <c r="J21">
@@ -5009,7 +5009,7 @@
         <v>3.034097210630938E-3</v>
       </c>
       <c r="AH21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI21">
         <v>1862944</v>
@@ -5099,21 +5099,21 @@
         <v>2.9706067384547929</v>
       </c>
       <c r="BL21" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="BM21" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="B22" t="s">
         <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D22">
         <v>2121774</v>
@@ -5127,10 +5127,10 @@
       <c r="G22">
         <v>237602</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="15">
         <v>0.111982708808761</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="15">
         <v>0.88801729119123907</v>
       </c>
       <c r="J22">
@@ -5206,7 +5206,7 @@
         <v>2.691529972437468E-3</v>
       </c>
       <c r="AH22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI22">
         <v>1858004</v>
@@ -5296,21 +5296,21 @@
         <v>2.628172273098841</v>
       </c>
       <c r="BL22" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="BM22" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="B23" t="s">
         <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D23">
         <v>2070938</v>
@@ -5324,10 +5324,10 @@
       <c r="G23">
         <v>215645</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="15">
         <v>0.10412914341230881</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="15">
         <v>0.89587085658769117</v>
       </c>
       <c r="J23">
@@ -5403,7 +5403,7 @@
         <v>2.864988469496788E-3</v>
       </c>
       <c r="AH23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI23">
         <v>1834386</v>
@@ -5493,10 +5493,10 @@
         <v>2.5450449789946501</v>
       </c>
       <c r="BL23" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="BM23" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5506,6 +5506,8 @@
     </sortState>
   </autoFilter>
   <mergeCells count="9">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="M1:O1"/>
     <mergeCell ref="BA1:BK1"/>
     <mergeCell ref="P1:W1"/>
     <mergeCell ref="AF1:AP1"/>
@@ -5513,8 +5515,6 @@
     <mergeCell ref="G1:L1"/>
     <mergeCell ref="X1:AE1"/>
     <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>

--- a/outputs/MARS_Multi_Illumination_output/MARS_Multi_Illumination_m3c2_stats_distances.xlsx
+++ b/outputs/MARS_Multi_Illumination_output/MARS_Multi_Illumination_m3c2_stats_distances.xlsx
@@ -618,7 +618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM27"/>
+  <dimension ref="A1:BM31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
@@ -6328,6 +6328,842 @@
         </is>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:25:46</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>data\Multi-Illumination</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>a-1-b-1</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1848754</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="G28" t="n">
+        <v>7</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.786333930852888e-06</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.9999962136660692</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1848747</v>
+      </c>
+      <c r="K28" t="n">
+        <v>58.06580200000001</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.201039354048</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1831404</v>
+      </c>
+      <c r="N28" t="n">
+        <v>64.48812999999998</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.16406526557</v>
+      </c>
+      <c r="P28" t="n">
+        <v>-0.004257</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.004802</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3.140819268401788e-05</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4.4e-05</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.0003297629039704233</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.0003282637632565164</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.0002423816000783233</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.0002683506</v>
+      </c>
+      <c r="X28" t="n">
+        <v>-0.0009890000000000001</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.0009890000000000001</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>3.521239988555228e-05</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>4.5e-05</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.000299306565652362</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.0002972280389480636</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.0002315634911794449</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.0002653854</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.00098928871191127</v>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="AI28" t="n">
+        <v>1831404</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1041360</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>787214</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>6541</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>10802</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>17343</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>-0.0003703124026984951</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0.001412373977284256</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>-0.000513</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>-0.000141</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0.000222</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0.000523</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0.000363</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>-0.000491</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>-0.000137</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>0.000221</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>0.000513</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>0.000358</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>3.140819268401788e-05</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>0.0003282637632565164</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>1127175200681164</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>12.22131184167564</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>0.00443167676357952</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>-0.004257395391128698</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>0.0001434337456783985</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>-0.7175292079112111</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>14923656066230.08</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>-0.5887868609417466</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>5.582690835825172</v>
+      </c>
+      <c r="BL28" t="inlineStr">
+        <is>
+          <t>data\Multi-Illumination\python_a-1-b-1_m3c2_distances.txt</t>
+        </is>
+      </c>
+      <c r="BM28" t="inlineStr">
+        <is>
+          <t>data\Multi-Illumination\python_a-1-b-1_m3c2_params.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:27:16</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>data\Multi-Illumination</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>a-1-b-1-AI</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1848754</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3353</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.001813653952878533</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.9981863460471214</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1845401</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-671.42272</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.611225486426</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1825744</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-626.261582</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.407286543668</v>
+      </c>
+      <c r="P29" t="n">
+        <v>-0.00432</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.004148</v>
+      </c>
+      <c r="R29" t="n">
+        <v>-0.0003638356758233035</v>
+      </c>
+      <c r="S29" t="n">
+        <v>-0.000283</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.0009343999051170693</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.0008606548574666783</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.0006962032219555533</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.000748713</v>
+      </c>
+      <c r="X29" t="n">
+        <v>-0.002803</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.002803</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>-0.0003430171929909122</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>-0.000275</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0.0008779531198573015</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0.0008081713221711127</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0.0006691691233820295</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0.0007383347999999999</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0.002803199715351208</v>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="AI29" t="n">
+        <v>1825744</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>624201</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1200506</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>2784</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>16873</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>19657</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>-0.002297458310016787</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>0.002257556550696858</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>-0.001857</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>-0.000859</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>0.00017</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>0.000891</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>0.001029</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>-0.00177</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>-0.00084</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>0.000172</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>0.000882</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>0.001012</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>-0.0003638356758233035</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>0.0008606548574666783</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>248623.2555508183</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>5.100174121428031</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>0.004338516079674972</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>-0.004368371937607233</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>-0.0002115922981897056</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>-0.2677860148641807</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>1326327888.537201</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>-0.2770356403359415</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>1.312988890863815</v>
+      </c>
+      <c r="BL29" t="inlineStr">
+        <is>
+          <t>data\Multi-Illumination\python_a-1-b-1-AI_m3c2_distances.txt</t>
+        </is>
+      </c>
+      <c r="BM29" t="inlineStr">
+        <is>
+          <t>data\Multi-Illumination\python_a-1-b-1-AI_m3c2_params.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:29:02</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>data\Multi-Illumination</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>a-1-AI-b-1</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>2143284</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="G30" t="n">
+        <v>214008</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.09985050977845213</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.9001494902215479</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1929276</v>
+      </c>
+      <c r="K30" t="n">
+        <v>944.0018060000002</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2.42405412044</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1917090</v>
+      </c>
+      <c r="N30" t="n">
+        <v>912.6991869999999</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2.261979214093</v>
+      </c>
+      <c r="P30" t="n">
+        <v>-0.005808</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.004936</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.0004893036589891754</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.000482</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.001120918340191286</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.001008483938730307</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.0008716386053628407</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.0008776991999999999</v>
+      </c>
+      <c r="X30" t="n">
+        <v>-0.003362</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.003362</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.0004760857273263122</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.000477</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0.001086233153461209</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.000976342585322621</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.000854039257937812</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.0008702861999999999</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0.003362755020573859</v>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="AI30" t="n">
+        <v>1917090</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>1367184</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>549002</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>10429</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1757</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>12186</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0.002568736172657148</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0.002588761337714701</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>-0.001169</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>-9.8e-05</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0.001086</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0.002158</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0.001184</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>-0.001162</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>0.001074</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>0.002095</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>0.001174</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>0.0004893036589891754</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>0.001008483938730307</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>122338.8498843068</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>6.632135228644302</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>0.006722693953013577</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>-0.005808409162356089</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>0.0007506396059552209</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>-0.4327674980723418</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>203600348.2673969</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>-0.04436061331310492</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>0.9798550044227512</v>
+      </c>
+      <c r="BL30" t="inlineStr">
+        <is>
+          <t>data\Multi-Illumination\python_a-1-AI-b-1_m3c2_distances.txt</t>
+        </is>
+      </c>
+      <c r="BM30" t="inlineStr">
+        <is>
+          <t>data\Multi-Illumination\python_a-1-AI-b-1_m3c2_params.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-09-01 09:31:04</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>data\Multi-Illumination</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>a-1-AI-b-1-AI</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>2143284</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="G31" t="n">
+        <v>25924</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.01209545725158215</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.9879045427484179</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2117360</v>
+      </c>
+      <c r="K31" t="n">
+        <v>522.5222369999999</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.987969683329</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2067166</v>
+      </c>
+      <c r="N31" t="n">
+        <v>387.117282</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.390636687952</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-0.005688</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.00617</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.0002467800643253863</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.000183</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.000968963742060044</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.0009370113837507853</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.0006621369068084785</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.0006063833999999999</v>
+      </c>
+      <c r="X31" t="n">
+        <v>-0.002906</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.002906</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.0001872695671271683</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0.00017</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0.0008201988665263999</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0.0007985338376544816</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0.0005949083663334245</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0.0005841444</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0.002906891226180132</v>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="AI31" t="n">
+        <v>2067166</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>1281193</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>784476</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>44868</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>5326</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>50194</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0.002697632286727497</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>0.002150178147824242</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>-0.001117</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>-0.000234</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>0.0005820000000000001</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>0.002048</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>0.0008160000000000001</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>-0.0011</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>-0.000241</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>0.000545</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>0.001659</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>0.000786</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>0.0002467800643253863</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>0.0009370113837507853</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>1561851.362796817</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>5.939962160905105</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>0.006340247401192347</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>-0.005688138567817923</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>0.0004583629744138711</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>-0.3670612797172161</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>11693423546.35915</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>0.7472737316746452</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>2.994743908023999</v>
+      </c>
+      <c r="BL31" t="inlineStr">
+        <is>
+          <t>data\Multi-Illumination\python_a-1-AI-b-1-AI_m3c2_distances.txt</t>
+        </is>
+      </c>
+      <c r="BM31" t="inlineStr">
+        <is>
+          <t>data\Multi-Illumination\python_a-1-AI-b-1-AI_m3c2_params.txt</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:BE2">
     <sortState ref="A2:BC25">

--- a/outputs/MARS_Multi_Illumination_output/MARS_Multi_Illumination_m3c2_stats_distances.xlsx
+++ b/outputs/MARS_Multi_Illumination_output/MARS_Multi_Illumination_m3c2_stats_distances.xlsx
@@ -237,19 +237,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -618,13 +618,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM31"/>
+  <dimension ref="A1:BM27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -660,8 +660,8 @@
     <col width="10.5703125" bestFit="1" customWidth="1" style="12" min="63" max="63"/>
     <col hidden="1" width="125.42578125" customWidth="1" style="12" min="64" max="64"/>
     <col hidden="1" width="44.5703125" customWidth="1" style="12" min="65" max="65"/>
-    <col width="9.140625" customWidth="1" style="12" min="66" max="74"/>
-    <col width="9.140625" customWidth="1" style="12" min="75" max="16384"/>
+    <col width="9.140625" customWidth="1" style="12" min="66" max="75"/>
+    <col width="9.140625" customWidth="1" style="12" min="76" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="39.75" customHeight="1" s="12">
@@ -680,7 +680,7 @@
           <t>Calculated on Outliers only</t>
         </is>
       </c>
-      <c r="E1" s="23" t="inlineStr">
+      <c r="E1" s="19" t="inlineStr">
         <is>
           <t>Parameters used for Algorithm</t>
         </is>
@@ -696,7 +696,7 @@
       <c r="J1" s="17" t="n"/>
       <c r="K1" s="17" t="n"/>
       <c r="L1" s="18" t="n"/>
-      <c r="M1" s="22" t="inlineStr">
+      <c r="M1" s="20" t="inlineStr">
         <is>
           <t>exkl. Outliers</t>
         </is>
@@ -727,7 +727,7 @@
       <c r="AC1" s="17" t="n"/>
       <c r="AD1" s="17" t="n"/>
       <c r="AE1" s="17" t="n"/>
-      <c r="AF1" s="19" t="inlineStr">
+      <c r="AF1" s="22" t="inlineStr">
         <is>
           <t>Inlier / Outlier Details</t>
         </is>
@@ -742,7 +742,7 @@
       <c r="AN1" s="17" t="n"/>
       <c r="AO1" s="17" t="n"/>
       <c r="AP1" s="18" t="n"/>
-      <c r="AQ1" s="20" t="inlineStr">
+      <c r="AQ1" s="23" t="inlineStr">
         <is>
           <t>Quantiles All Points (incl. Outliers)</t>
         </is>
@@ -751,7 +751,7 @@
       <c r="AS1" s="17" t="n"/>
       <c r="AT1" s="17" t="n"/>
       <c r="AU1" s="18" t="n"/>
-      <c r="AV1" s="22" t="inlineStr">
+      <c r="AV1" s="20" t="inlineStr">
         <is>
           <t>Quantiles (excl. Outliers)</t>
         </is>
@@ -5495,7 +5495,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-08-29 08:47:12</t>
+          <t>2025-09-01 10:34:17</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -5704,7 +5704,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-08-29 08:48:48</t>
+          <t>2025-09-01 10:36:04</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5913,7 +5913,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-08-29 08:50:41</t>
+          <t>2025-09-01 10:38:06</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -6122,7 +6122,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-08-29 08:52:49</t>
+          <t>2025-09-01 10:41:15</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -6323,842 +6323,6 @@
         </is>
       </c>
       <c r="BM27" t="inlineStr">
-        <is>
-          <t>data\Multi-Illumination\python_a-1-AI-b-1-AI_m3c2_params.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2025-09-01 09:25:46</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>data\Multi-Illumination</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>a-1-b-1</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>1848754</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="G28" t="n">
-        <v>7</v>
-      </c>
-      <c r="H28" t="n">
-        <v>3.786333930852888e-06</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.9999962136660692</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1848747</v>
-      </c>
-      <c r="K28" t="n">
-        <v>58.06580200000001</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.201039354048</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1831404</v>
-      </c>
-      <c r="N28" t="n">
-        <v>64.48812999999998</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0.16406526557</v>
-      </c>
-      <c r="P28" t="n">
-        <v>-0.004257</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0.004802</v>
-      </c>
-      <c r="R28" t="n">
-        <v>3.140819268401788e-05</v>
-      </c>
-      <c r="S28" t="n">
-        <v>4.4e-05</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0.0003297629039704233</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0.0003282637632565164</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0.0002423816000783233</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0.0002683506</v>
-      </c>
-      <c r="X28" t="n">
-        <v>-0.0009890000000000001</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0.0009890000000000001</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>3.521239988555228e-05</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>4.5e-05</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>0.000299306565652362</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0.0002972280389480636</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0.0002315634911794449</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>0.0002653854</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0.00098928871191127</v>
-      </c>
-      <c r="AH28" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="AI28" t="n">
-        <v>1831404</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>1041360</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>787214</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>6541</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>10802</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>17343</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>-0.0003703124026984951</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>0.001412373977284256</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>-0.000513</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>-0.000141</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>0.000222</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>0.000523</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>0.000363</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>-0.000491</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>-0.000137</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>0.000221</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>0.000513</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>0.000358</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>3.140819268401788e-05</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>0.0003282637632565164</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>1127175200681164</v>
-      </c>
-      <c r="BD28" t="n">
-        <v>12.22131184167564</v>
-      </c>
-      <c r="BE28" t="n">
-        <v>0.00443167676357952</v>
-      </c>
-      <c r="BF28" t="n">
-        <v>-0.004257395391128698</v>
-      </c>
-      <c r="BG28" t="n">
-        <v>0.0001434337456783985</v>
-      </c>
-      <c r="BH28" t="n">
-        <v>-0.7175292079112111</v>
-      </c>
-      <c r="BI28" t="n">
-        <v>14923656066230.08</v>
-      </c>
-      <c r="BJ28" t="n">
-        <v>-0.5887868609417466</v>
-      </c>
-      <c r="BK28" t="n">
-        <v>5.582690835825172</v>
-      </c>
-      <c r="BL28" t="inlineStr">
-        <is>
-          <t>data\Multi-Illumination\python_a-1-b-1_m3c2_distances.txt</t>
-        </is>
-      </c>
-      <c r="BM28" t="inlineStr">
-        <is>
-          <t>data\Multi-Illumination\python_a-1-b-1_m3c2_params.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2025-09-01 09:27:16</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>data\Multi-Illumination</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>a-1-b-1-AI</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>1848754</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="G29" t="n">
-        <v>3353</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.001813653952878533</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.9981863460471214</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1845401</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-671.42272</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.611225486426</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1825744</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-626.261582</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.407286543668</v>
-      </c>
-      <c r="P29" t="n">
-        <v>-0.00432</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0.004148</v>
-      </c>
-      <c r="R29" t="n">
-        <v>-0.0003638356758233035</v>
-      </c>
-      <c r="S29" t="n">
-        <v>-0.000283</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0.0009343999051170693</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0.0008606548574666783</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0.0006962032219555533</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0.000748713</v>
-      </c>
-      <c r="X29" t="n">
-        <v>-0.002803</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0.002803</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>-0.0003430171929909122</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>-0.000275</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>0.0008779531198573015</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>0.0008081713221711127</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>0.0006691691233820295</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>0.0007383347999999999</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>0.002803199715351208</v>
-      </c>
-      <c r="AH29" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="AI29" t="n">
-        <v>1825744</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>624201</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>1200506</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>2784</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>16873</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>19657</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>-0.002297458310016787</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>0.002257556550696858</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>-0.001857</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>-0.000859</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>0.00017</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>0.000891</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>0.001029</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>-0.00177</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>-0.00084</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>0.000172</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>0.000882</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>0.001012</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>-0.0003638356758233035</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>0.0008606548574666783</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>248623.2555508183</v>
-      </c>
-      <c r="BD29" t="n">
-        <v>5.100174121428031</v>
-      </c>
-      <c r="BE29" t="n">
-        <v>0.004338516079674972</v>
-      </c>
-      <c r="BF29" t="n">
-        <v>-0.004368371937607233</v>
-      </c>
-      <c r="BG29" t="n">
-        <v>-0.0002115922981897056</v>
-      </c>
-      <c r="BH29" t="n">
-        <v>-0.2677860148641807</v>
-      </c>
-      <c r="BI29" t="n">
-        <v>1326327888.537201</v>
-      </c>
-      <c r="BJ29" t="n">
-        <v>-0.2770356403359415</v>
-      </c>
-      <c r="BK29" t="n">
-        <v>1.312988890863815</v>
-      </c>
-      <c r="BL29" t="inlineStr">
-        <is>
-          <t>data\Multi-Illumination\python_a-1-b-1-AI_m3c2_distances.txt</t>
-        </is>
-      </c>
-      <c r="BM29" t="inlineStr">
-        <is>
-          <t>data\Multi-Illumination\python_a-1-b-1-AI_m3c2_params.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2025-09-01 09:29:02</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>data\Multi-Illumination</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>a-1-AI-b-1</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>2143284</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="G30" t="n">
-        <v>214008</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.09985050977845213</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.9001494902215479</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1929276</v>
-      </c>
-      <c r="K30" t="n">
-        <v>944.0018060000002</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.42405412044</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1917090</v>
-      </c>
-      <c r="N30" t="n">
-        <v>912.6991869999999</v>
-      </c>
-      <c r="O30" t="n">
-        <v>2.261979214093</v>
-      </c>
-      <c r="P30" t="n">
-        <v>-0.005808</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0.004936</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0.0004893036589891754</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0.000482</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0.001120918340191286</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0.001008483938730307</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0.0008716386053628407</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0.0008776991999999999</v>
-      </c>
-      <c r="X30" t="n">
-        <v>-0.003362</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0.003362</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>0.0004760857273263122</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>0.000477</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>0.001086233153461209</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>0.000976342585322621</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0.000854039257937812</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>0.0008702861999999999</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>0.003362755020573859</v>
-      </c>
-      <c r="AH30" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="AI30" t="n">
-        <v>1917090</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>1367184</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>549002</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>10429</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>1757</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>12186</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>0.002568736172657148</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>0.002588761337714701</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>-0.001169</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>-9.8e-05</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>0.001086</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>0.002158</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>0.001184</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>-0.001162</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>-0.0001</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>0.001074</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>0.002095</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>0.001174</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>0.0004893036589891754</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>0.001008483938730307</v>
-      </c>
-      <c r="BC30" t="n">
-        <v>122338.8498843068</v>
-      </c>
-      <c r="BD30" t="n">
-        <v>6.632135228644302</v>
-      </c>
-      <c r="BE30" t="n">
-        <v>0.006722693953013577</v>
-      </c>
-      <c r="BF30" t="n">
-        <v>-0.005808409162356089</v>
-      </c>
-      <c r="BG30" t="n">
-        <v>0.0007506396059552209</v>
-      </c>
-      <c r="BH30" t="n">
-        <v>-0.4327674980723418</v>
-      </c>
-      <c r="BI30" t="n">
-        <v>203600348.2673969</v>
-      </c>
-      <c r="BJ30" t="n">
-        <v>-0.04436061331310492</v>
-      </c>
-      <c r="BK30" t="n">
-        <v>0.9798550044227512</v>
-      </c>
-      <c r="BL30" t="inlineStr">
-        <is>
-          <t>data\Multi-Illumination\python_a-1-AI-b-1_m3c2_distances.txt</t>
-        </is>
-      </c>
-      <c r="BM30" t="inlineStr">
-        <is>
-          <t>data\Multi-Illumination\python_a-1-AI-b-1_m3c2_params.txt</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2025-09-01 09:31:04</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>data\Multi-Illumination</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>a-1-AI-b-1-AI</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>2143284</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="G31" t="n">
-        <v>25924</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.01209545725158215</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.9879045427484179</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2117360</v>
-      </c>
-      <c r="K31" t="n">
-        <v>522.5222369999999</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.987969683329</v>
-      </c>
-      <c r="M31" t="n">
-        <v>2067166</v>
-      </c>
-      <c r="N31" t="n">
-        <v>387.117282</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.390636687952</v>
-      </c>
-      <c r="P31" t="n">
-        <v>-0.005688</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0.00617</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0.0002467800643253863</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0.000183</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0.000968963742060044</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0.0009370113837507853</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0.0006621369068084785</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0.0006063833999999999</v>
-      </c>
-      <c r="X31" t="n">
-        <v>-0.002906</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0.002906</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>0.0001872695671271683</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>0.00017</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>0.0008201988665263999</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>0.0007985338376544816</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>0.0005949083663334245</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>0.0005841444</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>0.002906891226180132</v>
-      </c>
-      <c r="AH31" t="inlineStr">
-        <is>
-          <t>rmse</t>
-        </is>
-      </c>
-      <c r="AI31" t="n">
-        <v>2067166</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>1281193</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>784476</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>44868</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>5326</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>50194</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>0.002697632286727497</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>0.002150178147824242</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>-0.001117</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>-0.000234</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>0.0005820000000000001</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>0.002048</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>0.0008160000000000001</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>-0.0011</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>-0.000241</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>0.000545</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>0.001659</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>0.000786</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>0.0002467800643253863</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>0.0009370113837507853</v>
-      </c>
-      <c r="BC31" t="n">
-        <v>1561851.362796817</v>
-      </c>
-      <c r="BD31" t="n">
-        <v>5.939962160905105</v>
-      </c>
-      <c r="BE31" t="n">
-        <v>0.006340247401192347</v>
-      </c>
-      <c r="BF31" t="n">
-        <v>-0.005688138567817923</v>
-      </c>
-      <c r="BG31" t="n">
-        <v>0.0004583629744138711</v>
-      </c>
-      <c r="BH31" t="n">
-        <v>-0.3670612797172161</v>
-      </c>
-      <c r="BI31" t="n">
-        <v>11693423546.35915</v>
-      </c>
-      <c r="BJ31" t="n">
-        <v>0.7472737316746452</v>
-      </c>
-      <c r="BK31" t="n">
-        <v>2.994743908023999</v>
-      </c>
-      <c r="BL31" t="inlineStr">
-        <is>
-          <t>data\Multi-Illumination\python_a-1-AI-b-1-AI_m3c2_distances.txt</t>
-        </is>
-      </c>
-      <c r="BM31" t="inlineStr">
         <is>
           <t>data\Multi-Illumination\python_a-1-AI-b-1-AI_m3c2_params.txt</t>
         </is>
